--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
-    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
-    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
+    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
+    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
+    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="74">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -52,10 +53,13 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>1-0-0</t>
-  </si>
-  <si>
-    <t>0-1-0</t>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -76,37 +80,115 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Place 1</t>
-  </si>
-  <si>
-    <t>Place 2</t>
-  </si>
-  <si>
-    <t>Place 3</t>
-  </si>
-  <si>
-    <t>Place 4</t>
-  </si>
-  <si>
-    <t>Place 5</t>
-  </si>
-  <si>
-    <t>Place 6</t>
-  </si>
-  <si>
-    <t>Place 7</t>
-  </si>
-  <si>
-    <t>Place 8</t>
-  </si>
-  <si>
-    <t>Place 9</t>
-  </si>
-  <si>
-    <t>Place 10</t>
-  </si>
-  <si>
-    <t>Chance of making playoffs</t>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>11.2-2.8</t>
+  </si>
+  <si>
+    <t>10.7-3.3</t>
+  </si>
+  <si>
+    <t>9.1-4.9</t>
+  </si>
+  <si>
+    <t>8.2-5.8</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
+  </si>
+  <si>
+    <t>3.7-10.3</t>
+  </si>
+  <si>
+    <t>1.8-12.2</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>2-12</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -115,7 +197,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -581,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -616,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -631,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -642,34 +748,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -686,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -701,10 +807,10 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,31 +821,31 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -756,13 +862,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -771,10 +877,10 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -785,31 +891,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -820,31 +926,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -852,34 +958,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -897,13 +1003,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -911,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -925,13 +1031,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -942,10 +1048,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -953,13 +1059,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -967,13 +1073,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -981,13 +1087,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -995,10 +1101,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1009,10 +1115,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1026,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1040,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1061,16 +1167,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1078,13 +1184,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1098,10 +1204,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="D3">
-        <v>-0.09999999999999998</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1112,16 +1218,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="D4">
-        <v>-0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1132,10 +1238,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="D5">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1146,13 +1252,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1163,16 +1269,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1183,13 +1289,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1197,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1214,16 +1320,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1231,16 +1337,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1258,63 +1364,63 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>74.18000000000001</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>25.21</v>
+        <v>23.5</v>
       </c>
       <c r="D2">
-        <v>0.61</v>
+        <v>10.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1337,25 +1443,25 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>21.56</v>
+        <v>24.8</v>
       </c>
       <c r="C3">
-        <v>40.75</v>
+        <v>43.3</v>
       </c>
       <c r="D3">
-        <v>28.01</v>
+        <v>21.8</v>
       </c>
       <c r="E3">
-        <v>8.050000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="F3">
-        <v>1.43</v>
+        <v>2.1</v>
       </c>
       <c r="G3">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1367,36 +1473,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.99000000000001</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3.78</v>
+        <v>12.2</v>
       </c>
       <c r="C4">
-        <v>23.23</v>
+        <v>21.8</v>
       </c>
       <c r="D4">
-        <v>34.48</v>
+        <v>29.6</v>
       </c>
       <c r="E4">
-        <v>25.21</v>
+        <v>17.7</v>
       </c>
       <c r="F4">
-        <v>10.11</v>
+        <v>11.1</v>
       </c>
       <c r="G4">
-        <v>2.71</v>
+        <v>5.5</v>
       </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="I4">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1405,121 +1511,121 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.51999999999998</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.43</v>
+        <v>1.6</v>
       </c>
       <c r="C5">
-        <v>8.260000000000002</v>
+        <v>3.8</v>
       </c>
       <c r="D5">
-        <v>23.15</v>
+        <v>14.3</v>
       </c>
       <c r="E5">
-        <v>29.84</v>
+        <v>31.3</v>
       </c>
       <c r="F5">
-        <v>23.41</v>
+        <v>29.8</v>
       </c>
       <c r="G5">
-        <v>10.98</v>
+        <v>15.2</v>
       </c>
       <c r="H5">
-        <v>3.47</v>
+        <v>3.6</v>
       </c>
       <c r="I5">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="J5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>96.07000000000001</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="D6">
-        <v>10.09</v>
+        <v>12.2</v>
       </c>
       <c r="E6">
-        <v>22.02</v>
+        <v>21.9</v>
       </c>
       <c r="F6">
-        <v>28.55</v>
+        <v>23.1</v>
       </c>
       <c r="G6">
-        <v>22.78</v>
+        <v>21.8</v>
       </c>
       <c r="H6">
-        <v>10.86</v>
+        <v>11.1</v>
       </c>
       <c r="I6">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>85.59</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="D7">
-        <v>3.07</v>
+        <v>10.2</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>14.2</v>
       </c>
       <c r="F7">
-        <v>22.06</v>
+        <v>19.1</v>
       </c>
       <c r="G7">
-        <v>28.76</v>
+        <v>24.4</v>
       </c>
       <c r="H7">
-        <v>22.35</v>
+        <v>15.6</v>
       </c>
       <c r="I7">
-        <v>10.12</v>
+        <v>7.4</v>
       </c>
       <c r="J7">
-        <v>2.19</v>
+        <v>3.8</v>
       </c>
       <c r="K7">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L7">
-        <v>65.29000000000001</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1530,39 +1636,39 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
-        <v>3.39</v>
+        <v>1.7</v>
       </c>
       <c r="F8">
-        <v>11.33</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G8">
-        <v>23.03</v>
+        <v>22.6</v>
       </c>
       <c r="H8">
-        <v>30.81</v>
+        <v>42.3</v>
       </c>
       <c r="I8">
-        <v>21.86</v>
+        <v>19.4</v>
       </c>
       <c r="J8">
-        <v>8.52</v>
+        <v>4.8</v>
       </c>
       <c r="K8">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="L8">
-        <v>38.34</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1571,36 +1677,36 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="E9">
-        <v>0.49</v>
+        <v>1.1</v>
       </c>
       <c r="F9">
-        <v>2.92</v>
+        <v>3.9</v>
       </c>
       <c r="G9">
-        <v>9.869999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="H9">
-        <v>23.63</v>
+        <v>17.8</v>
       </c>
       <c r="I9">
-        <v>35.61</v>
+        <v>41.6</v>
       </c>
       <c r="J9">
-        <v>23.21</v>
+        <v>23.5</v>
       </c>
       <c r="K9">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="L9">
-        <v>13.33</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1615,30 +1721,30 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.19</v>
+        <v>1.1</v>
       </c>
       <c r="G10">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="H10">
-        <v>8.469999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I10">
-        <v>28.25</v>
+        <v>24.2</v>
       </c>
       <c r="J10">
-        <v>40.84</v>
+        <v>47.3</v>
       </c>
       <c r="K10">
-        <v>20.57</v>
+        <v>17.5</v>
       </c>
       <c r="L10">
-        <v>1.87</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1662,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.58</v>
+        <v>3.2</v>
       </c>
       <c r="J11">
-        <v>24.73</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>74.69</v>
+        <v>77.8</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1680,6 +1786,305 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>135.49</v>
+      </c>
+      <c r="E2">
+        <v>270.98</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>127.08</v>
+      </c>
+      <c r="E3">
+        <v>254.16</v>
+      </c>
+      <c r="F3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>132.06</v>
+      </c>
+      <c r="E4">
+        <v>264.12</v>
+      </c>
+      <c r="F4">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>117.63</v>
+      </c>
+      <c r="E5">
+        <v>235.26</v>
+      </c>
+      <c r="F5">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>117.23</v>
+      </c>
+      <c r="E6">
+        <v>234.46</v>
+      </c>
+      <c r="F6">
+        <v>83.7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>116.21</v>
+      </c>
+      <c r="E7">
+        <v>232.42</v>
+      </c>
+      <c r="F7">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>110.05</v>
+      </c>
+      <c r="E8">
+        <v>220.1</v>
+      </c>
+      <c r="F8">
+        <v>33.3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E9">
+        <v>196.2</v>
+      </c>
+      <c r="F9">
+        <v>12.7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>93.59</v>
+      </c>
+      <c r="E10">
+        <v>187.18</v>
+      </c>
+      <c r="F10">
+        <v>3.4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>89.66</v>
+      </c>
+      <c r="E11">
+        <v>179.32</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1689,16 +2094,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1709,13 +2114,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1726,13 +2131,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1743,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1757,16 +2162,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1774,16 +2179,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1791,16 +2196,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1808,16 +2213,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1825,16 +2230,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>-4</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1848,10 +2253,10 @@
         <v>-5</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1859,7 +2264,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>-6</v>
@@ -1867,139 +2272,8 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>-4</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>-6</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2009,33 +2283,249 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-4</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>-2</v>
+      </c>
+      <c r="F3">
+        <v>-4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="88">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -143,7 +143,7 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>11.2-2.8</t>
+    <t>11.1-2.9</t>
   </si>
   <si>
     <t>10.7-3.3</t>
@@ -155,10 +155,10 @@
     <t>8.2-5.8</t>
   </si>
   <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
+    <t>7.6-6.4</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
   </si>
   <si>
     <t>5.8-8.2</t>
@@ -173,6 +173,9 @@
     <t>1.8-12.2</t>
   </si>
   <si>
+    <t>12-2</t>
+  </si>
+  <si>
     <t>11-3</t>
   </si>
   <si>
@@ -182,6 +185,12 @@
     <t>8-6</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>5-9</t>
   </si>
   <si>
@@ -191,10 +200,43 @@
     <t>2-12</t>
   </si>
   <si>
+    <t>Owners</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>gianni alessio</t>
+  </si>
+  <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Zacierka </t>
+  </si>
+  <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
+    <t>Kate Zacierka</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>James Breen</t>
+  </si>
+  <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
+    <t>Ayush Chivate</t>
   </si>
   <si>
     <t>↓2</t>
@@ -1405,22 +1447,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>56.5</v>
       </c>
       <c r="C2">
-        <v>23.5</v>
+        <v>25.9</v>
       </c>
       <c r="D2">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="E2">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="F2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1443,25 +1485,25 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>24.8</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>43.3</v>
+        <v>39.3</v>
       </c>
       <c r="D3">
-        <v>21.8</v>
+        <v>22.5</v>
       </c>
       <c r="E3">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="F3">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G3">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1473,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1481,28 +1523,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C4">
-        <v>21.8</v>
+        <v>22.3</v>
       </c>
       <c r="D4">
-        <v>29.6</v>
+        <v>28.6</v>
       </c>
       <c r="E4">
-        <v>17.7</v>
+        <v>19.1</v>
       </c>
       <c r="F4">
-        <v>11.1</v>
+        <v>9.6</v>
       </c>
       <c r="G4">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="H4">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1511,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1519,28 +1561,28 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="D5">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>31.3</v>
+        <v>29.1</v>
       </c>
       <c r="F5">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="G5">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="H5">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1549,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1557,37 +1599,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D6">
-        <v>12.2</v>
+        <v>9.5</v>
       </c>
       <c r="E6">
-        <v>21.9</v>
+        <v>19.9</v>
       </c>
       <c r="F6">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="G6">
-        <v>21.8</v>
+        <v>23.2</v>
       </c>
       <c r="H6">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="I6">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="J6">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>83.7</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1595,37 +1637,37 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D7">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="E7">
-        <v>14.2</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="G7">
-        <v>24.4</v>
+        <v>22.2</v>
       </c>
       <c r="H7">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="I7">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J7">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="K7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>73.09999999999999</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1639,31 +1681,31 @@
         <v>0.1</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>8.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="G8">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="H8">
-        <v>42.3</v>
+        <v>41.3</v>
       </c>
       <c r="I8">
-        <v>19.4</v>
+        <v>17.7</v>
       </c>
       <c r="J8">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="K8">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
-        <v>33.3</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1677,31 +1719,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="F9">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="G9">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H9">
-        <v>17.8</v>
+        <v>16.8</v>
       </c>
       <c r="I9">
-        <v>41.6</v>
+        <v>40.9</v>
       </c>
       <c r="J9">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="K9">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L9">
-        <v>12.7</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1718,28 +1760,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F10">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="G10">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H10">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="I10">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="J10">
-        <v>47.3</v>
+        <v>47.1</v>
       </c>
       <c r="K10">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1765,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>19.7</v>
       </c>
       <c r="K11">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1862,13 +1904,13 @@
         <v>254.16</v>
       </c>
       <c r="F3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1888,13 +1930,13 @@
         <v>264.12</v>
       </c>
       <c r="F4">
-        <v>97.89999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1914,13 +1956,13 @@
         <v>235.26</v>
       </c>
       <c r="F5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1940,13 +1982,13 @@
         <v>234.46</v>
       </c>
       <c r="F6">
-        <v>83.7</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1966,13 +2008,13 @@
         <v>232.42</v>
       </c>
       <c r="F7">
-        <v>73.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1992,13 +2034,13 @@
         <v>220.1</v>
       </c>
       <c r="F8">
-        <v>33.3</v>
+        <v>35.3</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2018,13 +2060,13 @@
         <v>196.2</v>
       </c>
       <c r="F9">
-        <v>12.7</v>
+        <v>14.3</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2044,13 +2086,13 @@
         <v>187.18</v>
       </c>
       <c r="F10">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2076,7 +2118,7 @@
         <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2086,194 +2128,227 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
         <v>-2</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
       <c r="E7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8">
         <v>-4</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
         <v>-4</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10">
         <v>-5</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
         <v>-6</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2291,13 +2366,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2311,7 +2386,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2325,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2339,7 +2414,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2353,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2367,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2381,7 +2456,7 @@
         <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2395,7 +2470,7 @@
         <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2409,7 +2484,7 @@
         <v>-4</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2423,7 +2498,7 @@
         <v>-5</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2437,7 +2512,7 @@
         <v>-6</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2455,25 +2530,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="90">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -53,13 +53,16 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -134,57 +137,51 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>11.1-2.9</t>
-  </si>
-  <si>
-    <t>10.7-3.3</t>
-  </si>
-  <si>
-    <t>9.1-4.9</t>
-  </si>
-  <si>
-    <t>8.2-5.8</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>9.8-4.2</t>
+  </si>
+  <si>
+    <t>9.9-4.1</t>
+  </si>
+  <si>
+    <t>8.1-5.9</t>
   </si>
   <si>
     <t>7.1-6.9</t>
   </si>
   <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>4.8-9.2</t>
-  </si>
-  <si>
-    <t>3.7-10.3</t>
-  </si>
-  <si>
-    <t>1.8-12.2</t>
-  </si>
-  <si>
-    <t>12-2</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>3.9-10.1</t>
+  </si>
+  <si>
+    <t>3.4-10.6</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
@@ -197,7 +194,7 @@
     <t>4-10</t>
   </si>
   <si>
-    <t>2-12</t>
+    <t>3-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -209,61 +206,70 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
     <t>gianni alessio</t>
   </si>
   <si>
-    <t>Gianpierre Lopez</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mike Zacierka </t>
   </si>
   <si>
+    <t>Kate Zacierka</t>
+  </si>
+  <si>
+    <t>James Breen</t>
+  </si>
+  <si>
     <t>Derek Alcavage</t>
   </si>
   <si>
-    <t>Kate Zacierka</t>
+    <t>jack meehan</t>
   </si>
   <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>James Breen</t>
-  </si>
-  <si>
-    <t>jack meehan</t>
-  </si>
-  <si>
     <t>Ayush Chivate</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>↓4</t>
   </si>
   <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -688,31 +694,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -723,31 +729,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -755,34 +761,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -790,34 +796,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -828,16 +834,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -846,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -869,10 +875,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -907,10 +913,10 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -930,34 +936,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -968,31 +974,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1003,10 +1009,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1015,16 +1021,16 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -1045,13 +1051,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1059,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1073,13 +1079,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1087,13 +1093,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1101,13 +1107,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1115,13 +1121,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1129,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1143,13 +1149,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1157,13 +1163,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1171,10 +1177,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1185,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1209,16 +1215,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1229,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D2">
-        <v>-0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1243,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="D3">
-        <v>-0.3999999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1260,16 +1266,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="D4">
-        <v>0.3999999999999999</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1277,13 +1283,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D5">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1294,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1311,13 +1317,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1328,16 +1334,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1345,13 +1351,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1365,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1379,16 +1385,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1406,69 +1412,69 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>56.5</v>
+        <v>21.6</v>
       </c>
       <c r="C2">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="D2">
-        <v>11.9</v>
+        <v>29.2</v>
       </c>
       <c r="E2">
-        <v>4.3</v>
+        <v>14.6</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1477,36 +1483,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>35.1</v>
       </c>
       <c r="C3">
-        <v>39.3</v>
+        <v>29.8</v>
       </c>
       <c r="D3">
-        <v>22.5</v>
+        <v>17.6</v>
       </c>
       <c r="E3">
-        <v>8.6</v>
+        <v>10.9</v>
       </c>
       <c r="F3">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1515,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1523,28 +1529,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.4</v>
+        <v>35.3</v>
       </c>
       <c r="C4">
-        <v>22.3</v>
+        <v>26.3</v>
       </c>
       <c r="D4">
-        <v>28.6</v>
+        <v>19.1</v>
       </c>
       <c r="E4">
-        <v>19.1</v>
+        <v>12.2</v>
       </c>
       <c r="F4">
-        <v>9.6</v>
+        <v>4.6</v>
       </c>
       <c r="G4">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H4">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1553,202 +1559,202 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>98.09999999999999</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="C5">
-        <v>4.9</v>
+        <v>12.9</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>17.6</v>
       </c>
       <c r="E5">
-        <v>29.1</v>
+        <v>20.4</v>
       </c>
       <c r="F5">
-        <v>29.4</v>
+        <v>17.8</v>
       </c>
       <c r="G5">
-        <v>14.5</v>
+        <v>12.4</v>
       </c>
       <c r="H5">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L5">
-        <v>94</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D6">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E6">
-        <v>19.9</v>
+        <v>19.5</v>
       </c>
       <c r="F6">
-        <v>23.9</v>
+        <v>25.6</v>
       </c>
       <c r="G6">
-        <v>23.2</v>
+        <v>20.5</v>
       </c>
       <c r="H6">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="I6">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="J6">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L6">
-        <v>82.09999999999999</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="D7">
-        <v>10.8</v>
+        <v>3.9</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>10.7</v>
       </c>
       <c r="F7">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>22.2</v>
+        <v>24.5</v>
       </c>
       <c r="H7">
-        <v>15.5</v>
+        <v>22.3</v>
       </c>
       <c r="I7">
-        <v>8.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="J7">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="L7">
-        <v>72.5</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>9.1</v>
       </c>
       <c r="F8">
-        <v>9.1</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>22.1</v>
+        <v>23.6</v>
       </c>
       <c r="H8">
-        <v>41.3</v>
+        <v>28.5</v>
       </c>
       <c r="I8">
-        <v>17.7</v>
+        <v>12.3</v>
       </c>
       <c r="J8">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>35.3</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="F9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H9">
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
       <c r="I9">
-        <v>40.9</v>
+        <v>31.2</v>
       </c>
       <c r="J9">
-        <v>23.7</v>
+        <v>24.7</v>
       </c>
       <c r="K9">
-        <v>4.3</v>
+        <v>11.5</v>
       </c>
       <c r="L9">
-        <v>14.3</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1760,36 +1766,36 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F10">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="G10">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H10">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="I10">
-        <v>24.7</v>
+        <v>17.7</v>
       </c>
       <c r="J10">
-        <v>47.1</v>
+        <v>33.1</v>
       </c>
       <c r="K10">
-        <v>17.2</v>
+        <v>39.5</v>
       </c>
       <c r="L10">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1798,28 +1804,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
       <c r="I11">
-        <v>2.6</v>
+        <v>16.5</v>
       </c>
       <c r="J11">
-        <v>19.7</v>
+        <v>29.7</v>
       </c>
       <c r="K11">
-        <v>77.5</v>
+        <v>46.4</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -1837,77 +1843,77 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>135.49</v>
+        <v>124.06</v>
       </c>
       <c r="E2">
-        <v>270.98</v>
+        <v>372.18</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>127.08</v>
+        <v>130.9</v>
       </c>
       <c r="E3">
-        <v>254.16</v>
+        <v>392.7</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>51</v>
@@ -1918,100 +1924,100 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>132.06</v>
+        <v>132.4533333333333</v>
       </c>
       <c r="E4">
-        <v>264.12</v>
+        <v>397.36</v>
       </c>
       <c r="F4">
-        <v>98.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>117.63</v>
+        <v>121.4733333333333</v>
       </c>
       <c r="E5">
-        <v>235.26</v>
+        <v>364.42</v>
       </c>
       <c r="F5">
-        <v>94</v>
+        <v>87.2</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6">
-        <v>117.23</v>
+        <v>118.72</v>
       </c>
       <c r="E6">
-        <v>234.46</v>
+        <v>356.16</v>
       </c>
       <c r="F6">
-        <v>82.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>116.21</v>
+        <v>114.04</v>
       </c>
       <c r="E7">
-        <v>232.42</v>
+        <v>342.12</v>
       </c>
       <c r="F7">
-        <v>72.5</v>
+        <v>60.9</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
         <v>54</v>
@@ -2019,106 +2025,106 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D8">
-        <v>110.05</v>
+        <v>111.66</v>
       </c>
       <c r="E8">
-        <v>220.1</v>
+        <v>334.98</v>
       </c>
       <c r="F8">
-        <v>35.3</v>
+        <v>53.8</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>98.09999999999999</v>
+        <v>100.2866666666667</v>
       </c>
       <c r="E9">
-        <v>196.2</v>
+        <v>300.86</v>
       </c>
       <c r="F9">
-        <v>14.3</v>
+        <v>16.4</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>93.59</v>
+        <v>90.63333333333333</v>
       </c>
       <c r="E10">
-        <v>187.18</v>
+        <v>271.9</v>
       </c>
       <c r="F10">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>89.66</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="E11">
-        <v>179.32</v>
+        <v>290</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2136,19 +2142,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2156,19 +2162,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2176,19 +2182,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2196,19 +2202,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2219,16 +2225,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2236,19 +2242,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2256,19 +2262,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2276,16 +2282,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>-4</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2296,16 +2302,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -2316,19 +2322,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2339,16 +2345,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2358,66 +2364,78 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2427,81 +2445,99 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8">
+        <v>-4</v>
+      </c>
+      <c r="E8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
+        <v>-5</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>-4</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>-4</v>
       </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-6</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>-5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10">
+        <v>-8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2511,8 +2547,11 @@
       <c r="C11">
         <v>-6</v>
       </c>
-      <c r="D11" t="s">
-        <v>78</v>
+      <c r="D11">
+        <v>-13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2530,25 +2569,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="93">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -53,16 +53,19 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -137,43 +140,49 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>9.8-4.2</t>
-  </si>
-  <si>
-    <t>9.9-4.1</t>
-  </si>
-  <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>7.1-6.9</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>5.0-9.0</t>
-  </si>
-  <si>
-    <t>3.9-10.1</t>
-  </si>
-  <si>
-    <t>3.4-10.6</t>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>10.4-3.6</t>
+  </si>
+  <si>
+    <t>9.6-4.4</t>
+  </si>
+  <si>
+    <t>8.8-5.2</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>5.6-8.4</t>
+  </si>
+  <si>
+    <t>5.2-8.8</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
+  </si>
+  <si>
+    <t>4.6-9.4</t>
+  </si>
+  <si>
+    <t>11-3</t>
   </si>
   <si>
     <t>10-4</t>
@@ -182,6 +191,9 @@
     <t>9-5</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
@@ -191,12 +203,6 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -206,6 +212,9 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t xml:space="preserve">Mike Zacierka </t>
+  </si>
+  <si>
     <t>Gianpierre Lopez</t>
   </si>
   <si>
@@ -215,52 +224,49 @@
     <t>gianni alessio</t>
   </si>
   <si>
-    <t xml:space="preserve">Mike Zacierka </t>
+    <t>James Breen</t>
   </si>
   <si>
     <t>Kate Zacierka</t>
   </si>
   <si>
-    <t>James Breen</t>
-  </si>
-  <si>
     <t>Derek Alcavage</t>
   </si>
   <si>
+    <t>Ayush Chivate</t>
+  </si>
+  <si>
     <t>jack meehan</t>
   </si>
   <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>Ayush Chivate</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑8</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -270,6 +276,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -694,13 +703,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -712,13 +721,13 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -764,31 +773,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -799,13 +808,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -814,16 +823,16 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -834,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -858,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -869,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -893,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -901,34 +910,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -939,31 +948,31 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -974,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -998,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1009,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1033,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1051,13 +1060,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1065,13 +1074,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1079,13 +1088,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1093,13 +1102,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1107,13 +1116,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1121,13 +1130,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1135,13 +1144,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1149,13 +1158,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1163,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1180,10 +1189,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1194,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1215,16 +1224,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1235,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D2">
-        <v>0.3999999999999999</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1249,16 +1258,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D3">
-        <v>0.2999999999999998</v>
+        <v>-1.2</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1266,16 +1275,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D4">
-        <v>-0.8999999999999999</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1283,16 +1292,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D5">
-        <v>-0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1300,13 +1309,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="D6">
-        <v>0.6000000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1317,16 +1326,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1334,16 +1343,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>-0.7</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1351,13 +1360,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D9">
-        <v>-0.09999999999999998</v>
+        <v>-0.7</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1368,13 +1377,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1385,16 +1394,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="D11">
-        <v>-0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1412,40 +1421,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1453,28 +1462,28 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>21.6</v>
+        <v>42.9</v>
       </c>
       <c r="C2">
-        <v>25.6</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>29.2</v>
+        <v>18.7</v>
       </c>
       <c r="E2">
-        <v>14.6</v>
+        <v>6.6</v>
       </c>
       <c r="F2">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="G2">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1483,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1491,25 +1500,25 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>35.1</v>
+        <v>29.5</v>
       </c>
       <c r="C3">
-        <v>29.8</v>
+        <v>30.8</v>
       </c>
       <c r="D3">
-        <v>17.6</v>
+        <v>21.1</v>
       </c>
       <c r="E3">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="F3">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="G3">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H3">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="I3">
         <v>0.1</v>
@@ -1521,159 +1530,159 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>35.3</v>
+        <v>18.2</v>
       </c>
       <c r="C4">
-        <v>26.3</v>
+        <v>21.9</v>
       </c>
       <c r="D4">
-        <v>19.1</v>
+        <v>23.3</v>
       </c>
       <c r="E4">
-        <v>12.2</v>
+        <v>18.3</v>
       </c>
       <c r="F4">
-        <v>4.6</v>
+        <v>8.9</v>
       </c>
       <c r="G4">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H4">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
-        <v>99.2</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="C5">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D5">
-        <v>17.6</v>
+        <v>20.2</v>
       </c>
       <c r="E5">
-        <v>20.4</v>
+        <v>24.8</v>
       </c>
       <c r="F5">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="G5">
-        <v>12.4</v>
+        <v>7.4</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>4.9</v>
       </c>
       <c r="I5">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="J5">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K5">
         <v>0.4</v>
       </c>
       <c r="L5">
-        <v>87.2</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="D6">
-        <v>8.300000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="E6">
-        <v>19.5</v>
+        <v>18.4</v>
       </c>
       <c r="F6">
-        <v>25.6</v>
+        <v>23.7</v>
       </c>
       <c r="G6">
-        <v>20.5</v>
+        <v>19.8</v>
       </c>
       <c r="H6">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="I6">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="J6">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="L6">
-        <v>77.7</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="E7">
-        <v>10.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>17.9</v>
       </c>
       <c r="G7">
-        <v>24.5</v>
+        <v>22.1</v>
       </c>
       <c r="H7">
-        <v>22.3</v>
+        <v>16.4</v>
       </c>
       <c r="I7">
-        <v>11.3</v>
+        <v>13.5</v>
       </c>
       <c r="J7">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="K7">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="L7">
-        <v>60.9</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1681,151 +1690,151 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>9.1</v>
+        <v>3.9</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G8">
-        <v>23.6</v>
+        <v>15.1</v>
       </c>
       <c r="H8">
-        <v>28.5</v>
+        <v>21.1</v>
       </c>
       <c r="I8">
-        <v>12.3</v>
+        <v>21.1</v>
       </c>
       <c r="J8">
-        <v>4.6</v>
+        <v>15.4</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>11.6</v>
       </c>
       <c r="L8">
-        <v>53.8</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0.2</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="E9">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="G9">
-        <v>9.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="H9">
-        <v>16.2</v>
+        <v>13.7</v>
       </c>
       <c r="I9">
-        <v>31.2</v>
+        <v>19.9</v>
       </c>
       <c r="J9">
-        <v>24.7</v>
+        <v>18.7</v>
       </c>
       <c r="K9">
-        <v>11.5</v>
+        <v>23.2</v>
       </c>
       <c r="L9">
-        <v>16.4</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="F10">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="G10">
-        <v>2.2</v>
+        <v>9.5</v>
       </c>
       <c r="H10">
-        <v>6.1</v>
+        <v>14.4</v>
       </c>
       <c r="I10">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="J10">
-        <v>33.1</v>
+        <v>25.7</v>
       </c>
       <c r="K10">
-        <v>39.5</v>
+        <v>25.1</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="H11">
-        <v>4.7</v>
+        <v>14.2</v>
       </c>
       <c r="I11">
         <v>16.5</v>
       </c>
       <c r="J11">
-        <v>29.7</v>
+        <v>24.4</v>
       </c>
       <c r="K11">
-        <v>46.4</v>
+        <v>32</v>
       </c>
       <c r="L11">
-        <v>2.7</v>
+        <v>12.9</v>
       </c>
     </row>
   </sheetData>
@@ -1843,28 +1852,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1872,25 +1881,25 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>124.06</v>
+        <v>125.215</v>
       </c>
       <c r="E2">
-        <v>372.18</v>
+        <v>500.86</v>
       </c>
       <c r="F2">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1898,129 +1907,129 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>130.9</v>
+        <v>128.915</v>
       </c>
       <c r="E3">
-        <v>392.7</v>
+        <v>515.6600000000001</v>
       </c>
       <c r="F3">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>132.4533333333333</v>
+        <v>128.51</v>
       </c>
       <c r="E4">
-        <v>397.36</v>
+        <v>514.04</v>
       </c>
       <c r="F4">
-        <v>99.2</v>
+        <v>95.8</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>121.4733333333333</v>
+        <v>126.435</v>
       </c>
       <c r="E5">
-        <v>364.42</v>
+        <v>505.74</v>
       </c>
       <c r="F5">
-        <v>87.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>118.72</v>
+        <v>117.23</v>
       </c>
       <c r="E6">
-        <v>356.16</v>
+        <v>468.92</v>
       </c>
       <c r="F6">
-        <v>77.7</v>
+        <v>73.7</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D7">
-        <v>114.04</v>
+        <v>116.765</v>
       </c>
       <c r="E7">
-        <v>342.12</v>
+        <v>467.0599999999999</v>
       </c>
       <c r="F7">
-        <v>60.9</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2028,103 +2037,103 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>111.66</v>
+        <v>108.825</v>
       </c>
       <c r="E8">
-        <v>334.98</v>
+        <v>435.3</v>
       </c>
       <c r="F8">
-        <v>53.8</v>
+        <v>30.8</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>100.2866666666667</v>
+        <v>105.32</v>
       </c>
       <c r="E9">
-        <v>300.86</v>
+        <v>421.28</v>
       </c>
       <c r="F9">
-        <v>16.4</v>
+        <v>24.5</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>90.63333333333333</v>
+        <v>105.56</v>
       </c>
       <c r="E10">
-        <v>271.9</v>
+        <v>422.24</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>16.8</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>96.66666666666667</v>
+        <v>105.14</v>
       </c>
       <c r="E11">
-        <v>290</v>
+        <v>420.56</v>
       </c>
       <c r="F11">
-        <v>2.7</v>
+        <v>12.9</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2142,19 +2151,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2162,19 +2171,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2182,19 +2191,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2202,19 +2211,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2222,19 +2231,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2242,19 +2251,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2262,10 +2271,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>-2</v>
@@ -2274,7 +2283,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2285,10 +2294,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -2302,19 +2311,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2322,19 +2331,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2342,19 +2351,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2364,129 +2373,150 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>6</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>6</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-2</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>-6</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>-2</v>
       </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2499,59 +2529,71 @@
       <c r="D8">
         <v>-4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <v>-13</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>-5</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-5</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>-7</v>
       </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-4</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-4</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-8</v>
       </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-2</v>
-      </c>
-      <c r="C11">
-        <v>-6</v>
-      </c>
-      <c r="D11">
-        <v>-13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
+      <c r="E11">
+        <v>-16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +2603,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2569,25 +2611,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2595,22 +2637,22 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -2624,21 +2666,47 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>-2</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>-4</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -152,34 +152,34 @@
     <t>1-3</t>
   </si>
   <si>
-    <t>10.4-3.6</t>
-  </si>
-  <si>
-    <t>9.6-4.4</t>
-  </si>
-  <si>
-    <t>8.8-5.2</t>
-  </si>
-  <si>
-    <t>7.9-6.1</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>5.6-8.4</t>
-  </si>
-  <si>
-    <t>5.2-8.8</t>
-  </si>
-  <si>
-    <t>4.8-9.2</t>
-  </si>
-  <si>
-    <t>4.6-9.4</t>
+    <t>10.3-3.6-0.1</t>
+  </si>
+  <si>
+    <t>9.5-4.4-0.1</t>
+  </si>
+  <si>
+    <t>8.8-5.2-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.1-0.1</t>
+  </si>
+  <si>
+    <t>7.0-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.0-7.9-0.1</t>
+  </si>
+  <si>
+    <t>5.5-8.3-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.7</t>
+  </si>
+  <si>
+    <t>4.8-9.2-0.1</t>
+  </si>
+  <si>
+    <t>4.7-9.3-0.1</t>
   </si>
   <si>
     <t>11-3</t>
@@ -1462,28 +1462,28 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>42.9</v>
+        <v>45.1</v>
       </c>
       <c r="C2">
         <v>28</v>
       </c>
       <c r="D2">
-        <v>18.7</v>
+        <v>15.6</v>
       </c>
       <c r="E2">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1500,31 +1500,31 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="D3">
-        <v>21.1</v>
+        <v>22.6</v>
       </c>
       <c r="E3">
-        <v>11.9</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="G3">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
         <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1538,37 +1538,37 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>18.2</v>
+        <v>16.9</v>
       </c>
       <c r="C4">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="D4">
-        <v>23.3</v>
+        <v>21.8</v>
       </c>
       <c r="E4">
-        <v>18.3</v>
+        <v>20.2</v>
       </c>
       <c r="F4">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="G4">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="H4">
         <v>2.4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
-        <v>95.8</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1576,37 +1576,37 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>12.8</v>
+        <v>11.8</v>
       </c>
       <c r="D5">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="E5">
         <v>24.8</v>
       </c>
       <c r="F5">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="G5">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H5">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I5">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="J5">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
-        <v>90.90000000000001</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1614,37 +1614,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="C6">
         <v>4.2</v>
       </c>
       <c r="D6">
-        <v>6.7</v>
+        <v>10.1</v>
       </c>
       <c r="E6">
-        <v>18.4</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>23.7</v>
+        <v>19.2</v>
       </c>
       <c r="G6">
-        <v>19.8</v>
+        <v>17.7</v>
       </c>
       <c r="H6">
-        <v>11.5</v>
+        <v>14.9</v>
       </c>
       <c r="I6">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K6">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="L6">
-        <v>73.7</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1652,37 +1652,37 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D7">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="E7">
-        <v>8.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="F7">
-        <v>17.9</v>
+        <v>15.6</v>
       </c>
       <c r="G7">
-        <v>22.1</v>
+        <v>24.1</v>
       </c>
       <c r="H7">
-        <v>16.4</v>
+        <v>17.3</v>
       </c>
       <c r="I7">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="J7">
-        <v>9.4</v>
+        <v>9.9</v>
       </c>
       <c r="K7">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="L7">
-        <v>56.1</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1690,37 +1690,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="E8">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>9.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="G8">
         <v>15.1</v>
       </c>
       <c r="H8">
-        <v>21.1</v>
+        <v>18.5</v>
       </c>
       <c r="I8">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="J8">
-        <v>15.4</v>
+        <v>16.9</v>
       </c>
       <c r="K8">
         <v>11.6</v>
       </c>
       <c r="L8">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1731,34 +1731,34 @@
         <v>0.2</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="E9">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="F9">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="G9">
-        <v>11.3</v>
+        <v>10.2</v>
       </c>
       <c r="H9">
-        <v>13.7</v>
+        <v>14.5</v>
       </c>
       <c r="I9">
-        <v>19.9</v>
+        <v>16.3</v>
       </c>
       <c r="J9">
-        <v>18.7</v>
+        <v>22.6</v>
       </c>
       <c r="K9">
-        <v>23.2</v>
+        <v>20.1</v>
       </c>
       <c r="L9">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1772,31 +1772,31 @@
         <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="E10">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="F10">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="G10">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H10">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="I10">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="J10">
-        <v>25.7</v>
+        <v>20.5</v>
       </c>
       <c r="K10">
-        <v>25.1</v>
+        <v>30.3</v>
       </c>
       <c r="L10">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1804,37 +1804,37 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0.2</v>
       </c>
       <c r="D11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F11">
         <v>3.4</v>
       </c>
       <c r="G11">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="H11">
-        <v>14.2</v>
+        <v>12.8</v>
       </c>
       <c r="I11">
-        <v>16.5</v>
+        <v>18.9</v>
       </c>
       <c r="J11">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="K11">
-        <v>32</v>
+        <v>29.1</v>
       </c>
       <c r="L11">
-        <v>12.9</v>
+        <v>14.4</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1945,7 @@
         <v>514.04</v>
       </c>
       <c r="F4">
-        <v>95.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1971,7 +1971,7 @@
         <v>505.74</v>
       </c>
       <c r="F5">
-        <v>90.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1997,7 +1997,7 @@
         <v>468.92</v>
       </c>
       <c r="F6">
-        <v>73.7</v>
+        <v>71.7</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
@@ -2023,7 +2023,7 @@
         <v>467.0599999999999</v>
       </c>
       <c r="F7">
-        <v>56.10000000000001</v>
+        <v>53.2</v>
       </c>
       <c r="G7" t="s">
         <v>48</v>
@@ -2049,7 +2049,7 @@
         <v>435.3</v>
       </c>
       <c r="F8">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -2075,7 +2075,7 @@
         <v>421.28</v>
       </c>
       <c r="F9">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -2101,7 +2101,7 @@
         <v>422.24</v>
       </c>
       <c r="F10">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -2127,7 +2127,7 @@
         <v>420.56</v>
       </c>
       <c r="F11">
-        <v>12.9</v>
+        <v>14.4</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="95">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -53,19 +53,22 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -140,54 +143,48 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>10.3-3.6-0.1</t>
-  </si>
-  <si>
-    <t>9.5-4.4-0.1</t>
-  </si>
-  <si>
-    <t>8.8-5.2-0.1</t>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>10.7-3.2-0.1</t>
+  </si>
+  <si>
+    <t>8.4-5.5-0.1</t>
+  </si>
+  <si>
+    <t>8.3-5.7-0.1</t>
   </si>
   <si>
     <t>7.8-6.1-0.1</t>
   </si>
   <si>
-    <t>7.0-6.9-0.1</t>
-  </si>
-  <si>
-    <t>6.0-7.9-0.1</t>
-  </si>
-  <si>
-    <t>5.5-8.3-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.7</t>
-  </si>
-  <si>
-    <t>4.8-9.2-0.1</t>
-  </si>
-  <si>
-    <t>4.7-9.3-0.1</t>
+    <t>7.1-6.9-0.1</t>
+  </si>
+  <si>
+    <t>5.8-8.2-0.1</t>
+  </si>
+  <si>
+    <t>5.9-8.0-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.7-0.1</t>
+  </si>
+  <si>
+    <t>4.6-9.3-0.1</t>
   </si>
   <si>
     <t>11-3</t>
   </si>
   <si>
-    <t>10-4</t>
-  </si>
-  <si>
     <t>9-5</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
     <t>5-9</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -218,57 +218,60 @@
     <t>Gianpierre Lopez</t>
   </si>
   <si>
+    <t>Kate Zacierka</t>
+  </si>
+  <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
     <t>gianni alessio</t>
   </si>
   <si>
     <t>James Breen</t>
   </si>
   <si>
-    <t>Kate Zacierka</t>
-  </si>
-  <si>
-    <t>Derek Alcavage</t>
-  </si>
-  <si>
     <t>Ayush Chivate</t>
   </si>
   <si>
-    <t>jack meehan</t>
-  </si>
-  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑8</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↓8</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -279,6 +282,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -747,10 +753,10 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -759,10 +765,10 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -773,19 +779,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -794,10 +800,10 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -805,34 +811,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -840,34 +846,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -890,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -899,10 +905,10 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -925,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -934,10 +940,10 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -945,22 +951,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -969,10 +975,10 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -980,22 +986,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -1004,10 +1010,10 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
         <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1039,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
@@ -1060,13 +1066,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1077,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1088,13 +1094,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1105,10 +1111,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1116,13 +1122,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1130,13 +1136,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1144,13 +1150,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1158,10 +1164,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1172,13 +1178,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1186,13 +1192,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1203,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1224,16 +1230,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1241,16 +1247,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D2">
-        <v>-0.1000000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1258,16 +1264,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D3">
-        <v>-1.2</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1275,13 +1281,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1292,16 +1298,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D5">
-        <v>0.3999999999999999</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1309,16 +1315,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>0.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1326,16 +1332,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D7">
-        <v>0.8</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1343,16 +1349,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="D8">
-        <v>0.3999999999999999</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1360,13 +1366,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="D9">
-        <v>-0.7</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1377,16 +1383,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1394,13 +1400,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1421,40 +1427,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1462,28 +1468,28 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>45.1</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>18.4</v>
       </c>
       <c r="D2">
-        <v>15.6</v>
+        <v>6.5</v>
       </c>
       <c r="E2">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1492,45 +1498,45 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>11.3</v>
       </c>
       <c r="C3">
-        <v>30.7</v>
+        <v>25.5</v>
       </c>
       <c r="D3">
-        <v>22.6</v>
+        <v>25.7</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>16.1</v>
       </c>
       <c r="F3">
-        <v>4.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G3">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="I3">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>98.8</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1538,75 +1544,75 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>16.9</v>
+        <v>9.9</v>
       </c>
       <c r="C4">
-        <v>22.2</v>
+        <v>25.8</v>
       </c>
       <c r="D4">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>20.2</v>
+        <v>18.1</v>
       </c>
       <c r="F4">
-        <v>11.2</v>
+        <v>10.3</v>
       </c>
       <c r="G4">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="H4">
+        <v>3.5</v>
+      </c>
+      <c r="I4">
         <v>2.4</v>
       </c>
-      <c r="I4">
-        <v>1.1</v>
-      </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
-        <v>96.09999999999999</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C5">
-        <v>11.8</v>
+        <v>16.6</v>
       </c>
       <c r="D5">
-        <v>20.3</v>
+        <v>18.5</v>
       </c>
       <c r="E5">
-        <v>24.8</v>
+        <v>20.7</v>
       </c>
       <c r="F5">
-        <v>18.7</v>
+        <v>13.4</v>
       </c>
       <c r="G5">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H5">
-        <v>5.1</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="J5">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="L5">
-        <v>90.3</v>
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1614,37 +1620,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="D6">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="G6">
-        <v>17.7</v>
+        <v>17.1</v>
       </c>
       <c r="H6">
-        <v>14.9</v>
+        <v>12.9</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J6">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="K6">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="L6">
-        <v>71.7</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1652,189 +1658,189 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C7">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="D7">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="E7">
-        <v>7.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F7">
-        <v>15.6</v>
+        <v>14.3</v>
       </c>
       <c r="G7">
-        <v>24.1</v>
+        <v>15.7</v>
       </c>
       <c r="H7">
-        <v>17.3</v>
+        <v>14.9</v>
       </c>
       <c r="I7">
-        <v>13.2</v>
+        <v>17.4</v>
       </c>
       <c r="J7">
+        <v>10.9</v>
+      </c>
+      <c r="K7">
         <v>9.9</v>
       </c>
-      <c r="K7">
-        <v>6.4</v>
-      </c>
       <c r="L7">
-        <v>53.2</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="D8">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="F8">
-        <v>10.7</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="H8">
-        <v>18.5</v>
+        <v>17.9</v>
       </c>
       <c r="I8">
-        <v>21.2</v>
+        <v>14.9</v>
       </c>
       <c r="J8">
-        <v>16.9</v>
+        <v>16.1</v>
       </c>
       <c r="K8">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="L8">
-        <v>31.8</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="E9">
-        <v>4.6</v>
+        <v>7.3</v>
       </c>
       <c r="F9">
-        <v>8.6</v>
+        <v>10.8</v>
       </c>
       <c r="G9">
-        <v>10.2</v>
+        <v>13.7</v>
       </c>
       <c r="H9">
-        <v>14.5</v>
+        <v>16.9</v>
       </c>
       <c r="I9">
-        <v>16.3</v>
+        <v>18.7</v>
       </c>
       <c r="J9">
-        <v>22.6</v>
+        <v>14.2</v>
       </c>
       <c r="K9">
-        <v>20.1</v>
+        <v>12.4</v>
       </c>
       <c r="L9">
-        <v>26.5</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="E10">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="F10">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G10">
-        <v>8.699999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="H10">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="I10">
-        <v>18.2</v>
+        <v>21.5</v>
       </c>
       <c r="J10">
-        <v>20.5</v>
+        <v>24.9</v>
       </c>
       <c r="K10">
-        <v>30.3</v>
+        <v>20.3</v>
       </c>
       <c r="L10">
-        <v>17.5</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G11">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="H11">
-        <v>12.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I11">
-        <v>18.9</v>
+        <v>12.1</v>
       </c>
       <c r="J11">
-        <v>24.8</v>
+        <v>23.3</v>
       </c>
       <c r="K11">
-        <v>29.1</v>
+        <v>42.2</v>
       </c>
       <c r="L11">
-        <v>14.4</v>
+        <v>12.6</v>
       </c>
     </row>
   </sheetData>
@@ -1852,28 +1858,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1881,22 +1887,22 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>125.215</v>
+        <v>128.108</v>
       </c>
       <c r="E2">
-        <v>500.86</v>
+        <v>640.54</v>
       </c>
       <c r="F2">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -1904,25 +1910,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <v>128.915</v>
+        <v>126.224</v>
       </c>
       <c r="E3">
-        <v>515.6600000000001</v>
+        <v>631.12</v>
       </c>
       <c r="F3">
-        <v>98.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>54</v>
@@ -1933,22 +1939,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>128.51</v>
+        <v>127.796</v>
       </c>
       <c r="E4">
-        <v>514.04</v>
+        <v>638.98</v>
       </c>
       <c r="F4">
-        <v>96.09999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
         <v>55</v>
@@ -1956,28 +1962,28 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>126.435</v>
+        <v>121.436</v>
       </c>
       <c r="E5">
-        <v>505.74</v>
+        <v>607.1800000000001</v>
       </c>
       <c r="F5">
-        <v>90.3</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1988,22 +1994,22 @@
         <v>41</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>117.23</v>
+        <v>113.484</v>
       </c>
       <c r="E6">
-        <v>468.92</v>
+        <v>567.4200000000001</v>
       </c>
       <c r="F6">
-        <v>71.7</v>
+        <v>70.7</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2014,120 +2020,120 @@
         <v>42</v>
       </c>
       <c r="C7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <v>116.765</v>
+        <v>119.816</v>
       </c>
       <c r="E7">
-        <v>467.0599999999999</v>
+        <v>599.0799999999999</v>
       </c>
       <c r="F7">
-        <v>53.2</v>
+        <v>46.9</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>108.825</v>
+        <v>111.212</v>
       </c>
       <c r="E8">
-        <v>435.3</v>
+        <v>556.0599999999999</v>
       </c>
       <c r="F8">
-        <v>31.8</v>
+        <v>40.1</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>105.32</v>
+        <v>109.604</v>
       </c>
       <c r="E9">
-        <v>421.28</v>
+        <v>548.02</v>
       </c>
       <c r="F9">
-        <v>26.5</v>
+        <v>37.8</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>105.56</v>
+        <v>107.008</v>
       </c>
       <c r="E10">
-        <v>422.24</v>
+        <v>535.04</v>
       </c>
       <c r="F10">
-        <v>17.5</v>
+        <v>19.9</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>105.14</v>
+        <v>103.6</v>
       </c>
       <c r="E11">
-        <v>420.56</v>
+        <v>518</v>
       </c>
       <c r="F11">
-        <v>14.4</v>
+        <v>12.6</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -2151,7 +2157,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>60</v>
@@ -2160,7 +2166,7 @@
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>62</v>
@@ -2177,7 +2183,7 @@
         <v>63</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -2197,10 +2203,10 @@
         <v>64</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -2211,16 +2217,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>75</v>
@@ -2231,13 +2237,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -2251,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -2260,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>77</v>
@@ -2271,16 +2277,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>78</v>
@@ -2291,19 +2297,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
       </c>
       <c r="D8">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2311,19 +2317,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2331,19 +2337,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2357,13 +2363,13 @@
         <v>72</v>
       </c>
       <c r="D11">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2373,30 +2379,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2412,11 +2421,14 @@
       <c r="E2">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2432,151 +2444,175 @@
       <c r="E3">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-5</v>
+      </c>
+      <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <v>-7</v>
+      </c>
+      <c r="E5">
+        <v>-7</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-4</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>-6</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>-4</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="F9">
         <v>-2</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>-2</v>
       </c>
-      <c r="F7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>-4</v>
-      </c>
-      <c r="E8">
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>-13</v>
+      </c>
+      <c r="E10">
         <v>-5</v>
       </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>-6</v>
-      </c>
-      <c r="D9">
+      <c r="F10">
         <v>-13</v>
       </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>-5</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2592,8 +2628,11 @@
       <c r="E11">
         <v>-16</v>
       </c>
-      <c r="F11" t="s">
-        <v>81</v>
+      <c r="F11">
+        <v>-13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2603,7 +2642,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2611,25 +2650,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2663,25 +2702,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2692,22 +2731,100 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>-2</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>-4</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="100">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -122,6 +123,24 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -155,10 +174,10 @@
     <t>2-3</t>
   </si>
   <si>
-    <t>10.7-3.2-0.1</t>
-  </si>
-  <si>
-    <t>8.4-5.5-0.1</t>
+    <t>10.8-3.1-0.1</t>
+  </si>
+  <si>
+    <t>8.5-5.5-0.1</t>
   </si>
   <si>
     <t>8.3-5.7-0.1</t>
@@ -167,10 +186,10 @@
     <t>7.8-6.1-0.1</t>
   </si>
   <si>
-    <t>7.1-6.9-0.1</t>
-  </si>
-  <si>
-    <t>5.8-8.2-0.1</t>
+    <t>7.0-6.9-0.1</t>
+  </si>
+  <si>
+    <t>5.8-8.1-0.1</t>
   </si>
   <si>
     <t>5.9-8.0-0.1</t>
@@ -179,7 +198,7 @@
     <t>5.2-8.7-0.1</t>
   </si>
   <si>
-    <t>4.6-9.3-0.1</t>
+    <t>4.5-9.5-0.1</t>
   </si>
   <si>
     <t>11-3</t>
@@ -198,9 +217,6 @@
   </si>
   <si>
     <t>5-9</t>
-  </si>
-  <si>
-    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -1468,22 +1484,22 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>70.59999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="C2">
-        <v>18.4</v>
+        <v>20.3</v>
       </c>
       <c r="D2">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E2">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1506,37 +1522,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>25.5</v>
+        <v>27.4</v>
       </c>
       <c r="D3">
-        <v>25.7</v>
+        <v>24.8</v>
       </c>
       <c r="E3">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="H3">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I3">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
-        <v>94.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1544,37 +1560,37 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>9.9</v>
+        <v>10.9</v>
       </c>
       <c r="C4">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>21.8</v>
       </c>
       <c r="E4">
-        <v>18.1</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="G4">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="H4">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="I4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J4">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
-        <v>92.5</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1582,37 +1598,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C5">
-        <v>16.6</v>
+        <v>15.3</v>
       </c>
       <c r="D5">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>20.7</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>13.4</v>
+        <v>15.6</v>
       </c>
       <c r="G5">
-        <v>9.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="I5">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J5">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="K5">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
-        <v>84.90000000000001</v>
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1620,34 +1636,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="C6">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>11.9</v>
+        <v>10.5</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>15.8</v>
       </c>
       <c r="F6">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="G6">
-        <v>17.1</v>
+        <v>18.8</v>
       </c>
       <c r="H6">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="I6">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
         <v>70.7</v>
@@ -1658,37 +1674,37 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="D7">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="E7">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="F7">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="G7">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>14.9</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>17.4</v>
+        <v>16.1</v>
       </c>
       <c r="J7">
-        <v>10.9</v>
+        <v>13.4</v>
       </c>
       <c r="K7">
-        <v>9.9</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>46.9</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1696,37 +1712,37 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D8">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E8">
-        <v>6.5</v>
+        <v>9.1</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G8">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="H8">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="I8">
-        <v>14.9</v>
+        <v>16.6</v>
       </c>
       <c r="J8">
-        <v>16.1</v>
+        <v>15</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="L8">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1737,34 +1753,34 @@
         <v>0.1</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D9">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E9">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="F9">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>13.7</v>
+        <v>11.5</v>
       </c>
       <c r="H9">
-        <v>16.9</v>
+        <v>17.3</v>
       </c>
       <c r="I9">
-        <v>18.7</v>
+        <v>18.1</v>
       </c>
       <c r="J9">
-        <v>14.2</v>
+        <v>17.1</v>
       </c>
       <c r="K9">
-        <v>12.4</v>
+        <v>11.7</v>
       </c>
       <c r="L9">
-        <v>37.8</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1772,37 +1788,37 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
+        <v>0.7</v>
+      </c>
+      <c r="D10">
         <v>0.6</v>
       </c>
-      <c r="D10">
-        <v>1.3</v>
-      </c>
       <c r="E10">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="F10">
         <v>5.6</v>
       </c>
       <c r="G10">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="H10">
-        <v>13.4</v>
+        <v>14.2</v>
       </c>
       <c r="I10">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="J10">
         <v>24.9</v>
       </c>
       <c r="K10">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="L10">
-        <v>19.9</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1813,34 +1829,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
         <v>0.5</v>
       </c>
       <c r="E11">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="F11">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="G11">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="H11">
-        <v>9.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I11">
-        <v>12.1</v>
+        <v>14.1</v>
       </c>
       <c r="J11">
-        <v>23.3</v>
+        <v>20.3</v>
       </c>
       <c r="K11">
-        <v>42.2</v>
+        <v>46</v>
       </c>
       <c r="L11">
-        <v>12.6</v>
+        <v>11.3</v>
       </c>
     </row>
   </sheetData>
@@ -1849,6 +1865,269 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>99.8</v>
+      </c>
+      <c r="D2">
+        <v>99.5</v>
+      </c>
+      <c r="E2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="C3">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D3">
+        <v>99.2</v>
+      </c>
+      <c r="E3">
+        <v>91.2</v>
+      </c>
+      <c r="F3">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="G3">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3.4</v>
+      </c>
+      <c r="C4">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D4">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="E4">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="F4">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="G4">
+        <v>91.10000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E5">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F5">
+        <v>87.2</v>
+      </c>
+      <c r="G5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>98.3</v>
+      </c>
+      <c r="C6">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D6">
+        <v>55.7</v>
+      </c>
+      <c r="E6">
+        <v>73.3</v>
+      </c>
+      <c r="F6">
+        <v>69.39999999999999</v>
+      </c>
+      <c r="G6">
+        <v>70.89999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>63.2</v>
+      </c>
+      <c r="C7">
+        <v>31.2</v>
+      </c>
+      <c r="D7">
+        <v>78.3</v>
+      </c>
+      <c r="E7">
+        <v>49.8</v>
+      </c>
+      <c r="F7">
+        <v>46.9</v>
+      </c>
+      <c r="G7">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3.8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>15.9</v>
+      </c>
+      <c r="E8">
+        <v>16.8</v>
+      </c>
+      <c r="F8">
+        <v>42.6</v>
+      </c>
+      <c r="G8">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4.8</v>
+      </c>
+      <c r="D9">
+        <v>1.8</v>
+      </c>
+      <c r="E9">
+        <v>20.8</v>
+      </c>
+      <c r="F9">
+        <v>37.7</v>
+      </c>
+      <c r="G9">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>97.2</v>
+      </c>
+      <c r="D10">
+        <v>62.3</v>
+      </c>
+      <c r="E10">
+        <v>27.7</v>
+      </c>
+      <c r="F10">
+        <v>14.6</v>
+      </c>
+      <c r="G10">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C11">
+        <v>11.4</v>
+      </c>
+      <c r="D11">
+        <v>2.8</v>
+      </c>
+      <c r="E11">
+        <v>27.5</v>
+      </c>
+      <c r="F11">
+        <v>14.8</v>
+      </c>
+      <c r="G11">
+        <v>12.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1861,25 +2140,25 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1887,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1902,10 +2181,10 @@
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1913,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>0.6</v>
@@ -1925,13 +2204,13 @@
         <v>631.12</v>
       </c>
       <c r="F3">
-        <v>94.59999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1939,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>0.6</v>
@@ -1951,13 +2230,13 @@
         <v>638.98</v>
       </c>
       <c r="F4">
-        <v>92.5</v>
+        <v>91.3</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1965,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>0.6</v>
@@ -1977,13 +2256,13 @@
         <v>607.1800000000001</v>
       </c>
       <c r="F5">
-        <v>84.89999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1991,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -2006,10 +2285,10 @@
         <v>70.7</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2017,7 +2296,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>0.2</v>
@@ -2029,13 +2308,13 @@
         <v>599.0799999999999</v>
       </c>
       <c r="F7">
-        <v>46.9</v>
+        <v>47.5</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2043,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -2055,13 +2334,13 @@
         <v>556.0599999999999</v>
       </c>
       <c r="F8">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2069,7 +2348,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>0.4</v>
@@ -2081,13 +2360,13 @@
         <v>548.02</v>
       </c>
       <c r="F9">
-        <v>37.8</v>
+        <v>35.8</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2095,7 +2374,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>0.4</v>
@@ -2107,13 +2386,13 @@
         <v>535.04</v>
       </c>
       <c r="F10">
-        <v>19.9</v>
+        <v>21.1</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2121,7 +2400,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.2</v>
@@ -2133,13 +2412,13 @@
         <v>518</v>
       </c>
       <c r="F11">
-        <v>12.6</v>
+        <v>11.3</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2160,16 +2439,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2180,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>16</v>
@@ -2189,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2200,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2209,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2220,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -2229,7 +2508,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2240,7 +2519,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2249,7 +2528,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2260,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2269,7 +2548,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2280,7 +2559,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2289,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2300,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -2309,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2320,7 +2599,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>-2</v>
@@ -2329,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2340,7 +2619,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>-13</v>
@@ -2349,7 +2628,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2360,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>-13</v>
@@ -2369,7 +2648,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2377,7 +2656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -2387,22 +2666,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2425,7 +2704,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2448,7 +2727,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2471,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2494,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2517,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2540,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2563,7 +2842,7 @@
         <v>-1</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2586,7 +2865,7 @@
         <v>-2</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2609,7 +2888,7 @@
         <v>-13</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2632,7 +2911,7 @@
         <v>-13</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +2919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -2650,25 +2929,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="102">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -54,22 +54,22 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -141,6 +141,9 @@
     <t>Week_6</t>
   </si>
   <si>
+    <t>Week_7</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -162,46 +165,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-0</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>10.8-3.1-0.1</t>
-  </si>
-  <si>
-    <t>8.5-5.5-0.1</t>
-  </si>
-  <si>
-    <t>8.3-5.7-0.1</t>
-  </si>
-  <si>
-    <t>7.8-6.1-0.1</t>
-  </si>
-  <si>
-    <t>7.0-6.9-0.1</t>
-  </si>
-  <si>
-    <t>5.8-8.1-0.1</t>
-  </si>
-  <si>
-    <t>5.9-8.0-0.1</t>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>10.5-3.4-0.1</t>
+  </si>
+  <si>
+    <t>8.9-5.0-0.1</t>
+  </si>
+  <si>
+    <t>8.6-5.3-0.1</t>
+  </si>
+  <si>
+    <t>7.9-6.1-0.1</t>
+  </si>
+  <si>
+    <t>7.3-6.6-0.1</t>
+  </si>
+  <si>
+    <t>5.6-8.3-0.1</t>
   </si>
   <si>
     <t>5.2-8.7-0.1</t>
   </si>
   <si>
-    <t>4.5-9.5-0.1</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>5.5-8.4-0.1</t>
+  </si>
+  <si>
+    <t>5.4-8.6-0.1</t>
+  </si>
+  <si>
+    <t>4.7-9.2-0.1</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -210,15 +219,15 @@
     <t>8-6</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
     <t>5-9</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -234,60 +243,54 @@
     <t>Gianpierre Lopez</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>James Breen</t>
+  </si>
+  <si>
     <t>Kate Zacierka</t>
   </si>
   <si>
+    <t>gianni alessio</t>
+  </si>
+  <si>
+    <t>Ayush Chivate</t>
+  </si>
+  <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
     <t>jack meehan</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Derek Alcavage</t>
-  </si>
-  <si>
-    <t>gianni alessio</t>
-  </si>
-  <si>
-    <t>James Breen</t>
-  </si>
-  <si>
-    <t>Ayush Chivate</t>
-  </si>
-  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>↓8</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -301,6 +304,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -725,31 +731,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -757,34 +763,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
       <c r="J3" t="s">
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -792,34 +798,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
         <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -827,34 +833,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -862,28 +868,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -900,31 +906,31 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
       <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
       <c r="J7" t="s">
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -932,7 +938,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -950,16 +956,16 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -967,31 +973,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1008,25 +1014,25 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -1037,34 +1043,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1099,10 +1105,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1110,13 +1116,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1124,13 +1130,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1138,13 +1144,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1152,13 +1158,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1166,13 +1172,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1180,13 +1186,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1194,13 +1200,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1208,13 +1214,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1225,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1266,10 +1272,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D2">
-        <v>-1.2</v>
+        <v>-1.9</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1283,13 +1289,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D3">
-        <v>0.2000000000000002</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1300,13 +1306,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1317,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>-0.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1331,16 +1337,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D6">
-        <v>1.5</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1348,16 +1354,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D7">
-        <v>-0.6000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1365,16 +1371,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D8">
-        <v>0.1000000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1382,16 +1388,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1399,16 +1405,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="D10">
-        <v>-0.3999999999999999</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1416,16 +1422,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D11">
-        <v>0.3999999999999999</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1484,25 +1490,25 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>70.3</v>
+        <v>58.8</v>
       </c>
       <c r="C2">
-        <v>20.3</v>
+        <v>23.1</v>
       </c>
       <c r="D2">
-        <v>6.9</v>
+        <v>10.8</v>
       </c>
       <c r="E2">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1514,235 +1520,235 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>21.5</v>
       </c>
       <c r="C3">
-        <v>27.4</v>
+        <v>31.5</v>
       </c>
       <c r="D3">
-        <v>24.8</v>
+        <v>23.7</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="I3">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>94.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>10.9</v>
+        <v>12.3</v>
       </c>
       <c r="C4">
-        <v>26.3</v>
+        <v>23.7</v>
       </c>
       <c r="D4">
-        <v>21.8</v>
+        <v>25.5</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>19.1</v>
       </c>
       <c r="F4">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G4">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="H4">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="I4">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="J4">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>91.3</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="C5">
-        <v>15.3</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>16.8</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>23.3</v>
       </c>
       <c r="F5">
-        <v>15.6</v>
+        <v>19.5</v>
       </c>
       <c r="G5">
-        <v>10.9</v>
+        <v>12.7</v>
       </c>
       <c r="H5">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I5">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J5">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="D6">
-        <v>10.5</v>
+        <v>15.1</v>
       </c>
       <c r="E6">
-        <v>15.8</v>
+        <v>22.3</v>
       </c>
       <c r="F6">
-        <v>19.9</v>
+        <v>21.4</v>
       </c>
       <c r="G6">
-        <v>18.8</v>
+        <v>14.8</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>6.9</v>
       </c>
       <c r="I6">
-        <v>8.800000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="J6">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>70.7</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
-        <v>5.9</v>
+        <v>2.2</v>
       </c>
       <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
         <v>10.2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <v>14.4</v>
+      </c>
+      <c r="H7">
+        <v>18.1</v>
+      </c>
+      <c r="I7">
+        <v>17.5</v>
+      </c>
+      <c r="J7">
+        <v>16.2</v>
+      </c>
+      <c r="K7">
         <v>13.6</v>
       </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <v>16.1</v>
-      </c>
-      <c r="J7">
-        <v>13.4</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
       <c r="L7">
-        <v>47.5</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="E8">
+        <v>4.6</v>
+      </c>
+      <c r="F8">
         <v>9.1</v>
       </c>
-      <c r="F8">
-        <v>9.800000000000001</v>
-      </c>
       <c r="G8">
-        <v>14.5</v>
+        <v>17.8</v>
       </c>
       <c r="H8">
-        <v>17.7</v>
+        <v>19.1</v>
       </c>
       <c r="I8">
-        <v>16.6</v>
+        <v>18.5</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="K8">
-        <v>10.9</v>
+        <v>13.6</v>
       </c>
       <c r="L8">
-        <v>39.8</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1750,113 +1756,113 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="E9">
-        <v>7.6</v>
+        <v>3.7</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="G9">
-        <v>11.5</v>
+        <v>14.3</v>
       </c>
       <c r="H9">
-        <v>17.3</v>
+        <v>19.4</v>
       </c>
       <c r="I9">
-        <v>18.1</v>
+        <v>19.4</v>
       </c>
       <c r="J9">
-        <v>17.1</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>11.7</v>
+        <v>13.4</v>
       </c>
       <c r="L9">
-        <v>35.8</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="F10">
-        <v>5.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G10">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="H10">
-        <v>14.2</v>
+        <v>15.7</v>
       </c>
       <c r="I10">
-        <v>19</v>
+        <v>16.4</v>
       </c>
       <c r="J10">
-        <v>24.9</v>
+        <v>21.6</v>
       </c>
       <c r="K10">
-        <v>20.8</v>
+        <v>19.4</v>
       </c>
       <c r="L10">
-        <v>21.1</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="G11">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="H11">
-        <v>8.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="I11">
-        <v>14.1</v>
+        <v>16.2</v>
       </c>
       <c r="J11">
-        <v>20.3</v>
+        <v>24.4</v>
       </c>
       <c r="K11">
-        <v>46</v>
+        <v>38.7</v>
       </c>
       <c r="L11">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
     </row>
   </sheetData>
@@ -1866,13 +1872,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1891,235 +1897,268 @@
       <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>99</v>
+      </c>
+      <c r="E2">
         <v>99.8</v>
-      </c>
-      <c r="D2">
-        <v>99.5</v>
-      </c>
-      <c r="E2">
-        <v>99.59999999999999</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.3</v>
+      </c>
+      <c r="C3">
+        <v>75.3</v>
+      </c>
+      <c r="D3">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="E3">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="G3">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="H3">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="C3">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="D3">
-        <v>99.2</v>
-      </c>
-      <c r="E3">
-        <v>91.2</v>
-      </c>
-      <c r="F3">
-        <v>93.89999999999999</v>
-      </c>
-      <c r="G3">
-        <v>95.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B4">
-        <v>3.4</v>
+        <v>76.8</v>
       </c>
       <c r="C4">
-        <v>74.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D4">
-        <v>85.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>94.39999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="F4">
-        <v>92.90000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="G4">
-        <v>91.10000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>97.3</v>
+      </c>
+      <c r="H4">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="C5">
+        <v>81.8</v>
+      </c>
+      <c r="D5">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="E5">
+        <v>73</v>
+      </c>
+      <c r="F5">
+        <v>72.5</v>
+      </c>
+      <c r="G5">
+        <v>89.7</v>
+      </c>
+      <c r="H5">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>96</v>
-      </c>
-      <c r="C5">
+      <c r="B6">
+        <v>97.2</v>
+      </c>
+      <c r="C6">
         <v>100</v>
       </c>
-      <c r="D5">
+      <c r="D6">
+        <v>98.8</v>
+      </c>
+      <c r="E6">
         <v>98.90000000000001</v>
       </c>
-      <c r="E5">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F5">
-        <v>87.2</v>
-      </c>
-      <c r="G5">
+      <c r="F6">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>98.3</v>
-      </c>
-      <c r="C6">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="D6">
-        <v>55.7</v>
-      </c>
-      <c r="E6">
-        <v>73.3</v>
-      </c>
-      <c r="F6">
-        <v>69.39999999999999</v>
-      </c>
       <c r="G6">
-        <v>70.89999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>83.7</v>
+      </c>
+      <c r="H6">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>77.8</v>
+      </c>
+      <c r="C7">
+        <v>13.7</v>
+      </c>
+      <c r="D7">
+        <v>4.2</v>
+      </c>
+      <c r="E7">
+        <v>25.6</v>
+      </c>
+      <c r="F7">
+        <v>13.4</v>
+      </c>
+      <c r="G7">
+        <v>36.4</v>
+      </c>
+      <c r="H7">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>63.2</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <v>60.9</v>
+      </c>
+      <c r="C8">
+        <v>31.5</v>
+      </c>
+      <c r="D8">
+        <v>77.3</v>
+      </c>
+      <c r="E8">
+        <v>53.7</v>
+      </c>
+      <c r="F8">
+        <v>47.4</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
         <v>31.2</v>
       </c>
-      <c r="D7">
-        <v>78.3</v>
-      </c>
-      <c r="E7">
-        <v>49.8</v>
-      </c>
-      <c r="F7">
-        <v>46.9</v>
-      </c>
-      <c r="G7">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>3.8</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <v>4.7</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>15.9</v>
-      </c>
-      <c r="E8">
-        <v>16.8</v>
-      </c>
-      <c r="F8">
-        <v>42.6</v>
-      </c>
-      <c r="G8">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="D9">
+        <v>13.1</v>
+      </c>
+      <c r="E9">
+        <v>17.6</v>
+      </c>
+      <c r="F9">
+        <v>39.2</v>
+      </c>
+      <c r="G9">
+        <v>23.6</v>
+      </c>
+      <c r="H9">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>4.8</v>
-      </c>
-      <c r="D9">
-        <v>1.8</v>
-      </c>
-      <c r="E9">
-        <v>20.8</v>
-      </c>
-      <c r="F9">
-        <v>37.7</v>
-      </c>
-      <c r="G9">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="C10">
+        <v>4.5</v>
+      </c>
+      <c r="D10">
+        <v>2.8</v>
+      </c>
+      <c r="E10">
+        <v>19.4</v>
+      </c>
+      <c r="F10">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="G10">
+        <v>29.9</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>84</v>
-      </c>
-      <c r="C10">
-        <v>97.2</v>
-      </c>
-      <c r="D10">
-        <v>62.3</v>
-      </c>
-      <c r="E10">
-        <v>27.7</v>
-      </c>
-      <c r="F10">
-        <v>14.6</v>
-      </c>
-      <c r="G10">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B11">
-        <v>76.90000000000001</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="C11">
-        <v>11.4</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D11">
-        <v>2.8</v>
+        <v>60.9</v>
       </c>
       <c r="E11">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F11">
-        <v>14.8</v>
+        <v>18.3</v>
       </c>
       <c r="G11">
-        <v>12.3</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H11">
+        <v>9.6</v>
       </c>
     </row>
   </sheetData>
@@ -2140,25 +2179,25 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2166,181 +2205,181 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>128.108</v>
+        <v>123.9466666666667</v>
       </c>
       <c r="E2">
-        <v>640.54</v>
+        <v>743.6800000000001</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>126.224</v>
+        <v>129.77</v>
       </c>
       <c r="E3">
-        <v>631.12</v>
+        <v>778.62</v>
       </c>
       <c r="F3">
-        <v>94.89999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>127.796</v>
+        <v>124.1266666666667</v>
       </c>
       <c r="E4">
-        <v>638.98</v>
+        <v>744.76</v>
       </c>
       <c r="F4">
-        <v>91.3</v>
+        <v>95.7</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>121.436</v>
+        <v>117.0533333333333</v>
       </c>
       <c r="E5">
-        <v>607.1800000000001</v>
+        <v>702.3199999999999</v>
       </c>
       <c r="F5">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>113.484</v>
+        <v>121.0466666666667</v>
       </c>
       <c r="E6">
-        <v>567.4200000000001</v>
+        <v>726.28</v>
       </c>
       <c r="F6">
-        <v>70.7</v>
+        <v>84.2</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>119.816</v>
+        <v>111.0766666666667</v>
       </c>
       <c r="E7">
-        <v>599.0799999999999</v>
+        <v>666.46</v>
       </c>
       <c r="F7">
-        <v>47.5</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D8">
-        <v>111.212</v>
+        <v>118.7766666666667</v>
       </c>
       <c r="E8">
-        <v>556.0599999999999</v>
+        <v>712.66</v>
       </c>
       <c r="F8">
-        <v>39.8</v>
+        <v>33.3</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2348,77 +2387,77 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>109.604</v>
+        <v>111.1633333333333</v>
       </c>
       <c r="E9">
-        <v>548.02</v>
+        <v>666.98</v>
       </c>
       <c r="F9">
-        <v>35.8</v>
+        <v>29.8</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>107.008</v>
+        <v>107.4466666666667</v>
       </c>
       <c r="E10">
-        <v>535.04</v>
+        <v>644.6800000000001</v>
       </c>
       <c r="F10">
-        <v>21.1</v>
+        <v>26.9</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>103.6</v>
+        <v>100.7166666666667</v>
       </c>
       <c r="E11">
-        <v>518</v>
+        <v>604.3</v>
       </c>
       <c r="F11">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2439,16 +2478,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2459,16 +2498,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2479,16 +2518,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2496,19 +2535,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2516,19 +2555,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2536,19 +2575,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2556,19 +2595,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2576,19 +2615,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2596,19 +2635,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2616,19 +2655,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D10">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2639,16 +2678,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2658,33 +2697,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2703,11 +2745,14 @@
       <c r="F2">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2726,172 +2771,196 @@
       <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>-4</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>-2</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>-2</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>-6</v>
+      </c>
+      <c r="D8">
+        <v>-13</v>
+      </c>
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8">
+        <v>-13</v>
+      </c>
+      <c r="G8">
+        <v>-6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>-4</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B10">
         <v>-5</v>
       </c>
-      <c r="C5">
+      <c r="C10">
         <v>-5</v>
       </c>
-      <c r="D5">
+      <c r="D10">
         <v>-7</v>
       </c>
-      <c r="E5">
+      <c r="E10">
         <v>-7</v>
       </c>
-      <c r="F5">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>-4</v>
-      </c>
-      <c r="E7">
-        <v>-5</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-6</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>-2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-2</v>
-      </c>
-      <c r="C10">
-        <v>-6</v>
-      </c>
-      <c r="D10">
-        <v>-13</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>-7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2910,8 +2979,11 @@
       <c r="F11">
         <v>-13</v>
       </c>
-      <c r="G11" t="s">
-        <v>87</v>
+      <c r="G11">
+        <v>-17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2993,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2929,25 +3001,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2981,25 +3053,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>-6</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
       <c r="G3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3007,25 +3079,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3033,25 +3105,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3059,25 +3131,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3085,24 +3157,50 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F7">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="106">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -54,22 +54,25 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -144,6 +147,9 @@
     <t>Week_7</t>
   </si>
   <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -165,60 +171,60 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-0</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>10.5-3.4-0.1</t>
-  </si>
-  <si>
-    <t>8.9-5.0-0.1</t>
-  </si>
-  <si>
-    <t>8.6-5.3-0.1</t>
-  </si>
-  <si>
-    <t>7.9-6.1-0.1</t>
-  </si>
-  <si>
-    <t>7.3-6.6-0.1</t>
-  </si>
-  <si>
-    <t>5.6-8.3-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.7-0.1</t>
-  </si>
-  <si>
-    <t>5.5-8.4-0.1</t>
-  </si>
-  <si>
-    <t>5.4-8.6-0.1</t>
-  </si>
-  <si>
-    <t>4.7-9.2-0.1</t>
-  </si>
-  <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>9-5</t>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>11.2-2.7</t>
+  </si>
+  <si>
+    <t>8.3-5.6</t>
+  </si>
+  <si>
+    <t>8.5-5.5-0.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2-0.1</t>
+  </si>
+  <si>
+    <t>7.0-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.1-7.8-0.1</t>
+  </si>
+  <si>
+    <t>6.1-7.9-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.7</t>
+  </si>
+  <si>
+    <t>5.2-8.8-0.1</t>
+  </si>
+  <si>
+    <t>4.3-9.6-0.1</t>
+  </si>
+  <si>
+    <t>11-3</t>
   </si>
   <si>
     <t>8-6</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -240,57 +246,60 @@
     <t xml:space="preserve">Mike Zacierka </t>
   </si>
   <si>
+    <t>James Breen</t>
+  </si>
+  <si>
+    <t>Kate Zacierka</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
     <t>Gianpierre Lopez</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>James Breen</t>
-  </si>
-  <si>
-    <t>Kate Zacierka</t>
+    <t>Ayush Chivate</t>
   </si>
   <si>
     <t>gianni alessio</t>
   </si>
   <si>
-    <t>Ayush Chivate</t>
-  </si>
-  <si>
-    <t>Derek Alcavage</t>
-  </si>
-  <si>
     <t>jack meehan</t>
   </si>
   <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>↓8</t>
   </si>
   <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -307,6 +316,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -731,31 +743,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -766,31 +778,31 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -798,34 +810,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -833,34 +845,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
         <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -868,28 +880,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -903,34 +915,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -938,34 +950,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
       <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -973,16 +985,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -991,13 +1003,13 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1011,28 +1023,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -1043,34 +1055,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1088,13 +1100,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1105,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1119,10 +1131,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1130,13 +1142,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1144,13 +1156,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1158,13 +1170,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1172,13 +1184,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1186,13 +1198,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1200,13 +1212,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1217,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1231,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1252,16 +1264,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1272,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="D2">
         <v>-1.9</v>
@@ -1289,13 +1301,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D3">
-        <v>0.09999999999999964</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1303,16 +1315,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1320,16 +1332,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>-1.2</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1337,16 +1349,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D6">
-        <v>-0.7999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1354,13 +1366,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D7">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1371,16 +1383,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D8">
-        <v>0.6000000000000001</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1388,16 +1400,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D9">
-        <v>0.3999999999999999</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1405,16 +1417,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D10">
-        <v>0.2000000000000002</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1425,13 +1437,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D11">
-        <v>-0.3999999999999999</v>
+        <v>-0.3</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1449,40 +1461,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1490,25 +1502,25 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>58.8</v>
+        <v>85.2</v>
       </c>
       <c r="C2">
-        <v>23.1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>10.8</v>
+        <v>3.2</v>
       </c>
       <c r="E2">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="F2">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
         <v>0.2</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1520,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1528,37 +1540,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.5</v>
+        <v>6.1</v>
       </c>
       <c r="C3">
-        <v>31.5</v>
+        <v>35.9</v>
       </c>
       <c r="D3">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>11.5</v>
+        <v>16.1</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G3">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="H3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
         <v>0.1</v>
       </c>
       <c r="L3">
-        <v>97.59999999999999</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1566,265 +1578,265 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.3</v>
+        <v>5.7</v>
       </c>
       <c r="C4">
-        <v>23.7</v>
+        <v>26.7</v>
       </c>
       <c r="D4">
-        <v>25.5</v>
+        <v>23.5</v>
       </c>
       <c r="E4">
-        <v>19.1</v>
+        <v>20.2</v>
       </c>
       <c r="F4">
-        <v>9.800000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="G4">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="H4">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>95.7</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>16.8</v>
+        <v>23.1</v>
       </c>
       <c r="E5">
-        <v>23.3</v>
+        <v>21.8</v>
       </c>
       <c r="F5">
-        <v>19.5</v>
+        <v>16.3</v>
       </c>
       <c r="G5">
-        <v>12.7</v>
+        <v>10.8</v>
       </c>
       <c r="H5">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I5">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="J5">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>87.40000000000001</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="C6">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="D6">
-        <v>15.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E6">
-        <v>22.3</v>
+        <v>14.2</v>
       </c>
       <c r="F6">
-        <v>21.4</v>
+        <v>19.5</v>
       </c>
       <c r="G6">
-        <v>14.8</v>
+        <v>17.8</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>13.9</v>
       </c>
       <c r="I6">
-        <v>5.5</v>
+        <v>11.6</v>
       </c>
       <c r="J6">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>84.2</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="D7">
-        <v>2.2</v>
+        <v>7.8</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>12.6</v>
       </c>
       <c r="F7">
-        <v>10.2</v>
+        <v>16.5</v>
       </c>
       <c r="G7">
-        <v>14.4</v>
+        <v>19.4</v>
       </c>
       <c r="H7">
-        <v>18.1</v>
+        <v>16.3</v>
       </c>
       <c r="I7">
-        <v>17.5</v>
+        <v>12.3</v>
       </c>
       <c r="J7">
-        <v>16.2</v>
+        <v>9.5</v>
       </c>
       <c r="K7">
-        <v>13.6</v>
+        <v>2.8</v>
       </c>
       <c r="L7">
-        <v>34.6</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="E8">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="F8">
-        <v>9.1</v>
+        <v>10.8</v>
       </c>
       <c r="G8">
-        <v>17.8</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>19.1</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="J8">
-        <v>15.5</v>
+        <v>13.9</v>
       </c>
       <c r="K8">
-        <v>13.6</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>33.3</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="E9">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="F9">
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
       <c r="G9">
-        <v>14.3</v>
+        <v>10.2</v>
       </c>
       <c r="H9">
-        <v>19.4</v>
+        <v>14.8</v>
       </c>
       <c r="I9">
-        <v>19.4</v>
+        <v>20.4</v>
       </c>
       <c r="J9">
-        <v>18</v>
+        <v>20.8</v>
       </c>
       <c r="K9">
-        <v>13.4</v>
+        <v>18.7</v>
       </c>
       <c r="L9">
-        <v>29.8</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="F10">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="G10">
-        <v>11.8</v>
+        <v>9.9</v>
       </c>
       <c r="H10">
-        <v>15.7</v>
+        <v>16.6</v>
       </c>
       <c r="I10">
-        <v>16.4</v>
+        <v>20.7</v>
       </c>
       <c r="J10">
-        <v>21.6</v>
+        <v>25.1</v>
       </c>
       <c r="K10">
-        <v>19.4</v>
+        <v>15.2</v>
       </c>
       <c r="L10">
-        <v>26.9</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1838,31 +1850,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F11">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="G11">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
-        <v>10.1</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>16.2</v>
+        <v>11.3</v>
       </c>
       <c r="J11">
-        <v>24.4</v>
+        <v>22.6</v>
       </c>
       <c r="K11">
-        <v>38.7</v>
+        <v>54.2</v>
       </c>
       <c r="L11">
-        <v>10.6</v>
+        <v>4.9</v>
       </c>
     </row>
   </sheetData>
@@ -1872,293 +1884,326 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>96.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E2">
         <v>99.8</v>
       </c>
       <c r="F2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="H2">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C3">
-        <v>75.3</v>
+        <v>76.3</v>
       </c>
       <c r="D3">
-        <v>87.90000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="E3">
-        <v>94.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F3">
         <v>92.80000000000001</v>
       </c>
       <c r="G3">
-        <v>96.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="H3">
-        <v>98.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>95.19999999999999</v>
+      </c>
+      <c r="I3">
+        <v>95.89999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="C4">
         <v>98.2</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="E4">
-        <v>89.8</v>
+        <v>90.8</v>
       </c>
       <c r="F4">
-        <v>94.3</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G4">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="H4">
+        <v>95.8</v>
+      </c>
+      <c r="I4">
+        <v>94.89999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <v>97.3</v>
       </c>
-      <c r="H4">
-        <v>97.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>98.8</v>
+      </c>
+      <c r="F5">
+        <v>87.3</v>
+      </c>
+      <c r="G5">
+        <v>82.8</v>
+      </c>
+      <c r="H5">
+        <v>89.3</v>
+      </c>
+      <c r="I5">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="C5">
-        <v>81.8</v>
-      </c>
-      <c r="D5">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="E5">
-        <v>73</v>
-      </c>
-      <c r="F5">
-        <v>72.5</v>
-      </c>
-      <c r="G5">
+      <c r="B6">
+        <v>98.5</v>
+      </c>
+      <c r="C6">
+        <v>80.30000000000001</v>
+      </c>
+      <c r="D6">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="E6">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F6">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="G6">
         <v>89.7</v>
       </c>
-      <c r="H5">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="H6">
+        <v>63.2</v>
+      </c>
+      <c r="I6">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>60.9</v>
+      </c>
+      <c r="C7">
+        <v>33.5</v>
+      </c>
+      <c r="D7">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>61.9</v>
+      </c>
+      <c r="I7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>4.7</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>97.2</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>98.8</v>
-      </c>
-      <c r="E6">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F6">
-        <v>87</v>
-      </c>
-      <c r="G6">
-        <v>83.7</v>
-      </c>
-      <c r="H6">
-        <v>84.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="D8">
+        <v>14.7</v>
+      </c>
+      <c r="E8">
+        <v>14.5</v>
+      </c>
+      <c r="F8">
+        <v>42.3</v>
+      </c>
+      <c r="G8">
+        <v>20.1</v>
+      </c>
+      <c r="H8">
+        <v>41.4</v>
+      </c>
+      <c r="I8">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+      <c r="D9">
+        <v>3.1</v>
+      </c>
+      <c r="E9">
+        <v>21.4</v>
+      </c>
+      <c r="F9">
+        <v>34.2</v>
+      </c>
+      <c r="G9">
+        <v>34.4</v>
+      </c>
+      <c r="H9">
+        <v>20.7</v>
+      </c>
+      <c r="I9">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>77.8</v>
-      </c>
-      <c r="C7">
-        <v>13.7</v>
-      </c>
-      <c r="D7">
-        <v>4.2</v>
-      </c>
-      <c r="E7">
-        <v>25.6</v>
-      </c>
-      <c r="F7">
-        <v>13.4</v>
-      </c>
-      <c r="G7">
-        <v>36.4</v>
-      </c>
-      <c r="H7">
-        <v>32.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>60.9</v>
-      </c>
-      <c r="C8">
-        <v>31.5</v>
-      </c>
-      <c r="D8">
-        <v>77.3</v>
-      </c>
-      <c r="E8">
-        <v>53.7</v>
-      </c>
-      <c r="F8">
-        <v>47.4</v>
-      </c>
-      <c r="G8">
-        <v>33</v>
-      </c>
-      <c r="H8">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>4.7</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>13.1</v>
-      </c>
-      <c r="E9">
-        <v>17.6</v>
-      </c>
-      <c r="F9">
-        <v>39.2</v>
-      </c>
-      <c r="G9">
-        <v>23.6</v>
-      </c>
-      <c r="H9">
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B10">
-        <v>0.8999999999999999</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>11.1</v>
       </c>
       <c r="D10">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="E10">
-        <v>19.4</v>
+        <v>25.4</v>
       </c>
       <c r="F10">
-        <v>35.09999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="G10">
-        <v>29.9</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>26.9</v>
+      </c>
+      <c r="I10">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>83.89999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="C11">
-        <v>95.09999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D11">
-        <v>60.9</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="E11">
-        <v>27.6</v>
+        <v>25.8</v>
       </c>
       <c r="F11">
-        <v>18.3</v>
+        <v>16.1</v>
       </c>
       <c r="G11">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H11">
-        <v>9.6</v>
+        <v>5.600000000000001</v>
+      </c>
+      <c r="I11">
+        <v>4.399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2176,28 +2221,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2205,25 +2250,25 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>123.9466666666667</v>
+        <v>133.2514285714286</v>
       </c>
       <c r="E2">
-        <v>743.6800000000001</v>
+        <v>932.76</v>
       </c>
       <c r="F2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2231,25 +2276,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D3">
-        <v>129.77</v>
+        <v>128.3657142857143</v>
       </c>
       <c r="E3">
-        <v>778.62</v>
+        <v>898.5599999999999</v>
       </c>
       <c r="F3">
-        <v>97.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2257,181 +2302,181 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>124.1266666666667</v>
+        <v>119.0028571428571</v>
       </c>
       <c r="E4">
-        <v>744.76</v>
+        <v>833.02</v>
       </c>
       <c r="F4">
-        <v>95.7</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D5">
-        <v>117.0533333333333</v>
+        <v>120.7371428571429</v>
       </c>
       <c r="E5">
-        <v>702.3199999999999</v>
+        <v>845.1600000000001</v>
       </c>
       <c r="F5">
-        <v>87.40000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>121.0466666666667</v>
+        <v>112.5171428571429</v>
       </c>
       <c r="E6">
-        <v>726.28</v>
+        <v>787.62</v>
       </c>
       <c r="F6">
-        <v>84.2</v>
+        <v>67.7</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D7">
-        <v>111.0766666666667</v>
+        <v>127.5428571428571</v>
       </c>
       <c r="E7">
-        <v>666.46</v>
+        <v>892.8</v>
       </c>
       <c r="F7">
-        <v>34.59999999999999</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>0.1666666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D8">
-        <v>118.7766666666667</v>
+        <v>108.9171428571428</v>
       </c>
       <c r="E8">
-        <v>712.66</v>
+        <v>762.42</v>
       </c>
       <c r="F8">
-        <v>33.3</v>
+        <v>39.7</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D9">
-        <v>111.1633333333333</v>
+        <v>111.9</v>
       </c>
       <c r="E9">
-        <v>666.98</v>
+        <v>783.3000000000001</v>
       </c>
       <c r="F9">
-        <v>29.8</v>
+        <v>25.3</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D10">
-        <v>107.4466666666667</v>
+        <v>112.4485714285714</v>
       </c>
       <c r="E10">
-        <v>644.6800000000001</v>
+        <v>787.14</v>
       </c>
       <c r="F10">
-        <v>26.9</v>
+        <v>22.4</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2439,25 +2484,25 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11">
-        <v>100.7166666666667</v>
+        <v>98.65999999999998</v>
       </c>
       <c r="E11">
-        <v>604.3</v>
+        <v>690.6199999999999</v>
       </c>
       <c r="F11">
-        <v>10.6</v>
+        <v>4.9</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2475,19 +2520,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2498,16 +2543,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2515,19 +2560,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2535,19 +2580,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2555,19 +2600,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2575,19 +2620,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2595,19 +2640,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2618,16 +2663,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2635,19 +2680,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2658,16 +2703,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2678,16 +2723,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-25</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2742,336 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-6</v>
+      </c>
+      <c r="C3">
+        <v>-4</v>
+      </c>
+      <c r="D3">
+        <v>-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>-2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>-4</v>
+      </c>
+      <c r="E6">
+        <v>-5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-6</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>-6</v>
+      </c>
+      <c r="D8">
+        <v>-13</v>
+      </c>
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8">
+        <v>-13</v>
+      </c>
+      <c r="G8">
+        <v>-6</v>
+      </c>
+      <c r="H8">
+        <v>-8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-2</v>
+      </c>
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-7</v>
+      </c>
+      <c r="H10">
+        <v>-12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>-4</v>
+      </c>
+      <c r="C11">
+        <v>-4</v>
+      </c>
+      <c r="D11">
+        <v>-8</v>
+      </c>
+      <c r="E11">
+        <v>-16</v>
+      </c>
+      <c r="F11">
+        <v>-13</v>
+      </c>
+      <c r="G11">
+        <v>-17</v>
+      </c>
+      <c r="H11">
+        <v>-25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2705,321 +3079,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>-6</v>
-      </c>
-      <c r="C5">
-        <v>-4</v>
-      </c>
-      <c r="D5">
-        <v>-2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>-2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>-2</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>-2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>-6</v>
-      </c>
-      <c r="D8">
-        <v>-13</v>
-      </c>
-      <c r="E8">
-        <v>-5</v>
-      </c>
-      <c r="F8">
-        <v>-13</v>
-      </c>
-      <c r="G8">
-        <v>-6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>-4</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>-5</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-7</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>-7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>-4</v>
-      </c>
-      <c r="C11">
-        <v>-4</v>
-      </c>
-      <c r="D11">
-        <v>-8</v>
-      </c>
-      <c r="E11">
-        <v>-16</v>
-      </c>
-      <c r="F11">
-        <v>-13</v>
-      </c>
-      <c r="G11">
-        <v>-17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3027,25 +3105,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3053,25 +3131,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>-5</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>-6</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
       <c r="G3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3079,25 +3157,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>-6</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
       <c r="G4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3105,25 +3183,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3131,25 +3209,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3160,22 +3238,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>-2</v>
-      </c>
       <c r="F7">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3186,22 +3264,48 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
         <v>-2</v>
       </c>
-      <c r="G8">
+      <c r="F9">
+        <v>-4</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
-        <v>8</v>
+      <c r="H9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="108">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -165,6 +165,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -186,37 +189,40 @@
     <t>3-4</t>
   </si>
   <si>
-    <t>11.2-2.7</t>
+    <t>11.3-2.7</t>
   </si>
   <si>
     <t>8.3-5.6</t>
   </si>
   <si>
-    <t>8.5-5.5-0.1</t>
-  </si>
-  <si>
-    <t>7.7-6.2-0.1</t>
-  </si>
-  <si>
-    <t>7.0-6.9-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.8-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.9-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.7</t>
-  </si>
-  <si>
-    <t>5.2-8.8-0.1</t>
-  </si>
-  <si>
-    <t>4.3-9.6-0.1</t>
+    <t>8.5-5.4-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.1-0.1</t>
+  </si>
+  <si>
+    <t>6.9-7.0-0.1</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
+  </si>
+  <si>
+    <t>6.0-7.9-0.1</t>
+  </si>
+  <si>
+    <t>5.3-8.6-0.1</t>
+  </si>
+  <si>
+    <t>5.1-8.8</t>
+  </si>
+  <si>
+    <t>4.2-9.7</t>
   </si>
   <si>
     <t>11-3</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>8-6</t>
@@ -1502,22 +1508,22 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>85.2</v>
+        <v>84</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="D2">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="E2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1540,37 +1546,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="C3">
-        <v>35.9</v>
+        <v>32.9</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25.6</v>
       </c>
       <c r="E3">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="F3">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="G3">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="I3">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="J3">
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>96.5</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1581,34 +1587,34 @@
         <v>5.7</v>
       </c>
       <c r="C4">
-        <v>26.7</v>
+        <v>29.1</v>
       </c>
       <c r="D4">
-        <v>23.5</v>
+        <v>22.6</v>
       </c>
       <c r="E4">
-        <v>20.2</v>
+        <v>17.3</v>
       </c>
       <c r="F4">
         <v>11.9</v>
       </c>
       <c r="G4">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="H4">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>94.7</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1616,37 +1622,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D5">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="E5">
-        <v>21.8</v>
+        <v>22.5</v>
       </c>
       <c r="F5">
-        <v>16.3</v>
+        <v>13.9</v>
       </c>
       <c r="G5">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H5">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="I5">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J5">
         <v>1.4</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>89.7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1654,37 +1660,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="D6">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E6">
-        <v>14.2</v>
+        <v>13.1</v>
       </c>
       <c r="F6">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="G6">
-        <v>17.8</v>
+        <v>20.4</v>
       </c>
       <c r="H6">
-        <v>13.9</v>
+        <v>14.8</v>
       </c>
       <c r="I6">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="J6">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="L6">
-        <v>67.7</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1692,37 +1698,37 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D7">
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="E7">
+        <v>14.3</v>
+      </c>
+      <c r="F7">
+        <v>18.4</v>
+      </c>
+      <c r="G7">
+        <v>14.6</v>
+      </c>
+      <c r="H7">
+        <v>17.4</v>
+      </c>
+      <c r="I7">
         <v>12.6</v>
       </c>
-      <c r="F7">
-        <v>16.5</v>
-      </c>
-      <c r="G7">
-        <v>19.4</v>
-      </c>
-      <c r="H7">
-        <v>16.3</v>
-      </c>
-      <c r="I7">
-        <v>12.3</v>
-      </c>
       <c r="J7">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="K7">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L7">
-        <v>59.1</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1730,113 +1736,113 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>1.4</v>
       </c>
       <c r="D8">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="F8">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>16.9</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="I8">
-        <v>18.4</v>
+        <v>16.9</v>
       </c>
       <c r="J8">
-        <v>13.9</v>
+        <v>16.1</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L8">
-        <v>39.7</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0.6</v>
       </c>
       <c r="D9">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="E9">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="F9">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="G9">
-        <v>10.2</v>
+        <v>11.9</v>
       </c>
       <c r="H9">
-        <v>14.8</v>
+        <v>17</v>
       </c>
       <c r="I9">
-        <v>20.4</v>
+        <v>23.9</v>
       </c>
       <c r="J9">
-        <v>20.8</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>18.7</v>
+        <v>13.3</v>
       </c>
       <c r="L9">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E10">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="G10">
-        <v>9.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10">
-        <v>16.6</v>
+        <v>14.9</v>
       </c>
       <c r="I10">
-        <v>20.7</v>
+        <v>19.1</v>
       </c>
       <c r="J10">
-        <v>25.1</v>
+        <v>23.8</v>
       </c>
       <c r="K10">
-        <v>15.2</v>
+        <v>19.1</v>
       </c>
       <c r="L10">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1850,31 +1856,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="I11">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="J11">
-        <v>22.6</v>
+        <v>24.3</v>
       </c>
       <c r="K11">
-        <v>54.2</v>
+        <v>55.4</v>
       </c>
       <c r="L11">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>
@@ -1921,22 +1927,22 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>94.5</v>
+        <v>96.2</v>
       </c>
       <c r="C2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>99.3</v>
+      </c>
+      <c r="E2">
+        <v>99.7</v>
+      </c>
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E2">
-        <v>99.8</v>
-      </c>
-      <c r="F2">
-        <v>99.90000000000001</v>
-      </c>
       <c r="G2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -1947,60 +1953,60 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>3.1</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C3">
-        <v>76.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D3">
-        <v>86.3</v>
+        <v>98.8</v>
       </c>
       <c r="E3">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="F3">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="G3">
         <v>96.59999999999999</v>
       </c>
-      <c r="F3">
-        <v>92.80000000000001</v>
-      </c>
-      <c r="G3">
-        <v>98</v>
-      </c>
       <c r="H3">
-        <v>95.19999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I3">
-        <v>95.89999999999999</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
+        <v>3.7</v>
+      </c>
+      <c r="C4">
         <v>76.7</v>
       </c>
-      <c r="C4">
-        <v>98.2</v>
-      </c>
       <c r="D4">
-        <v>98.8</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="E4">
-        <v>90.8</v>
+        <v>95</v>
       </c>
       <c r="F4">
-        <v>94.19999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G4">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="H4">
-        <v>95.8</v>
+        <v>95</v>
       </c>
       <c r="I4">
-        <v>94.89999999999999</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2008,28 +2014,28 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>97.3</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E5">
         <v>99</v>
       </c>
-      <c r="E5">
-        <v>98.8</v>
-      </c>
       <c r="F5">
-        <v>87.3</v>
+        <v>88.7</v>
       </c>
       <c r="G5">
-        <v>82.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H5">
+        <v>90.2</v>
+      </c>
+      <c r="I5">
         <v>89.3</v>
-      </c>
-      <c r="I5">
-        <v>90.5</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2037,28 +2043,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C6">
-        <v>80.30000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D6">
-        <v>56.99999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="E6">
-        <v>74.90000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F6">
-        <v>74.40000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G6">
-        <v>89.7</v>
+        <v>88.2</v>
       </c>
       <c r="H6">
-        <v>63.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I6">
-        <v>66.8</v>
+        <v>67.30000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2066,28 +2072,28 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>60.9</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>33.5</v>
+        <v>29.7</v>
       </c>
       <c r="D7">
-        <v>80.10000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="F7">
-        <v>46</v>
+        <v>45.4</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>33.3</v>
       </c>
       <c r="H7">
-        <v>61.9</v>
+        <v>61.3</v>
       </c>
       <c r="I7">
-        <v>62</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2095,86 +2101,86 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.7</v>
+        <v>17.9</v>
       </c>
       <c r="E8">
-        <v>14.5</v>
+        <v>16.6</v>
       </c>
       <c r="F8">
-        <v>42.3</v>
+        <v>37.2</v>
       </c>
       <c r="G8">
-        <v>20.1</v>
+        <v>23.2</v>
       </c>
       <c r="H8">
-        <v>41.4</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="I8">
-        <v>35.5</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>11.8</v>
       </c>
       <c r="D9">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="E9">
-        <v>21.4</v>
+        <v>25.7</v>
       </c>
       <c r="F9">
-        <v>34.2</v>
+        <v>13.1</v>
       </c>
       <c r="G9">
-        <v>34.4</v>
+        <v>33.8</v>
       </c>
       <c r="H9">
-        <v>20.7</v>
+        <v>25.2</v>
       </c>
       <c r="I9">
-        <v>25.1</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>80.10000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C10">
-        <v>11.1</v>
+        <v>5.2</v>
       </c>
       <c r="D10">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="E10">
-        <v>25.4</v>
+        <v>19.9</v>
       </c>
       <c r="F10">
-        <v>12.8</v>
+        <v>38.8</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>26.9</v>
+        <v>22.1</v>
       </c>
       <c r="I10">
-        <v>24.9</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2182,28 +2188,28 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>83.7</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="C11">
-        <v>97.09999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="D11">
-        <v>57.99999999999999</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="E11">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="G11">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="H11">
-        <v>5.600000000000001</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="I11">
-        <v>4.399999999999999</v>
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
@@ -2213,13 +2219,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2244,13 +2250,16 @@
       <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2264,19 +2273,22 @@
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
-        <v>54</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0.5714285714285714</v>
@@ -2288,21 +2300,24 @@
         <v>898.5599999999999</v>
       </c>
       <c r="F3">
-        <v>96.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
+        <v>95.59999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
@@ -2314,21 +2329,24 @@
         <v>833.02</v>
       </c>
       <c r="F4">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
+        <v>95.19999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -2340,21 +2358,24 @@
         <v>845.1600000000001</v>
       </c>
       <c r="F5">
-        <v>89.7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
+        <v>89</v>
+      </c>
+      <c r="G5">
+        <v>0.3</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -2366,21 +2387,24 @@
         <v>787.62</v>
       </c>
       <c r="F6">
-        <v>67.7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
+        <v>67.5</v>
+      </c>
+      <c r="G6">
+        <v>1.2</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>0.2857142857142857</v>
@@ -2392,21 +2416,24 @@
         <v>892.8</v>
       </c>
       <c r="F7">
-        <v>59.09999999999999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
+        <v>59.4</v>
+      </c>
+      <c r="G7">
+        <v>2.9</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>0.4285714285714285</v>
@@ -2418,73 +2445,82 @@
         <v>762.42</v>
       </c>
       <c r="F8">
-        <v>39.7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
+        <v>40.5</v>
+      </c>
+      <c r="G8">
+        <v>7.8</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>0.2857142857142857</v>
       </c>
       <c r="D9">
-        <v>111.9</v>
+        <v>112.4485714285714</v>
       </c>
       <c r="E9">
-        <v>783.3000000000001</v>
+        <v>787.14</v>
       </c>
       <c r="F9">
-        <v>25.3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
+        <v>25.8</v>
+      </c>
+      <c r="G9">
+        <v>13.3</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>0.2857142857142857</v>
       </c>
       <c r="D10">
-        <v>112.4485714285714</v>
+        <v>111.9</v>
       </c>
       <c r="E10">
-        <v>787.14</v>
+        <v>783.3000000000001</v>
       </c>
       <c r="F10">
-        <v>22.4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
+        <v>23.1</v>
+      </c>
+      <c r="G10">
+        <v>19.1</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -2496,13 +2532,16 @@
         <v>690.6199999999999</v>
       </c>
       <c r="F11">
-        <v>4.9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
+        <v>3.9</v>
+      </c>
+      <c r="G11">
+        <v>55.40000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2523,16 +2562,16 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2543,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>28</v>
@@ -2552,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2563,7 +2602,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2572,7 +2611,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2583,7 +2622,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -2592,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2603,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -2612,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2623,7 +2662,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2632,7 +2671,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2643,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2652,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2663,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <v>-8</v>
@@ -2672,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2683,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>-10</v>
@@ -2692,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2703,7 +2742,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>-12</v>
@@ -2712,7 +2751,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2723,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>-25</v>
@@ -2732,7 +2771,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2750,28 +2789,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2800,7 +2839,7 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2829,7 +2868,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2858,7 +2897,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2887,7 +2926,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2916,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2945,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2974,7 +3013,7 @@
         <v>-8</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3003,7 +3042,7 @@
         <v>-10</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3032,7 +3071,7 @@
         <v>-12</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3061,7 +3100,7 @@
         <v>-25</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3079,25 +3118,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="110">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -54,25 +54,28 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -150,6 +153,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -174,72 +180,66 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-0</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>11.3-2.7</t>
-  </si>
-  <si>
-    <t>8.3-5.6</t>
-  </si>
-  <si>
-    <t>8.5-5.4-0.1</t>
-  </si>
-  <si>
-    <t>7.8-6.1-0.1</t>
-  </si>
-  <si>
-    <t>6.9-7.0-0.1</t>
-  </si>
-  <si>
-    <t>6.2-7.8</t>
-  </si>
-  <si>
-    <t>6.0-7.9-0.1</t>
-  </si>
-  <si>
-    <t>5.3-8.6-0.1</t>
-  </si>
-  <si>
-    <t>5.1-8.8</t>
-  </si>
-  <si>
-    <t>4.2-9.7</t>
-  </si>
-  <si>
-    <t>11-3</t>
-  </si>
-  <si>
-    <t>9-5</t>
+    <t>8-0</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>11.6-2.4</t>
+  </si>
+  <si>
+    <t>7.5-6.4</t>
+  </si>
+  <si>
+    <t>7.8-6.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2</t>
+  </si>
+  <si>
+    <t>7.4-6.6-0.1</t>
+  </si>
+  <si>
+    <t>6.2-7.7</t>
+  </si>
+  <si>
+    <t>6.6-7.3</t>
+  </si>
+  <si>
+    <t>5.0-9.0-0.1</t>
+  </si>
+  <si>
+    <t>5.3-8.7</t>
+  </si>
+  <si>
+    <t>4.7-9.3</t>
+  </si>
+  <si>
+    <t>12-2</t>
   </si>
   <si>
     <t>8-6</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -255,55 +255,58 @@
     <t>James Breen</t>
   </si>
   <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>gianni alessio</t>
+  </si>
+  <si>
     <t>Kate Zacierka</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Derek Alcavage</t>
-  </si>
-  <si>
     <t>Gianpierre Lopez</t>
   </si>
   <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
     <t>Ayush Chivate</t>
   </si>
   <si>
-    <t>gianni alessio</t>
-  </si>
-  <si>
-    <t>jack meehan</t>
-  </si>
-  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>↑5</t>
+    <t>↑3</t>
   </si>
   <si>
     <t>↑8</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -325,6 +328,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -749,31 +755,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -781,34 +787,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -819,16 +825,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -837,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
         <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -851,34 +857,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -886,34 +892,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -921,34 +927,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -956,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -965,25 +971,25 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -991,34 +997,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1026,34 +1032,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1061,34 +1067,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1106,13 +1112,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1120,13 +1126,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1134,13 +1140,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1151,10 +1157,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1162,13 +1168,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1176,10 +1182,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1193,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1204,10 +1210,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1218,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1232,10 +1238,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1249,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1270,16 +1276,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1290,13 +1296,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="D2">
-        <v>-1.9</v>
+        <v>-2.3</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1307,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D3">
-        <v>0.7000000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1324,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D4">
-        <v>0.09999999999999964</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1338,16 +1344,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D5">
-        <v>-1.2</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1355,16 +1361,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D6">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1372,16 +1378,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1389,16 +1395,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D8">
-        <v>-0.7999999999999998</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1409,13 +1415,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D9">
-        <v>-0.2999999999999998</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1432,7 +1438,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1443,13 +1449,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="D11">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1467,40 +1473,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1508,19 +1514,19 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C2">
-        <v>12.2</v>
+        <v>4.2</v>
       </c>
       <c r="D2">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="E2">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1546,151 +1552,151 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.9</v>
+        <v>2.1</v>
       </c>
       <c r="C3">
-        <v>32.9</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25.6</v>
+        <v>21.1</v>
       </c>
       <c r="E3">
-        <v>16.3</v>
+        <v>17.4</v>
       </c>
       <c r="F3">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>5.5</v>
+        <v>10.1</v>
       </c>
       <c r="H3">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="I3">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
-        <v>95.59999999999999</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="C4">
-        <v>29.1</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>22.6</v>
+        <v>18.5</v>
       </c>
       <c r="E4">
-        <v>17.3</v>
+        <v>16.4</v>
       </c>
       <c r="F4">
+        <v>15.2</v>
+      </c>
+      <c r="G4">
         <v>11.9</v>
       </c>
-      <c r="G4">
-        <v>8.6</v>
-      </c>
       <c r="H4">
-        <v>2.7</v>
+        <v>6.6</v>
       </c>
       <c r="I4">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
-        <v>95.2</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="C5">
-        <v>15.8</v>
+        <v>20.4</v>
       </c>
       <c r="D5">
-        <v>23.4</v>
+        <v>19.6</v>
       </c>
       <c r="E5">
-        <v>22.5</v>
+        <v>18.9</v>
       </c>
       <c r="F5">
-        <v>13.9</v>
+        <v>14.4</v>
       </c>
       <c r="G5">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="H5">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I5">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="J5">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>89</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>16.6</v>
       </c>
       <c r="D6">
-        <v>9.699999999999999</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>13.1</v>
+        <v>17.9</v>
       </c>
       <c r="F6">
-        <v>19.3</v>
+        <v>15.2</v>
       </c>
       <c r="G6">
-        <v>20.4</v>
+        <v>11.3</v>
       </c>
       <c r="H6">
-        <v>14.8</v>
+        <v>9.5</v>
       </c>
       <c r="I6">
-        <v>10.8</v>
+        <v>5.1</v>
       </c>
       <c r="J6">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="K6">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="L6">
-        <v>67.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1698,37 +1704,37 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="D7">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E7">
-        <v>14.3</v>
+        <v>12.6</v>
       </c>
       <c r="F7">
-        <v>18.4</v>
+        <v>15.6</v>
       </c>
       <c r="G7">
-        <v>14.6</v>
+        <v>16.7</v>
       </c>
       <c r="H7">
-        <v>17.4</v>
+        <v>16.9</v>
       </c>
       <c r="I7">
-        <v>12.6</v>
+        <v>13.4</v>
       </c>
       <c r="J7">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="K7">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="L7">
-        <v>59.4</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1739,34 +1745,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="E8">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F8">
-        <v>11.4</v>
+        <v>13.5</v>
       </c>
       <c r="G8">
-        <v>16.9</v>
+        <v>19.4</v>
       </c>
       <c r="H8">
-        <v>18.7</v>
+        <v>17.8</v>
       </c>
       <c r="I8">
-        <v>16.9</v>
+        <v>14.4</v>
       </c>
       <c r="J8">
-        <v>16.1</v>
+        <v>8.9</v>
       </c>
       <c r="K8">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="L8">
-        <v>40.5</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1777,110 +1783,110 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="F9">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="G9">
-        <v>11.9</v>
+        <v>7.4</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>14.6</v>
       </c>
       <c r="I9">
-        <v>23.9</v>
+        <v>22.5</v>
       </c>
       <c r="J9">
+        <v>25.5</v>
+      </c>
+      <c r="K9">
         <v>20</v>
       </c>
-      <c r="K9">
-        <v>13.3</v>
-      </c>
       <c r="L9">
-        <v>25.8</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="F10">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="G10">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="H10">
-        <v>14.9</v>
+        <v>11.3</v>
       </c>
       <c r="I10">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="J10">
-        <v>23.8</v>
+        <v>27.1</v>
       </c>
       <c r="K10">
-        <v>19.1</v>
+        <v>29.5</v>
       </c>
       <c r="L10">
-        <v>23.1</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="G11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H11">
-        <v>5.4</v>
+        <v>9.6</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>14.6</v>
       </c>
       <c r="J11">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="K11">
-        <v>55.4</v>
+        <v>40.5</v>
       </c>
       <c r="L11">
-        <v>3.9</v>
+        <v>11.1</v>
       </c>
     </row>
   </sheetData>
@@ -1890,59 +1896,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>96.2</v>
+        <v>95.7</v>
       </c>
       <c r="C2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>99.3</v>
       </c>
       <c r="E2">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -1950,266 +1959,296 @@
       <c r="I2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>76.8</v>
+      </c>
+      <c r="D3">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="E3">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="F3">
+        <v>90.7</v>
+      </c>
+      <c r="G3">
+        <v>97.2</v>
+      </c>
+      <c r="H3">
+        <v>95.3</v>
+      </c>
+      <c r="I3">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="J3">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>98.3</v>
+      </c>
+      <c r="C4">
+        <v>82.69999999999999</v>
+      </c>
+      <c r="D4">
+        <v>59.9</v>
+      </c>
+      <c r="E4">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="F4">
+        <v>72.2</v>
+      </c>
+      <c r="G4">
+        <v>89</v>
+      </c>
+      <c r="H4">
+        <v>67.5</v>
+      </c>
+      <c r="I4">
+        <v>85.3</v>
+      </c>
+      <c r="J4">
+        <v>88.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="C3">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D3">
+      <c r="B5">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="C5">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="D5">
+        <v>99.3</v>
+      </c>
+      <c r="E5">
+        <v>90.5</v>
+      </c>
+      <c r="F5">
+        <v>94</v>
+      </c>
+      <c r="G5">
+        <v>96.5</v>
+      </c>
+      <c r="H5">
+        <v>95.5</v>
+      </c>
+      <c r="I5">
+        <v>85.5</v>
+      </c>
+      <c r="J5">
+        <v>86.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>96.7</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
         <v>98.8</v>
       </c>
-      <c r="E3">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="F3">
-        <v>94.89999999999999</v>
-      </c>
-      <c r="G3">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="H3">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="I3">
-        <v>96.09999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3.7</v>
-      </c>
-      <c r="C4">
-        <v>76.7</v>
-      </c>
-      <c r="D4">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="E4">
-        <v>95</v>
-      </c>
-      <c r="F4">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="G4">
-        <v>97.2</v>
-      </c>
-      <c r="H4">
-        <v>95</v>
-      </c>
-      <c r="I4">
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E5">
-        <v>99</v>
-      </c>
-      <c r="F5">
-        <v>88.7</v>
-      </c>
-      <c r="G5">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="H5">
-        <v>90.2</v>
-      </c>
-      <c r="I5">
-        <v>89.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="C6">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="D6">
-        <v>57.3</v>
-      </c>
       <c r="E6">
-        <v>73.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F6">
-        <v>73.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="G6">
-        <v>88.2</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="H6">
-        <v>71.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="I6">
-        <v>67.30000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>79.5</v>
+      </c>
+      <c r="J6">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>62.6</v>
       </c>
       <c r="C7">
-        <v>29.7</v>
+        <v>30.9</v>
       </c>
       <c r="D7">
-        <v>77.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="E7">
-        <v>54.40000000000001</v>
+        <v>50.3</v>
       </c>
       <c r="F7">
-        <v>45.4</v>
+        <v>47.4</v>
       </c>
       <c r="G7">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="H7">
-        <v>61.3</v>
+        <v>61.7</v>
       </c>
       <c r="I7">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>61.7</v>
+      </c>
+      <c r="J7">
+        <v>57.99999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.9</v>
+        <v>14.7</v>
       </c>
       <c r="E8">
-        <v>16.6</v>
+        <v>18.4</v>
       </c>
       <c r="F8">
-        <v>37.2</v>
+        <v>39.3</v>
       </c>
       <c r="G8">
-        <v>23.2</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>35.09999999999999</v>
+        <v>40.6</v>
       </c>
       <c r="I8">
-        <v>39.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>51.4</v>
+      </c>
+      <c r="J8">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3.3</v>
+      </c>
+      <c r="D9">
+        <v>2.5</v>
+      </c>
+      <c r="E9">
+        <v>20.6</v>
+      </c>
+      <c r="F9">
+        <v>37.7</v>
+      </c>
+      <c r="G9">
+        <v>30.9</v>
+      </c>
+      <c r="H9">
+        <v>22.1</v>
+      </c>
+      <c r="I9">
+        <v>20.5</v>
+      </c>
+      <c r="J9">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>83.2</v>
+      </c>
+      <c r="C10">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D10">
+        <v>58.7</v>
+      </c>
+      <c r="E10">
+        <v>26.1</v>
+      </c>
+      <c r="F10">
+        <v>16.3</v>
+      </c>
+      <c r="G10">
+        <v>10.5</v>
+      </c>
+      <c r="H10">
+        <v>4.8</v>
+      </c>
+      <c r="I10">
+        <v>12.9</v>
+      </c>
+      <c r="J10">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>80.30000000000001</v>
-      </c>
-      <c r="C9">
-        <v>11.8</v>
-      </c>
-      <c r="D9">
-        <v>3.3</v>
-      </c>
-      <c r="E9">
-        <v>25.7</v>
-      </c>
-      <c r="F9">
-        <v>13.1</v>
-      </c>
-      <c r="G9">
-        <v>33.8</v>
-      </c>
-      <c r="H9">
-        <v>25.2</v>
-      </c>
-      <c r="I9">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="C10">
-        <v>5.2</v>
-      </c>
-      <c r="D10">
-        <v>2.6</v>
-      </c>
-      <c r="E10">
-        <v>19.9</v>
-      </c>
-      <c r="F10">
+      <c r="B11">
+        <v>78.10000000000001</v>
+      </c>
+      <c r="C11">
+        <v>11.6</v>
+      </c>
+      <c r="D11">
+        <v>3.7</v>
+      </c>
+      <c r="E11">
+        <v>25.9</v>
+      </c>
+      <c r="F11">
+        <v>13.2</v>
+      </c>
+      <c r="G11">
         <v>38.8</v>
       </c>
-      <c r="G10">
-        <v>33</v>
-      </c>
-      <c r="H10">
-        <v>22.1</v>
-      </c>
-      <c r="I10">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>85.39999999999999</v>
-      </c>
-      <c r="C11">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="D11">
-        <v>56.10000000000001</v>
-      </c>
-      <c r="E11">
-        <v>25</v>
-      </c>
-      <c r="F11">
-        <v>16.4</v>
-      </c>
-      <c r="G11">
-        <v>10.6</v>
-      </c>
       <c r="H11">
-        <v>4.399999999999999</v>
+        <v>22.6</v>
       </c>
       <c r="I11">
-        <v>4.7</v>
+        <v>11.1</v>
+      </c>
+      <c r="J11">
+        <v>10.7</v>
       </c>
     </row>
   </sheetData>
@@ -2227,31 +2266,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2259,16 +2298,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>133.2514285714286</v>
+        <v>131.01</v>
       </c>
       <c r="E2">
-        <v>932.76</v>
+        <v>1048.08</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2277,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2288,112 +2327,112 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>128.3657142857143</v>
+        <v>126.81</v>
       </c>
       <c r="E3">
-        <v>898.5599999999999</v>
+        <v>1014.48</v>
       </c>
       <c r="F3">
-        <v>95.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="D4">
-        <v>119.0028571428571</v>
+        <v>117.7</v>
       </c>
       <c r="E4">
-        <v>833.02</v>
+        <v>941.6</v>
       </c>
       <c r="F4">
-        <v>95.19999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D5">
-        <v>120.7371428571429</v>
+        <v>115.4425</v>
       </c>
       <c r="E5">
-        <v>845.1600000000001</v>
+        <v>923.54</v>
       </c>
       <c r="F5">
-        <v>89</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>112.5171428571429</v>
+        <v>119.86</v>
       </c>
       <c r="E6">
-        <v>787.62</v>
+        <v>958.8800000000001</v>
       </c>
       <c r="F6">
-        <v>67.5</v>
+        <v>82.5</v>
       </c>
       <c r="G6">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
         <v>68</v>
@@ -2404,28 +2443,28 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D7">
-        <v>127.5428571428571</v>
+        <v>122.77</v>
       </c>
       <c r="E7">
-        <v>892.8</v>
+        <v>982.16</v>
       </c>
       <c r="F7">
-        <v>59.4</v>
+        <v>58.09999999999999</v>
       </c>
       <c r="G7">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2433,28 +2472,28 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>108.9171428571428</v>
+        <v>109.63</v>
       </c>
       <c r="E8">
-        <v>762.42</v>
+        <v>877.04</v>
       </c>
       <c r="F8">
-        <v>40.5</v>
+        <v>53.7</v>
       </c>
       <c r="G8">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2462,83 +2501,83 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>112.4485714285714</v>
+        <v>115.69</v>
       </c>
       <c r="E9">
-        <v>787.14</v>
+        <v>925.52</v>
       </c>
       <c r="F9">
-        <v>25.8</v>
+        <v>17.4</v>
       </c>
       <c r="G9">
-        <v>13.3</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D10">
-        <v>111.9</v>
+        <v>101.8</v>
       </c>
       <c r="E10">
-        <v>783.3000000000001</v>
+        <v>814.3999999999999</v>
       </c>
       <c r="F10">
-        <v>23.1</v>
+        <v>12.7</v>
       </c>
       <c r="G10">
-        <v>19.1</v>
+        <v>29.5</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>98.65999999999998</v>
+        <v>107.295</v>
       </c>
       <c r="E11">
-        <v>690.6199999999999</v>
+        <v>858.3600000000001</v>
       </c>
       <c r="F11">
-        <v>3.9</v>
+        <v>11.1</v>
       </c>
       <c r="G11">
-        <v>55.40000000000001</v>
+        <v>40.5</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
         <v>71</v>
@@ -2559,7 +2598,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>72</v>
@@ -2568,7 +2607,7 @@
         <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>74</v>
@@ -2585,7 +2624,7 @@
         <v>75</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -2605,10 +2644,10 @@
         <v>76</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>86</v>
@@ -2619,16 +2658,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
@@ -2645,7 +2684,7 @@
         <v>78</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -2659,16 +2698,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>89</v>
@@ -2679,13 +2718,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -2699,16 +2738,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
       </c>
       <c r="D8">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -2719,13 +2758,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>82</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -2739,16 +2778,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>83</v>
       </c>
       <c r="D10">
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>93</v>
@@ -2765,13 +2804,13 @@
         <v>84</v>
       </c>
       <c r="D11">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2781,39 +2820,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2838,11 +2880,14 @@
       <c r="H2">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2867,40 +2912,46 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-4</v>
+      </c>
+      <c r="E4">
+        <v>-5</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>-2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>-2</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
+        <v>-6</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2925,156 +2976,174 @@
       <c r="H5">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-2</v>
+      </c>
+      <c r="H6">
+        <v>-10</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-2</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
+        <v>-5</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>-4</v>
-      </c>
-      <c r="E6">
+      <c r="G9">
+        <v>-7</v>
+      </c>
+      <c r="H9">
+        <v>-12</v>
+      </c>
+      <c r="I9">
+        <v>-14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>-13</v>
+      </c>
+      <c r="E10">
         <v>-5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F10">
+        <v>-13</v>
+      </c>
+      <c r="G10">
         <v>-6</v>
       </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>-6</v>
-      </c>
-      <c r="D8">
-        <v>-13</v>
-      </c>
-      <c r="E8">
-        <v>-5</v>
-      </c>
-      <c r="F8">
-        <v>-13</v>
-      </c>
-      <c r="G8">
-        <v>-6</v>
-      </c>
-      <c r="H8">
+      <c r="H10">
         <v>-8</v>
       </c>
-      <c r="I8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <v>-2</v>
-      </c>
-      <c r="H9">
-        <v>-10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>-5</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-7</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>-7</v>
-      </c>
-      <c r="H10">
-        <v>-12</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="I10">
+        <v>-19</v>
+      </c>
+      <c r="J10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3099,8 +3168,11 @@
       <c r="H11">
         <v>-25</v>
       </c>
-      <c r="I11" t="s">
-        <v>92</v>
+      <c r="I11">
+        <v>-19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3182,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3118,25 +3190,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3144,25 +3216,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>-19</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3170,25 +3242,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3196,25 +3268,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3222,25 +3294,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
       <c r="E5">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3248,25 +3320,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>-14</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3274,25 +3346,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3303,22 +3375,22 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3326,25 +3398,77 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
-      <c r="F9">
-        <v>-4</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="114">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -54,28 +54,31 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>8-0-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>9-0-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -156,6 +159,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -180,49 +186,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-0</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>11.6-2.4</t>
-  </si>
-  <si>
-    <t>7.5-6.4</t>
-  </si>
-  <si>
-    <t>7.8-6.1</t>
-  </si>
-  <si>
-    <t>7.7-6.2</t>
-  </si>
-  <si>
-    <t>7.4-6.6-0.1</t>
-  </si>
-  <si>
-    <t>6.2-7.7</t>
-  </si>
-  <si>
-    <t>6.6-7.3</t>
-  </si>
-  <si>
-    <t>5.0-9.0-0.1</t>
-  </si>
-  <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
-    <t>4.7-9.3</t>
+    <t>9-0</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>12.1-1.9</t>
+  </si>
+  <si>
+    <t>8.4-5.6</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>7.1-6.8</t>
+  </si>
+  <si>
+    <t>6.0-7.9</t>
+  </si>
+  <si>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>4.4-9.5</t>
+  </si>
+  <si>
+    <t>4.2-9.7</t>
   </si>
   <si>
     <t>12-2</t>
@@ -231,15 +240,18 @@
     <t>8-6</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -264,51 +276,48 @@
     <t>gianni alessio</t>
   </si>
   <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
     <t>Kate Zacierka</t>
   </si>
   <si>
-    <t>Gianpierre Lopez</t>
+    <t>Ayush Chivate</t>
   </si>
   <si>
     <t>jack meehan</t>
   </si>
   <si>
-    <t>Ayush Chivate</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑8</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>↓11</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -331,6 +340,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -755,10 +767,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -776,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -790,22 +802,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -814,7 +826,7 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -828,28 +840,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -860,28 +872,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -910,16 +922,16 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -945,16 +957,16 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -962,16 +974,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -980,16 +992,16 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
         <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -997,22 +1009,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1021,10 +1033,10 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1032,31 +1044,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -1067,34 +1079,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1112,13 +1124,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1129,10 +1141,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1143,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1154,13 +1166,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1168,13 +1180,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1182,13 +1194,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1196,13 +1208,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1210,13 +1222,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1224,13 +1236,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1241,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1255,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1276,16 +1288,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1296,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D2">
-        <v>-2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1313,13 +1325,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="D3">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1330,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="D4">
         <v>0.4000000000000004</v>
@@ -1347,10 +1359,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D5">
-        <v>-0.7999999999999998</v>
+        <v>-1.2</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1361,16 +1373,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D6">
-        <v>2.1</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1378,16 +1390,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1415,10 +1427,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D9">
-        <v>-0.7999999999999998</v>
+        <v>-1.6</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1429,13 +1441,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D10">
-        <v>0.7000000000000002</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1446,16 +1458,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D11">
-        <v>-0.5</v>
+        <v>1.4</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1473,40 +1485,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1514,16 +1526,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>93.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="D2">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1549,306 +1561,306 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>38.6</v>
       </c>
       <c r="D3">
-        <v>21.1</v>
+        <v>24.5</v>
       </c>
       <c r="E3">
-        <v>17.4</v>
+        <v>16.9</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>9.9</v>
       </c>
       <c r="G3">
-        <v>10.1</v>
+        <v>5.4</v>
       </c>
       <c r="H3">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="J3">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>89.7</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>33.7</v>
       </c>
       <c r="D4">
-        <v>18.5</v>
+        <v>25.4</v>
       </c>
       <c r="E4">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F4">
-        <v>15.2</v>
+        <v>11.4</v>
       </c>
       <c r="G4">
-        <v>11.9</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="I4">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>88.40000000000001</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>11.6</v>
+      </c>
+      <c r="D5">
+        <v>19.8</v>
+      </c>
+      <c r="E5">
+        <v>19.2</v>
+      </c>
+      <c r="F5">
+        <v>16.9</v>
+      </c>
+      <c r="G5">
+        <v>15.4</v>
+      </c>
+      <c r="H5">
+        <v>10.5</v>
+      </c>
+      <c r="I5">
+        <v>5.1</v>
+      </c>
+      <c r="J5">
         <v>1.2</v>
       </c>
-      <c r="C5">
-        <v>20.4</v>
-      </c>
-      <c r="D5">
-        <v>19.6</v>
-      </c>
-      <c r="E5">
-        <v>18.9</v>
-      </c>
-      <c r="F5">
-        <v>14.4</v>
-      </c>
-      <c r="G5">
-        <v>11.9</v>
-      </c>
-      <c r="H5">
-        <v>6.6</v>
-      </c>
-      <c r="I5">
-        <v>4.9</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>86.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>16.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>14.9</v>
       </c>
       <c r="E6">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>15.2</v>
+        <v>20.5</v>
       </c>
       <c r="G6">
-        <v>11.3</v>
+        <v>16.4</v>
       </c>
       <c r="H6">
-        <v>9.5</v>
+        <v>12.2</v>
       </c>
       <c r="I6">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="J6">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K6">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>82.5</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="D7">
-        <v>8.300000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="E7">
-        <v>12.6</v>
+        <v>17.6</v>
       </c>
       <c r="F7">
-        <v>15.6</v>
+        <v>20.3</v>
       </c>
       <c r="G7">
-        <v>16.7</v>
+        <v>17.6</v>
       </c>
       <c r="H7">
-        <v>16.9</v>
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>13.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J7">
-        <v>7.9</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>58.1</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="D8">
-        <v>7.6</v>
+        <v>2.1</v>
       </c>
       <c r="E8">
-        <v>9.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="F8">
-        <v>13.5</v>
+        <v>10.1</v>
       </c>
       <c r="G8">
-        <v>19.4</v>
+        <v>16.3</v>
       </c>
       <c r="H8">
-        <v>17.8</v>
+        <v>19.6</v>
       </c>
       <c r="I8">
-        <v>14.4</v>
+        <v>21.9</v>
       </c>
       <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8">
         <v>8.9</v>
       </c>
-      <c r="K8">
-        <v>5.2</v>
-      </c>
       <c r="L8">
-        <v>53.7</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="E9">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="F9">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="G9">
-        <v>7.4</v>
+        <v>13.6</v>
       </c>
       <c r="H9">
-        <v>14.6</v>
+        <v>19.5</v>
       </c>
       <c r="I9">
-        <v>22.5</v>
+        <v>24.8</v>
       </c>
       <c r="J9">
-        <v>25.5</v>
+        <v>16.8</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>10.6</v>
       </c>
       <c r="L9">
-        <v>17.4</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.2</v>
       </c>
-      <c r="D10">
-        <v>0.5</v>
-      </c>
       <c r="E10">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="F10">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="G10">
         <v>5.8</v>
       </c>
       <c r="H10">
-        <v>11.3</v>
+        <v>10.2</v>
       </c>
       <c r="I10">
-        <v>19.4</v>
+        <v>18.1</v>
       </c>
       <c r="J10">
-        <v>27.1</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>29.5</v>
+        <v>33.7</v>
       </c>
       <c r="L10">
-        <v>12.7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1859,34 +1871,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="F11">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="G11">
+        <v>3.5</v>
+      </c>
+      <c r="H11">
         <v>5.5</v>
       </c>
-      <c r="H11">
-        <v>9.6</v>
-      </c>
       <c r="I11">
-        <v>14.6</v>
+        <v>12.9</v>
       </c>
       <c r="J11">
-        <v>24.2</v>
+        <v>30.6</v>
       </c>
       <c r="K11">
-        <v>40.5</v>
+        <v>44.6</v>
       </c>
       <c r="L11">
-        <v>11.1</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -1896,65 +1908,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>95.7</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E2">
+        <v>99.5</v>
+      </c>
+      <c r="F2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G2">
         <v>99.59999999999999</v>
       </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
         <v>99.8</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -1962,293 +1977,323 @@
       <c r="J2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>98.5</v>
+      </c>
+      <c r="C3">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D3">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="E3">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="F3">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="G3">
+        <v>88.3</v>
+      </c>
+      <c r="H3">
+        <v>69.19999999999999</v>
+      </c>
+      <c r="I3">
+        <v>86.8</v>
+      </c>
+      <c r="J3">
+        <v>94.8</v>
+      </c>
+      <c r="K3">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>97.2</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>99.3</v>
+      </c>
+      <c r="E4">
+        <v>98.8</v>
+      </c>
+      <c r="F4">
+        <v>87.5</v>
+      </c>
+      <c r="G4">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="H4">
+        <v>89.3</v>
+      </c>
+      <c r="I4">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="J4">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="K4">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>76.8</v>
-      </c>
-      <c r="D3">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="E3">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="F3">
-        <v>90.7</v>
-      </c>
-      <c r="G3">
-        <v>97.2</v>
-      </c>
-      <c r="H3">
-        <v>95.3</v>
-      </c>
-      <c r="I3">
-        <v>92.10000000000001</v>
-      </c>
-      <c r="J3">
-        <v>88.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>98.3</v>
-      </c>
-      <c r="C4">
-        <v>82.69999999999999</v>
-      </c>
-      <c r="D4">
-        <v>59.9</v>
-      </c>
-      <c r="E4">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="F4">
-        <v>72.2</v>
-      </c>
-      <c r="G4">
-        <v>89</v>
-      </c>
-      <c r="H4">
+      <c r="B5">
+        <v>2.7</v>
+      </c>
+      <c r="C5">
+        <v>78.2</v>
+      </c>
+      <c r="D5">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="E5">
+        <v>96.5</v>
+      </c>
+      <c r="F5">
+        <v>92.2</v>
+      </c>
+      <c r="G5">
+        <v>98</v>
+      </c>
+      <c r="H5">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="I5">
+        <v>90.5</v>
+      </c>
+      <c r="J5">
+        <v>81.8</v>
+      </c>
+      <c r="K5">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>77.7</v>
+      </c>
+      <c r="C6">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="D6">
+        <v>98.7</v>
+      </c>
+      <c r="E6">
+        <v>89.5</v>
+      </c>
+      <c r="F6">
+        <v>95.8</v>
+      </c>
+      <c r="G6">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="H6">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="I6">
+        <v>86.5</v>
+      </c>
+      <c r="J6">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4.3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>12.2</v>
+      </c>
+      <c r="E7">
+        <v>16.1</v>
+      </c>
+      <c r="F7">
+        <v>38.7</v>
+      </c>
+      <c r="G7">
+        <v>20.7</v>
+      </c>
+      <c r="H7">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>54.6</v>
+      </c>
+      <c r="J7">
         <v>67.5</v>
       </c>
-      <c r="I4">
-        <v>85.3</v>
-      </c>
-      <c r="J4">
-        <v>88.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="C5">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="D5">
-        <v>99.3</v>
-      </c>
-      <c r="E5">
-        <v>90.5</v>
-      </c>
-      <c r="F5">
-        <v>94</v>
-      </c>
-      <c r="G5">
-        <v>96.5</v>
-      </c>
-      <c r="H5">
-        <v>95.5</v>
-      </c>
-      <c r="I5">
-        <v>85.5</v>
-      </c>
-      <c r="J5">
-        <v>86.09999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>96.7</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>98.8</v>
-      </c>
-      <c r="E6">
-        <v>98.5</v>
-      </c>
-      <c r="F6">
-        <v>89.2</v>
-      </c>
-      <c r="G6">
-        <v>81.89999999999999</v>
-      </c>
-      <c r="H6">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="I6">
-        <v>79.5</v>
-      </c>
-      <c r="J6">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="K7">
+        <v>70.39999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>62.6</v>
-      </c>
-      <c r="C7">
-        <v>30.9</v>
-      </c>
-      <c r="D7">
-        <v>77</v>
-      </c>
-      <c r="E7">
-        <v>50.3</v>
-      </c>
-      <c r="F7">
+      <c r="B8">
+        <v>64.2</v>
+      </c>
+      <c r="C8">
+        <v>29.5</v>
+      </c>
+      <c r="D8">
+        <v>77.2</v>
+      </c>
+      <c r="E8">
+        <v>51</v>
+      </c>
+      <c r="F8">
         <v>47.4</v>
       </c>
-      <c r="G7">
-        <v>33.4</v>
-      </c>
-      <c r="H7">
-        <v>61.7</v>
-      </c>
-      <c r="I7">
-        <v>61.7</v>
-      </c>
-      <c r="J7">
-        <v>57.99999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>14.7</v>
-      </c>
-      <c r="E8">
-        <v>18.4</v>
-      </c>
-      <c r="F8">
-        <v>39.3</v>
-      </c>
       <c r="G8">
-        <v>22</v>
+        <v>32.5</v>
       </c>
       <c r="H8">
-        <v>40.6</v>
+        <v>63.5</v>
       </c>
       <c r="I8">
-        <v>51.4</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="J8">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>34.7</v>
+      </c>
+      <c r="K8">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>81.10000000000001</v>
+      </c>
+      <c r="C9">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="D9">
+        <v>60.6</v>
+      </c>
+      <c r="E9">
+        <v>25.5</v>
+      </c>
+      <c r="F9">
+        <v>16.2</v>
+      </c>
+      <c r="G9">
+        <v>10.7</v>
+      </c>
+      <c r="H9">
+        <v>3.9</v>
+      </c>
+      <c r="I9">
+        <v>11.9</v>
+      </c>
+      <c r="J9">
+        <v>33.90000000000001</v>
+      </c>
+      <c r="K9">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C10">
+        <v>3.8</v>
+      </c>
+      <c r="D10">
         <v>3.3</v>
       </c>
-      <c r="D9">
-        <v>2.5</v>
-      </c>
-      <c r="E9">
-        <v>20.6</v>
-      </c>
-      <c r="F9">
-        <v>37.7</v>
-      </c>
-      <c r="G9">
-        <v>30.9</v>
-      </c>
-      <c r="H9">
+      <c r="E10">
         <v>22.1</v>
       </c>
-      <c r="I9">
-        <v>20.5</v>
-      </c>
-      <c r="J9">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>83.2</v>
-      </c>
-      <c r="C10">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D10">
-        <v>58.7</v>
-      </c>
-      <c r="E10">
-        <v>26.1</v>
-      </c>
       <c r="F10">
-        <v>16.3</v>
+        <v>38.4</v>
       </c>
       <c r="G10">
-        <v>10.5</v>
+        <v>31.6</v>
       </c>
       <c r="H10">
-        <v>4.8</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>12.9</v>
+        <v>20.4</v>
       </c>
       <c r="J10">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K10">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78.10000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C11">
         <v>11.6</v>
       </c>
       <c r="D11">
-        <v>3.7</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="E11">
-        <v>25.9</v>
+        <v>26.9</v>
       </c>
       <c r="F11">
-        <v>13.2</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="H11">
-        <v>22.6</v>
+        <v>23.5</v>
       </c>
       <c r="I11">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>10.7</v>
+        <v>8.799999999999999</v>
+      </c>
+      <c r="K11">
+        <v>6.3</v>
       </c>
     </row>
   </sheetData>
@@ -2266,31 +2311,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2298,16 +2343,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>131.01</v>
+        <v>130.6044444444444</v>
       </c>
       <c r="E2">
-        <v>1048.08</v>
+        <v>1175.44</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2316,242 +2361,242 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>126.81</v>
+        <v>118.2533333333333</v>
       </c>
       <c r="E3">
-        <v>1014.48</v>
+        <v>1064.28</v>
       </c>
       <c r="F3">
-        <v>89.7</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="G3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D4">
-        <v>117.7</v>
+        <v>122.5755555555556</v>
       </c>
       <c r="E4">
-        <v>941.6</v>
+        <v>1103.18</v>
       </c>
       <c r="F4">
-        <v>88.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>0.625</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D5">
-        <v>115.4425</v>
+        <v>125.9666666666667</v>
       </c>
       <c r="E5">
-        <v>923.54</v>
+        <v>1133.7</v>
       </c>
       <c r="F5">
-        <v>86.40000000000001</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6">
-        <v>119.86</v>
+        <v>113.1933333333333</v>
       </c>
       <c r="E6">
-        <v>958.8800000000001</v>
+        <v>1018.74</v>
       </c>
       <c r="F6">
-        <v>82.5</v>
+        <v>78.2</v>
       </c>
       <c r="G6">
-        <v>0.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>0.375</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D7">
-        <v>122.77</v>
+        <v>107.9377777777778</v>
       </c>
       <c r="E7">
-        <v>982.16</v>
+        <v>971.4399999999999</v>
       </c>
       <c r="F7">
-        <v>58.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="G7">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D8">
-        <v>109.63</v>
+        <v>105.9222222222222</v>
       </c>
       <c r="E8">
-        <v>877.04</v>
+        <v>953.2999999999998</v>
       </c>
       <c r="F8">
-        <v>53.7</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="G8">
-        <v>5.2</v>
+        <v>8.9</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>115.69</v>
+        <v>118.2955555555556</v>
       </c>
       <c r="E9">
-        <v>925.52</v>
+        <v>1064.66</v>
       </c>
       <c r="F9">
-        <v>17.4</v>
+        <v>28.3</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>10.6</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D10">
-        <v>101.8</v>
+        <v>113.3711111111111</v>
       </c>
       <c r="E10">
-        <v>814.3999999999999</v>
+        <v>1020.34</v>
       </c>
       <c r="F10">
-        <v>12.7</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>29.5</v>
+        <v>33.7</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2559,28 +2604,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D11">
-        <v>107.295</v>
+        <v>110.5244444444444</v>
       </c>
       <c r="E11">
-        <v>858.3600000000001</v>
+        <v>994.7200000000001</v>
       </c>
       <c r="F11">
-        <v>11.1</v>
+        <v>6.4</v>
       </c>
       <c r="G11">
-        <v>40.5</v>
+        <v>44.6</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2598,19 +2643,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2621,16 +2666,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D2">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2641,16 +2686,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2661,16 +2706,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2681,16 +2726,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2701,7 +2746,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2718,19 +2763,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2738,19 +2783,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2758,19 +2803,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D9">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2781,16 +2826,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2798,19 +2843,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2820,42 +2865,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2883,11 +2931,14 @@
       <c r="I2">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2915,11 +2966,14 @@
       <c r="I3">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2947,11 +3001,14 @@
       <c r="I4">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2979,11 +3036,14 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3011,107 +3071,119 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>-2</v>
+      </c>
+      <c r="J7">
+        <v>-5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-4</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-8</v>
+      </c>
+      <c r="E8">
+        <v>-16</v>
+      </c>
+      <c r="F8">
+        <v>-13</v>
+      </c>
+      <c r="G8">
+        <v>-17</v>
+      </c>
+      <c r="H8">
+        <v>-25</v>
+      </c>
+      <c r="I8">
+        <v>-19</v>
+      </c>
+      <c r="J8">
+        <v>-11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>-2</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>-2</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>-1</v>
       </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>-2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
-        <v>-5</v>
-      </c>
-      <c r="D9">
-        <v>-7</v>
-      </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>-7</v>
-      </c>
-      <c r="H9">
+      <c r="J9">
         <v>-12</v>
       </c>
-      <c r="I9">
-        <v>-14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3139,40 +3211,46 @@
       <c r="I10">
         <v>-19</v>
       </c>
-      <c r="J10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10">
+        <v>-13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="C11">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D11">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E11">
-        <v>-16</v>
+        <v>-7</v>
       </c>
       <c r="F11">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>-17</v>
+        <v>-7</v>
       </c>
       <c r="H11">
-        <v>-25</v>
+        <v>-12</v>
       </c>
       <c r="I11">
-        <v>-19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>94</v>
+        <v>-14</v>
+      </c>
+      <c r="J11">
+        <v>-23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3182,7 +3260,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3190,25 +3268,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3242,25 +3320,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3268,25 +3346,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3294,25 +3372,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3320,25 +3398,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>-5</v>
+      </c>
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>-2</v>
-      </c>
-      <c r="F6">
-        <v>-14</v>
-      </c>
       <c r="G6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3346,25 +3424,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>-6</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
       <c r="G7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3372,25 +3450,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>-14</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3398,25 +3476,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
       <c r="E9">
-        <v>10</v>
+        <v>-23</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3424,25 +3502,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3453,22 +3531,74 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="113">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -54,31 +54,28 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>9-0-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -162,6 +159,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -186,57 +186,63 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-0</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>12.1-1.9</t>
-  </si>
-  <si>
-    <t>8.4-5.6</t>
-  </si>
-  <si>
-    <t>8.0-6.0</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>7.1-6.8</t>
-  </si>
-  <si>
-    <t>6.0-7.9</t>
-  </si>
-  <si>
-    <t>5.4-8.6</t>
-  </si>
-  <si>
-    <t>4.4-9.5</t>
-  </si>
-  <si>
-    <t>4.2-9.7</t>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>11.5-2.4</t>
+  </si>
+  <si>
+    <t>8.9-5.0</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>7.4-6.5</t>
+  </si>
+  <si>
+    <t>7.6-6.3</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
+    <t>5.5-8.4</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>4.9-9.0</t>
+  </si>
+  <si>
+    <t>3.7-10.3</t>
   </si>
   <si>
     <t>12-2</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -291,31 +297,19 @@
     <t>jack meehan</t>
   </si>
   <si>
-    <t>0</t>
+    <t>↑4</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -343,6 +337,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -767,28 +764,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -802,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -823,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -837,28 +834,28 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -872,16 +869,16 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -893,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -913,25 +910,25 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -942,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -963,10 +960,10 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -980,16 +977,16 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -998,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -1009,19 +1006,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1033,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1047,31 +1044,31 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1082,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1106,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1124,13 +1121,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1141,10 +1138,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1155,10 +1152,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1169,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1183,10 +1180,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1194,13 +1191,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1208,13 +1205,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1222,13 +1219,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1236,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1250,10 +1247,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1267,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1288,16 +1285,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1308,13 +1305,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D2">
-        <v>-2.6</v>
+        <v>-2.2</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1325,13 +1322,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="D3">
         <v>1.7</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1342,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="D4">
-        <v>0.4000000000000004</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1359,10 +1356,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="D5">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1373,16 +1370,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="D6">
-        <v>-0.7000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1390,16 +1387,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="D7">
-        <v>2.3</v>
+        <v>-1.1</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1410,10 +1407,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D8">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1427,13 +1424,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D9">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1444,10 +1441,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D10">
-        <v>-0.6000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1467,7 +1464,7 @@
         <v>1.4</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1485,40 +1482,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1526,16 +1523,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>98.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
         <v>0.1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1564,37 +1561,37 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="C3">
-        <v>38.6</v>
+        <v>42.1</v>
       </c>
       <c r="D3">
-        <v>24.5</v>
+        <v>26.9</v>
       </c>
       <c r="E3">
-        <v>16.9</v>
+        <v>18.8</v>
       </c>
       <c r="F3">
-        <v>9.9</v>
+        <v>6.8</v>
       </c>
       <c r="G3">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H3">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>96.40000000000001</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1602,37 +1599,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="C4">
-        <v>33.7</v>
+        <v>35.3</v>
       </c>
       <c r="D4">
-        <v>25.4</v>
+        <v>30.4</v>
       </c>
       <c r="E4">
-        <v>16.1</v>
+        <v>17.4</v>
       </c>
       <c r="F4">
-        <v>11.4</v>
+        <v>10.2</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="H4">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>93</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1640,37 +1637,37 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C5">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="D5">
-        <v>19.8</v>
+        <v>23.7</v>
       </c>
       <c r="E5">
-        <v>19.2</v>
+        <v>25.2</v>
       </c>
       <c r="F5">
-        <v>16.9</v>
+        <v>20.7</v>
       </c>
       <c r="G5">
-        <v>15.4</v>
+        <v>13.2</v>
       </c>
       <c r="H5">
-        <v>10.5</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="J5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>82.90000000000001</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1678,37 +1675,37 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C6">
-        <v>8.300000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="D6">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>26.9</v>
       </c>
       <c r="F6">
-        <v>20.5</v>
+        <v>27.2</v>
       </c>
       <c r="G6">
-        <v>16.4</v>
+        <v>18.7</v>
       </c>
       <c r="H6">
-        <v>12.2</v>
+        <v>5.4</v>
       </c>
       <c r="I6">
-        <v>6.3</v>
+        <v>1.6</v>
       </c>
       <c r="J6">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>78.2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1719,34 +1716,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>10.8</v>
+        <v>3.4</v>
       </c>
       <c r="E7">
-        <v>17.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F7">
-        <v>20.3</v>
+        <v>21.9</v>
       </c>
       <c r="G7">
-        <v>17.6</v>
+        <v>29.3</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>21.7</v>
       </c>
       <c r="I7">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="L7">
-        <v>71.2</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1757,77 +1754,77 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="E8">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>10.1</v>
+        <v>4.3</v>
       </c>
       <c r="G8">
-        <v>16.3</v>
+        <v>12.4</v>
       </c>
       <c r="H8">
-        <v>19.6</v>
+        <v>22.7</v>
       </c>
       <c r="I8">
-        <v>21.9</v>
+        <v>25.6</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>24.2</v>
       </c>
       <c r="K8">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="L8">
-        <v>34.6</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="F9">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="G9">
-        <v>13.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H9">
-        <v>19.5</v>
+        <v>18.4</v>
       </c>
       <c r="I9">
-        <v>24.8</v>
+        <v>28.8</v>
       </c>
       <c r="J9">
-        <v>16.8</v>
+        <v>26.2</v>
       </c>
       <c r="K9">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="L9">
-        <v>28.3</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1836,31 +1833,31 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="G10">
-        <v>5.8</v>
+        <v>10.3</v>
       </c>
       <c r="H10">
-        <v>10.2</v>
+        <v>24.2</v>
       </c>
       <c r="I10">
-        <v>18.1</v>
+        <v>24</v>
       </c>
       <c r="J10">
-        <v>29</v>
+        <v>26.6</v>
       </c>
       <c r="K10">
-        <v>33.7</v>
+        <v>10.7</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1874,31 +1871,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>0.7</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J11">
+        <v>19.3</v>
+      </c>
+      <c r="K11">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L11">
         <v>0.9</v>
-      </c>
-      <c r="F11">
-        <v>1.7</v>
-      </c>
-      <c r="G11">
-        <v>3.5</v>
-      </c>
-      <c r="H11">
-        <v>5.5</v>
-      </c>
-      <c r="I11">
-        <v>12.9</v>
-      </c>
-      <c r="J11">
-        <v>30.6</v>
-      </c>
-      <c r="K11">
-        <v>44.6</v>
-      </c>
-      <c r="L11">
-        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -1908,68 +1905,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>99.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E2">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="F2">
         <v>99.90000000000001</v>
       </c>
       <c r="G2">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="H2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -1980,320 +1980,350 @@
       <c r="K2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="C3">
-        <v>82.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>58.09999999999999</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="E3">
-        <v>74.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="F3">
-        <v>71.89999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="G3">
         <v>88.3</v>
       </c>
       <c r="H3">
-        <v>69.19999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I3">
-        <v>86.8</v>
+        <v>87.7</v>
       </c>
       <c r="J3">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="K3">
-        <v>97.09999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>99.5</v>
+      </c>
+      <c r="L3">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>97.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E4">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="F4">
-        <v>87.5</v>
+        <v>86.8</v>
       </c>
       <c r="G4">
-        <v>82.59999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="H4">
-        <v>89.3</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="I4">
-        <v>81.69999999999999</v>
+        <v>80</v>
       </c>
       <c r="J4">
-        <v>95.09999999999999</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="K4">
-        <v>94.09999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>97.2</v>
+      </c>
+      <c r="L4">
+        <v>97.89999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C5">
-        <v>78.2</v>
+        <v>75.7</v>
       </c>
       <c r="D5">
-        <v>87.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="E5">
-        <v>96.5</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="F5">
-        <v>92.2</v>
+        <v>92.7</v>
       </c>
       <c r="G5">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="H5">
-        <v>94.19999999999999</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="I5">
-        <v>90.5</v>
+        <v>90.2</v>
       </c>
       <c r="J5">
-        <v>81.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K5">
-        <v>83.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="L5">
+        <v>95.39999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>77.7</v>
+        <v>75.5</v>
       </c>
       <c r="C6">
-        <v>97.89999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="D6">
-        <v>98.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E6">
-        <v>89.5</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F6">
-        <v>95.8</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="G6">
         <v>97.39999999999999</v>
       </c>
       <c r="H6">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="I6">
-        <v>86.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J6">
-        <v>74.09999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="K6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>90.7</v>
+      </c>
+      <c r="L6">
+        <v>92.40000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>4.3</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.2</v>
+        <v>14.3</v>
       </c>
       <c r="E7">
-        <v>16.1</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="G7">
-        <v>20.7</v>
+        <v>25.5</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>39.3</v>
       </c>
       <c r="I7">
-        <v>54.6</v>
+        <v>53.2</v>
       </c>
       <c r="J7">
-        <v>67.5</v>
+        <v>66.7</v>
       </c>
       <c r="K7">
-        <v>70.39999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>55.7</v>
+      </c>
+      <c r="L7">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>26.9</v>
+      </c>
+      <c r="F8">
+        <v>15.2</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>5.3</v>
+      </c>
+      <c r="I8">
+        <v>11.4</v>
+      </c>
+      <c r="J8">
+        <v>31.6</v>
+      </c>
+      <c r="K8">
+        <v>20.2</v>
+      </c>
+      <c r="L8">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>64.2</v>
-      </c>
-      <c r="C8">
-        <v>29.5</v>
-      </c>
-      <c r="D8">
-        <v>77.2</v>
-      </c>
-      <c r="E8">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>47.4</v>
-      </c>
-      <c r="G8">
-        <v>32.5</v>
-      </c>
-      <c r="H8">
-        <v>63.5</v>
-      </c>
-      <c r="I8">
-        <v>57.59999999999999</v>
-      </c>
-      <c r="J8">
-        <v>34.7</v>
-      </c>
-      <c r="K8">
-        <v>32.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B9">
-        <v>81.10000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="C9">
-        <v>96.39999999999999</v>
+        <v>28.2</v>
       </c>
       <c r="D9">
-        <v>60.6</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="E9">
-        <v>25.5</v>
+        <v>53</v>
       </c>
       <c r="F9">
-        <v>16.2</v>
+        <v>51.5</v>
       </c>
       <c r="G9">
-        <v>10.7</v>
+        <v>29.6</v>
       </c>
       <c r="H9">
-        <v>3.9</v>
+        <v>59.3</v>
       </c>
       <c r="I9">
-        <v>11.9</v>
+        <v>59.5</v>
       </c>
       <c r="J9">
-        <v>33.90000000000001</v>
+        <v>38.4</v>
       </c>
       <c r="K9">
-        <v>32.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>18.7</v>
+      </c>
+      <c r="L9">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D10">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="E10">
-        <v>22.1</v>
+        <v>20.3</v>
       </c>
       <c r="F10">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="G10">
-        <v>31.6</v>
+        <v>31.3</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>24.4</v>
       </c>
       <c r="I10">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="J10">
-        <v>9.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="K10">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>22.6</v>
+      </c>
+      <c r="L10">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>77.3</v>
+        <v>79</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>4.100000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="E11">
-        <v>26.9</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="G11">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="H11">
-        <v>23.5</v>
+        <v>26.8</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="J11">
-        <v>8.799999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K11">
-        <v>6.3</v>
+        <v>2.1</v>
+      </c>
+      <c r="L11">
+        <v>0.7000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2341,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>46</v>
@@ -2346,13 +2376,13 @@
         <v>54</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2">
-        <v>130.6044444444444</v>
+        <v>128.448</v>
       </c>
       <c r="E2">
-        <v>1175.44</v>
+        <v>1284.48</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2361,10 +2391,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2375,25 +2405,25 @@
         <v>55</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>118.2533333333333</v>
+        <v>119.848</v>
       </c>
       <c r="E3">
-        <v>1064.28</v>
+        <v>1198.48</v>
       </c>
       <c r="F3">
-        <v>96.39999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2404,25 +2434,25 @@
         <v>56</v>
       </c>
       <c r="C4">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>122.5755555555556</v>
+        <v>122.912</v>
       </c>
       <c r="E4">
-        <v>1103.18</v>
+        <v>1229.12</v>
       </c>
       <c r="F4">
-        <v>93</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2433,25 +2463,25 @@
         <v>57</v>
       </c>
       <c r="C5">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>125.9666666666667</v>
+        <v>128.35</v>
       </c>
       <c r="E5">
-        <v>1133.7</v>
+        <v>1283.5</v>
       </c>
       <c r="F5">
-        <v>82.89999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="G5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2462,25 +2492,25 @@
         <v>56</v>
       </c>
       <c r="C6">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>113.1933333333333</v>
+        <v>113.336</v>
       </c>
       <c r="E6">
-        <v>1018.74</v>
+        <v>1133.36</v>
       </c>
       <c r="F6">
-        <v>78.2</v>
+        <v>93</v>
       </c>
       <c r="G6">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2488,28 +2518,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>107.9377777777778</v>
+        <v>107.306</v>
       </c>
       <c r="E7">
-        <v>971.4399999999999</v>
+        <v>1073.06</v>
       </c>
       <c r="F7">
-        <v>71.2</v>
+        <v>63.4</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2517,86 +2547,86 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>105.9222222222222</v>
+        <v>105.11</v>
       </c>
       <c r="E8">
-        <v>953.2999999999998</v>
+        <v>1051.1</v>
       </c>
       <c r="F8">
-        <v>34.59999999999999</v>
+        <v>18.1</v>
       </c>
       <c r="G8">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
-        <v>118.2955555555556</v>
+        <v>115.584</v>
       </c>
       <c r="E9">
-        <v>1064.66</v>
+        <v>1155.84</v>
       </c>
       <c r="F9">
-        <v>28.3</v>
+        <v>16.2</v>
       </c>
       <c r="G9">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
       </c>
       <c r="C10">
-        <v>0.2222222222222222</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>113.3711111111111</v>
+        <v>117.086</v>
       </c>
       <c r="E10">
-        <v>1020.34</v>
+        <v>1170.86</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="G10">
-        <v>33.7</v>
+        <v>10.7</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2604,28 +2634,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>110.5244444444444</v>
+        <v>108.622</v>
       </c>
       <c r="E11">
-        <v>994.7200000000001</v>
+        <v>1086.22</v>
       </c>
       <c r="F11">
-        <v>6.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G11">
-        <v>44.6</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2643,19 +2673,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2666,16 +2696,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2686,16 +2716,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2706,16 +2736,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2726,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -2746,16 +2776,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2766,10 +2796,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -2786,10 +2816,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -2806,16 +2836,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2826,16 +2856,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>-13</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2846,16 +2876,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2865,45 +2895,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2934,11 +2967,14 @@
       <c r="J2">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2969,11 +3005,14 @@
       <c r="J3">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3004,11 +3043,14 @@
       <c r="J4">
         <v>6</v>
       </c>
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3039,11 +3081,14 @@
       <c r="J5">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3074,11 +3119,14 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3109,11 +3157,14 @@
       <c r="J7">
         <v>-5</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>-8</v>
+      </c>
+      <c r="L7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3144,11 +3195,14 @@
       <c r="J8">
         <v>-11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>-12</v>
+      </c>
+      <c r="L8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3179,11 +3233,14 @@
       <c r="J9">
         <v>-12</v>
       </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9">
+        <v>-13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3214,11 +3271,14 @@
       <c r="J10">
         <v>-13</v>
       </c>
-      <c r="K10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3249,8 +3309,11 @@
       <c r="J11">
         <v>-23</v>
       </c>
-      <c r="K11" t="s">
-        <v>97</v>
+      <c r="K11">
+        <v>-22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3323,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3268,25 +3331,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3547,58 +3610,6 @@
       </c>
       <c r="H11" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="119">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -54,28 +54,28 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -162,6 +162,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -186,63 +189,60 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-1</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>11.5-2.4</t>
-  </si>
-  <si>
-    <t>8.9-5.0</t>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>8.9-5.1</t>
+  </si>
+  <si>
+    <t>10.8-3.1</t>
   </si>
   <si>
     <t>8.5-5.5</t>
   </si>
   <si>
-    <t>7.4-6.5</t>
-  </si>
-  <si>
-    <t>7.6-6.3</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>5.5-8.4</t>
-  </si>
-  <si>
-    <t>5.0-9.0</t>
-  </si>
-  <si>
-    <t>4.9-9.0</t>
-  </si>
-  <si>
-    <t>3.7-10.3</t>
-  </si>
-  <si>
-    <t>12-2</t>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>6.4-7.5</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>4.3-9.6</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
+    <t>11-3</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -273,40 +273,55 @@
     <t>James Breen</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
     <t>Derek Alcavage</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
+    <t>Gianpierre Lopez</t>
   </si>
   <si>
     <t>gianni alessio</t>
   </si>
   <si>
-    <t>Gianpierre Lopez</t>
-  </si>
-  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
+    <t>Ayush Chivate</t>
+  </si>
+  <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
     <t>Kate Zacierka</t>
   </si>
   <si>
-    <t>Ayush Chivate</t>
-  </si>
-  <si>
-    <t>jack meehan</t>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>↓6</t>
@@ -340,6 +355,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -764,31 +782,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -796,28 +814,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -831,13 +849,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -846,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -869,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -881,19 +899,19 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -904,22 +922,22 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -936,28 +954,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -974,7 +992,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -986,19 +1004,19 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1009,7 +1027,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1018,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1044,31 +1062,31 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1076,10 +1094,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1088,22 +1106,22 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
         <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1138,10 +1156,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1152,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1166,10 +1184,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1177,13 +1195,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1191,13 +1209,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1205,13 +1223,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1219,13 +1237,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1233,13 +1251,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1247,10 +1265,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1264,10 +1282,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1305,13 +1323,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D2">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1319,16 +1337,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1336,16 +1354,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>0.09999999999999964</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1353,16 +1371,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="D5">
-        <v>-1.4</v>
+        <v>2.2</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1370,16 +1388,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="D6">
-        <v>2.2</v>
+        <v>-1.4</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1390,13 +1408,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="D7">
-        <v>-1.1</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1407,10 +1425,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1424,10 +1442,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D9">
-        <v>-1.4</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1438,16 +1456,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D10">
-        <v>-0.5</v>
+        <v>1.2</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1455,16 +1473,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1520,25 +1538,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>94.8</v>
+        <v>7.2</v>
       </c>
       <c r="C2">
-        <v>4.4</v>
+        <v>52.7</v>
       </c>
       <c r="D2">
-        <v>0.7</v>
+        <v>22.7</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>13.3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1558,28 +1576,28 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>3.3</v>
+        <v>89.7</v>
       </c>
       <c r="C3">
-        <v>42.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D3">
-        <v>26.9</v>
+        <v>1.4</v>
       </c>
       <c r="E3">
-        <v>18.8</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1591,33 +1609,33 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>35.3</v>
+        <v>20.9</v>
       </c>
       <c r="D4">
-        <v>30.4</v>
+        <v>29.7</v>
       </c>
       <c r="E4">
-        <v>17.4</v>
+        <v>32.2</v>
       </c>
       <c r="F4">
-        <v>10.2</v>
+        <v>12.5</v>
       </c>
       <c r="G4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="H4">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1629,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>98.90000000000001</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1637,37 +1655,37 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="C5">
-        <v>12.2</v>
+        <v>15.8</v>
       </c>
       <c r="D5">
-        <v>23.7</v>
+        <v>35.3</v>
       </c>
       <c r="E5">
-        <v>25.2</v>
+        <v>28.3</v>
       </c>
       <c r="F5">
-        <v>20.7</v>
+        <v>11.7</v>
       </c>
       <c r="G5">
-        <v>13.2</v>
+        <v>5.7</v>
       </c>
       <c r="H5">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="I5">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>95.2</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1675,28 +1693,28 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="D6">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E6">
-        <v>26.9</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>27.2</v>
+        <v>36</v>
       </c>
       <c r="G6">
-        <v>18.7</v>
+        <v>23.7</v>
       </c>
       <c r="H6">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="I6">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1705,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>93</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1716,39 +1734,39 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>21.9</v>
+        <v>16.9</v>
       </c>
       <c r="G7">
-        <v>29.3</v>
+        <v>30.6</v>
       </c>
       <c r="H7">
-        <v>21.7</v>
+        <v>23.4</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12.7</v>
       </c>
       <c r="J7">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>63.4</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1757,36 +1775,36 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="F8">
-        <v>4.3</v>
+        <v>11.3</v>
       </c>
       <c r="G8">
-        <v>12.4</v>
+        <v>14.7</v>
       </c>
       <c r="H8">
         <v>22.7</v>
       </c>
       <c r="I8">
-        <v>25.6</v>
+        <v>24.3</v>
       </c>
       <c r="J8">
-        <v>24.2</v>
+        <v>18.7</v>
       </c>
       <c r="K8">
-        <v>9.4</v>
+        <v>6.1</v>
       </c>
       <c r="L8">
-        <v>18.1</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1795,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="F9">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="G9">
-        <v>9.300000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="H9">
-        <v>18.4</v>
+        <v>29.1</v>
       </c>
       <c r="I9">
-        <v>28.8</v>
+        <v>27.6</v>
       </c>
       <c r="J9">
-        <v>26.2</v>
+        <v>14.3</v>
       </c>
       <c r="K9">
-        <v>10.4</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
-        <v>16.2</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1836,28 +1854,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>10.3</v>
+        <v>3.3</v>
       </c>
       <c r="H10">
-        <v>24.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I10">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J10">
-        <v>26.6</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>10.7</v>
+        <v>38.9</v>
       </c>
       <c r="L10">
-        <v>14.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1877,25 +1895,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
+        <v>4.8</v>
+      </c>
+      <c r="I11">
+        <v>15.2</v>
+      </c>
+      <c r="J11">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>48</v>
+      </c>
+      <c r="L11">
         <v>3</v>
-      </c>
-      <c r="I11">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="J11">
-        <v>19.3</v>
-      </c>
-      <c r="K11">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="L11">
-        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -1905,13 +1923,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1945,385 +1963,418 @@
       <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>97.09999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
+        <v>99.2</v>
+      </c>
+      <c r="E2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F2">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="G2">
+        <v>83.2</v>
+      </c>
+      <c r="H2">
+        <v>91.7</v>
+      </c>
+      <c r="I2">
+        <v>79.10000000000001</v>
+      </c>
+      <c r="J2">
+        <v>92.7</v>
+      </c>
+      <c r="K2">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="L2">
+        <v>99.8</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>96.5</v>
+      </c>
+      <c r="C3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D3">
         <v>99.59999999999999</v>
       </c>
-      <c r="E2">
-        <v>99.3</v>
-      </c>
-      <c r="F2">
+      <c r="E3">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
         <v>99.90000000000001</v>
       </c>
-      <c r="G2">
-        <v>99.8</v>
-      </c>
-      <c r="H2">
+      <c r="H3">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>100</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>98.8</v>
-      </c>
-      <c r="C3">
-        <v>82</v>
-      </c>
-      <c r="D3">
-        <v>55.60000000000001</v>
-      </c>
-      <c r="E3">
-        <v>73.2</v>
-      </c>
-      <c r="F3">
-        <v>70.8</v>
-      </c>
-      <c r="G3">
-        <v>88.3</v>
-      </c>
-      <c r="H3">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="I3">
-        <v>87.7</v>
-      </c>
-      <c r="J3">
-        <v>95</v>
-      </c>
-      <c r="K3">
-        <v>99.5</v>
-      </c>
-      <c r="L3">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B4">
-        <v>97.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="C4">
+        <v>80.7</v>
+      </c>
+      <c r="D4">
+        <v>53.5</v>
+      </c>
+      <c r="E4">
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>88.5</v>
+      </c>
+      <c r="H4">
+        <v>68</v>
+      </c>
+      <c r="I4">
+        <v>86.3</v>
+      </c>
+      <c r="J4">
+        <v>95.3</v>
+      </c>
+      <c r="K4">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="L4">
+        <v>98.2</v>
+      </c>
+      <c r="M4">
         <v>100</v>
       </c>
-      <c r="D4">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="E4">
-        <v>99</v>
-      </c>
-      <c r="F4">
-        <v>86.8</v>
-      </c>
-      <c r="G4">
-        <v>81.2</v>
-      </c>
-      <c r="H4">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="I4">
-        <v>80</v>
-      </c>
-      <c r="J4">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="K4">
-        <v>97.2</v>
-      </c>
-      <c r="L4">
-        <v>97.89999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="C5">
-        <v>75.7</v>
+        <v>76.8</v>
       </c>
       <c r="D5">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E5">
-        <v>94.39999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="F5">
-        <v>92.7</v>
+        <v>92</v>
       </c>
       <c r="G5">
-        <v>97.7</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="H5">
-        <v>93.10000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="I5">
-        <v>90.2</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="J5">
-        <v>80.90000000000001</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="K5">
-        <v>93.30000000000001</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="L5">
-        <v>95.39999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>96.2</v>
+      </c>
+      <c r="M5">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>75.5</v>
+        <v>75</v>
       </c>
       <c r="C6">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D6">
         <v>98.8</v>
       </c>
-      <c r="D6">
-        <v>99.59999999999999</v>
-      </c>
       <c r="E6">
-        <v>88.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="F6">
-        <v>94.69999999999999</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="G6">
-        <v>97.39999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="H6">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="I6">
-        <v>86.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="J6">
-        <v>75.5</v>
+        <v>76</v>
       </c>
       <c r="K6">
-        <v>90.7</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="L6">
-        <v>92.40000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="M6">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>4.399999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.3</v>
+        <v>16.4</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>16.2</v>
       </c>
       <c r="F7">
-        <v>38.6</v>
+        <v>40.1</v>
       </c>
       <c r="G7">
+        <v>23.8</v>
+      </c>
+      <c r="H7">
+        <v>36.6</v>
+      </c>
+      <c r="I7">
+        <v>53.8</v>
+      </c>
+      <c r="J7">
+        <v>66.8</v>
+      </c>
+      <c r="K7">
+        <v>51.3</v>
+      </c>
+      <c r="L7">
+        <v>46.5</v>
+      </c>
+      <c r="M7">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8">
+        <v>5.1</v>
+      </c>
+      <c r="D8">
+        <v>2.2</v>
+      </c>
+      <c r="E8">
+        <v>17.3</v>
+      </c>
+      <c r="F8">
+        <v>35.5</v>
+      </c>
+      <c r="G8">
+        <v>29.5</v>
+      </c>
+      <c r="H8">
+        <v>22.4</v>
+      </c>
+      <c r="I8">
+        <v>20.3</v>
+      </c>
+      <c r="J8">
+        <v>10.6</v>
+      </c>
+      <c r="K8">
+        <v>23.2</v>
+      </c>
+      <c r="L8">
+        <v>34.3</v>
+      </c>
+      <c r="M8">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>83.5</v>
+      </c>
+      <c r="C9">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D9">
+        <v>59.4</v>
+      </c>
+      <c r="E9">
+        <v>29.3</v>
+      </c>
+      <c r="F9">
+        <v>17.5</v>
+      </c>
+      <c r="G9">
+        <v>9.5</v>
+      </c>
+      <c r="H9">
+        <v>4.3</v>
+      </c>
+      <c r="I9">
+        <v>11.4</v>
+      </c>
+      <c r="J9">
+        <v>33.1</v>
+      </c>
+      <c r="K9">
+        <v>19.8</v>
+      </c>
+      <c r="L9">
+        <v>30.2</v>
+      </c>
+      <c r="M9">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="C10">
+        <v>10.8</v>
+      </c>
+      <c r="D10">
+        <v>3.6</v>
+      </c>
+      <c r="E10">
+        <v>26.4</v>
+      </c>
+      <c r="F10">
+        <v>15.4</v>
+      </c>
+      <c r="G10">
+        <v>41</v>
+      </c>
+      <c r="H10">
         <v>25.5</v>
       </c>
-      <c r="H7">
-        <v>39.3</v>
-      </c>
-      <c r="I7">
-        <v>53.2</v>
-      </c>
-      <c r="J7">
-        <v>66.7</v>
-      </c>
-      <c r="K7">
-        <v>55.7</v>
-      </c>
-      <c r="L7">
-        <v>61.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>82</v>
-      </c>
-      <c r="C8">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
-      <c r="E8">
-        <v>26.9</v>
-      </c>
-      <c r="F8">
-        <v>15.2</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>5.3</v>
-      </c>
-      <c r="I8">
-        <v>11.4</v>
-      </c>
-      <c r="J8">
-        <v>31.6</v>
-      </c>
-      <c r="K8">
-        <v>20.2</v>
-      </c>
-      <c r="L8">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
+      <c r="I10">
+        <v>10.9</v>
+      </c>
+      <c r="J10">
+        <v>8.4</v>
+      </c>
+      <c r="K10">
+        <v>1.8</v>
+      </c>
+      <c r="L10">
+        <v>3.9</v>
+      </c>
+      <c r="M10">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>60.3</v>
-      </c>
-      <c r="C9">
-        <v>28.2</v>
-      </c>
-      <c r="D9">
-        <v>77.60000000000001</v>
-      </c>
-      <c r="E9">
-        <v>53</v>
-      </c>
-      <c r="F9">
-        <v>51.5</v>
-      </c>
-      <c r="G9">
-        <v>29.6</v>
-      </c>
-      <c r="H9">
-        <v>59.3</v>
-      </c>
-      <c r="I9">
-        <v>59.5</v>
-      </c>
-      <c r="J9">
-        <v>38.4</v>
-      </c>
-      <c r="K9">
-        <v>18.7</v>
-      </c>
-      <c r="L9">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1.7</v>
-      </c>
-      <c r="C10">
-        <v>3.9</v>
-      </c>
-      <c r="D10">
-        <v>2.5</v>
-      </c>
-      <c r="E10">
-        <v>20.3</v>
-      </c>
-      <c r="F10">
-        <v>38</v>
-      </c>
-      <c r="G10">
+      <c r="B11">
+        <v>61.6</v>
+      </c>
+      <c r="C11">
+        <v>31.7</v>
+      </c>
+      <c r="D11">
+        <v>79.2</v>
+      </c>
+      <c r="E11">
+        <v>54.2</v>
+      </c>
+      <c r="F11">
+        <v>45.7</v>
+      </c>
+      <c r="G11">
         <v>31.3</v>
       </c>
-      <c r="H10">
-        <v>24.4</v>
-      </c>
-      <c r="I10">
-        <v>21</v>
-      </c>
-      <c r="J10">
-        <v>10.3</v>
-      </c>
-      <c r="K10">
-        <v>22.6</v>
-      </c>
-      <c r="L10">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>79</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>3.4</v>
-      </c>
-      <c r="E11">
-        <v>28</v>
-      </c>
-      <c r="F11">
-        <v>11.8</v>
-      </c>
-      <c r="G11">
-        <v>38.2</v>
-      </c>
       <c r="H11">
-        <v>26.8</v>
+        <v>60.6</v>
       </c>
       <c r="I11">
-        <v>10.6</v>
+        <v>62.1</v>
       </c>
       <c r="J11">
-        <v>9.300000000000001</v>
+        <v>35.2</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>20.1</v>
       </c>
       <c r="L11">
-        <v>0.7000000000000001</v>
+        <v>6.800000000000001</v>
+      </c>
+      <c r="M11">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
@@ -2344,45 +2395,45 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D2">
-        <v>128.448</v>
+        <v>123.7818181818182</v>
       </c>
       <c r="E2">
-        <v>1284.48</v>
+        <v>1361.6</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2399,22 +2450,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D3">
-        <v>119.848</v>
+        <v>125.5181818181818</v>
       </c>
       <c r="E3">
-        <v>1198.48</v>
+        <v>1380.7</v>
       </c>
       <c r="F3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2428,22 +2479,22 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D4">
-        <v>122.912</v>
+        <v>115.9927272727273</v>
       </c>
       <c r="E4">
-        <v>1229.12</v>
+        <v>1275.92</v>
       </c>
       <c r="F4">
-        <v>98.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2452,7 +2503,7 @@
         <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2463,16 +2514,16 @@
         <v>57</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D5">
-        <v>128.35</v>
+        <v>125.4090909090909</v>
       </c>
       <c r="E5">
-        <v>1283.5</v>
+        <v>1379.5</v>
       </c>
       <c r="F5">
-        <v>95.19999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2489,19 +2540,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D6">
-        <v>113.336</v>
+        <v>113.7981818181818</v>
       </c>
       <c r="E6">
-        <v>1133.36</v>
+        <v>1251.78</v>
       </c>
       <c r="F6">
-        <v>93</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2510,7 +2561,7 @@
         <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2518,86 +2569,86 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D7">
-        <v>107.306</v>
+        <v>108.8781818181818</v>
       </c>
       <c r="E7">
-        <v>1073.06</v>
+        <v>1197.66</v>
       </c>
       <c r="F7">
-        <v>63.4</v>
+        <v>52.3</v>
       </c>
       <c r="G7">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="s">
         <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D8">
-        <v>105.11</v>
+        <v>117.1763636363636</v>
       </c>
       <c r="E8">
-        <v>1051.1</v>
+        <v>1288.94</v>
       </c>
       <c r="F8">
-        <v>18.1</v>
+        <v>28.2</v>
       </c>
       <c r="G8">
-        <v>9.4</v>
+        <v>6.1</v>
       </c>
       <c r="H8" t="s">
         <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D9">
-        <v>115.584</v>
+        <v>104.6218181818182</v>
       </c>
       <c r="E9">
-        <v>1155.84</v>
+        <v>1150.84</v>
       </c>
       <c r="F9">
-        <v>16.2</v>
+        <v>25.6</v>
       </c>
       <c r="G9">
-        <v>10.4</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="s">
         <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2605,28 +2656,28 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D10">
-        <v>117.086</v>
+        <v>114.2818181818182</v>
       </c>
       <c r="E10">
-        <v>1170.86</v>
+        <v>1257.1</v>
       </c>
       <c r="F10">
-        <v>14.5</v>
+        <v>3.8</v>
       </c>
       <c r="G10">
-        <v>10.7</v>
+        <v>38.9</v>
       </c>
       <c r="H10" t="s">
         <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2637,19 +2688,19 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D11">
-        <v>108.622</v>
+        <v>110.5054545454545</v>
       </c>
       <c r="E11">
-        <v>1086.22</v>
+        <v>1215.56</v>
       </c>
       <c r="F11">
-        <v>0.8999999999999999</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>68.10000000000001</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
         <v>70</v>
@@ -2699,10 +2750,10 @@
         <v>81</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>91</v>
@@ -2719,10 +2770,10 @@
         <v>82</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>92</v>
@@ -2733,19 +2784,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>83</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2753,7 +2804,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>84</v>
@@ -2762,10 +2813,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2773,19 +2824,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2793,19 +2844,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
       </c>
       <c r="D7">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2819,13 +2870,13 @@
         <v>87</v>
       </c>
       <c r="D8">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2833,19 +2884,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
       </c>
       <c r="D9">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2853,19 +2904,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
       </c>
       <c r="D10">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2873,19 +2924,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>90</v>
       </c>
       <c r="D11">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2895,48 +2946,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2970,11 +3024,14 @@
       <c r="K2">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3008,37 +3065,40 @@
       <c r="K3">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>6</v>
@@ -3046,37 +3106,40 @@
       <c r="K4">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -3084,87 +3147,96 @@
       <c r="K5">
         <v>7</v>
       </c>
-      <c r="L5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>-2</v>
+      </c>
+      <c r="J6">
+        <v>-5</v>
+      </c>
+      <c r="K6">
+        <v>-8</v>
+      </c>
+      <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-1</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-2</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-10</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>-2</v>
-      </c>
-      <c r="J7">
+      <c r="L7">
         <v>-5</v>
       </c>
-      <c r="K7">
-        <v>-8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3198,122 +3270,134 @@
       <c r="K8">
         <v>-12</v>
       </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>-16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <v>-13</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>-13</v>
+      </c>
+      <c r="G9">
+        <v>-6</v>
+      </c>
+      <c r="H9">
+        <v>-8</v>
+      </c>
+      <c r="I9">
+        <v>-19</v>
+      </c>
+      <c r="J9">
+        <v>-13</v>
+      </c>
+      <c r="K9">
+        <v>-19</v>
+      </c>
+      <c r="L9">
+        <v>-17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-7</v>
+      </c>
+      <c r="H10">
+        <v>-12</v>
+      </c>
+      <c r="I10">
+        <v>-14</v>
+      </c>
+      <c r="J10">
+        <v>-23</v>
+      </c>
+      <c r="K10">
+        <v>-22</v>
+      </c>
+      <c r="L10">
+        <v>-17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>-2</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>-2</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>-1</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>-12</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <v>-13</v>
       </c>
-      <c r="L9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-2</v>
-      </c>
-      <c r="C10">
-        <v>-6</v>
-      </c>
-      <c r="D10">
-        <v>-13</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-13</v>
-      </c>
-      <c r="G10">
-        <v>-6</v>
-      </c>
-      <c r="H10">
-        <v>-8</v>
-      </c>
-      <c r="I10">
+      <c r="L11">
         <v>-19</v>
       </c>
-      <c r="J10">
-        <v>-13</v>
-      </c>
-      <c r="K10">
-        <v>-19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>-5</v>
-      </c>
-      <c r="C11">
-        <v>-5</v>
-      </c>
-      <c r="D11">
-        <v>-7</v>
-      </c>
-      <c r="E11">
-        <v>-7</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>-7</v>
-      </c>
-      <c r="H11">
-        <v>-12</v>
-      </c>
-      <c r="I11">
-        <v>-14</v>
-      </c>
-      <c r="J11">
-        <v>-23</v>
-      </c>
-      <c r="K11">
-        <v>-22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>92</v>
+      <c r="M11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3331,25 +3415,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3409,25 +3493,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>7</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>-17</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3435,25 +3519,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3461,25 +3545,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3487,25 +3571,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
         <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
       </c>
       <c r="G7">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3513,25 +3597,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3539,22 +3623,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9">
-        <v>-23</v>
+        <v>-2</v>
       </c>
       <c r="F9">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
@@ -3565,25 +3649,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>-6</v>
+        <v>-23</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3591,25 +3675,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>-6</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
       <c r="G11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="124">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -165,6 +166,57 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
+    <t>Kate Zacierka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Zacierka </t>
+  </si>
+  <si>
+    <t>Ayush Chivate</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
+    <t>James Breen</t>
+  </si>
+  <si>
+    <t>gianni alessio</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -207,19 +259,19 @@
     <t>3-8</t>
   </si>
   <si>
-    <t>8.9-5.1</t>
-  </si>
-  <si>
-    <t>10.8-3.1</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
+    <t>8.8-5.2</t>
+  </si>
+  <si>
+    <t>10.9-3.1</t>
+  </si>
+  <si>
+    <t>8.5-5.4</t>
+  </si>
+  <si>
+    <t>7.7-6.2</t>
+  </si>
+  <si>
+    <t>7.1-6.8</t>
   </si>
   <si>
     <t>6.4-7.5</t>
@@ -231,9 +283,6 @@
     <t>6.1-7.9</t>
   </si>
   <si>
-    <t>4.3-9.6</t>
-  </si>
-  <si>
     <t>4.4-9.6</t>
   </si>
   <si>
@@ -252,9 +301,6 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
     <t>4-10</t>
   </si>
   <si>
@@ -265,36 +311,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike Zacierka </t>
-  </si>
-  <si>
-    <t>James Breen</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Derek Alcavage</t>
-  </si>
-  <si>
-    <t>Gianpierre Lopez</t>
-  </si>
-  <si>
-    <t>gianni alessio</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t>Ayush Chivate</t>
-  </si>
-  <si>
-    <t>jack meehan</t>
-  </si>
-  <si>
-    <t>Kate Zacierka</t>
   </si>
   <si>
     <t>↓7</t>
@@ -1129,6 +1145,302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>-19</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>-17</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9">
+        <v>-14</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>-23</v>
+      </c>
+      <c r="F10">
+        <v>-12</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>-6</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1541,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="C2">
-        <v>52.7</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>22.7</v>
+        <v>25.3</v>
       </c>
       <c r="E2">
-        <v>13.3</v>
+        <v>15.4</v>
       </c>
       <c r="F2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1579,16 +1891,16 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>89.7</v>
+        <v>91</v>
       </c>
       <c r="C3">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="D3">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1617,25 +1929,25 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C4">
-        <v>20.9</v>
+        <v>26.2</v>
       </c>
       <c r="D4">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="E4">
-        <v>32.2</v>
+        <v>28.5</v>
       </c>
       <c r="F4">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H4">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1647,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1655,19 +1967,19 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="D5">
-        <v>35.3</v>
+        <v>34.2</v>
       </c>
       <c r="E5">
-        <v>28.3</v>
+        <v>30.8</v>
       </c>
       <c r="F5">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>5.7</v>
@@ -1676,7 +1988,7 @@
         <v>2.1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1685,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>97.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1696,25 +2008,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D6">
-        <v>9.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>16.6</v>
       </c>
       <c r="F6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>23.7</v>
+        <v>22.3</v>
       </c>
       <c r="H6">
-        <v>8.4</v>
+        <v>10.1</v>
       </c>
       <c r="I6">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1723,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>89.40000000000001</v>
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1737,31 +2049,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="F7">
-        <v>16.9</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>30.6</v>
+        <v>26.7</v>
       </c>
       <c r="H7">
-        <v>23.4</v>
+        <v>21.8</v>
       </c>
       <c r="I7">
-        <v>12.7</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L7">
-        <v>52.3</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1778,28 +2090,28 @@
         <v>0.1</v>
       </c>
       <c r="E8">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="F8">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="G8">
-        <v>14.7</v>
+        <v>15.6</v>
       </c>
       <c r="H8">
-        <v>22.7</v>
+        <v>25.3</v>
       </c>
       <c r="I8">
-        <v>24.3</v>
+        <v>22.5</v>
       </c>
       <c r="J8">
-        <v>18.7</v>
+        <v>16.2</v>
       </c>
       <c r="K8">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="L8">
-        <v>28.2</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1813,36 +2125,36 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E9">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="F9">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="G9">
-        <v>15.9</v>
+        <v>19.1</v>
       </c>
       <c r="H9">
-        <v>29.1</v>
+        <v>26.2</v>
       </c>
       <c r="I9">
-        <v>27.6</v>
+        <v>28.8</v>
       </c>
       <c r="J9">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L9">
-        <v>25.6</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1857,30 +2169,30 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H10">
-        <v>9.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="I10">
-        <v>18</v>
+        <v>11.6</v>
       </c>
       <c r="J10">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="K10">
-        <v>38.9</v>
+        <v>48.2</v>
       </c>
       <c r="L10">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1895,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H11">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="I11">
-        <v>15.2</v>
+        <v>18</v>
       </c>
       <c r="J11">
-        <v>29</v>
+        <v>32.9</v>
       </c>
       <c r="K11">
-        <v>48</v>
+        <v>38.1</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -1969,40 +2281,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>96.39999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="E2">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F2">
-        <v>87.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>83.2</v>
+        <v>99.7</v>
       </c>
       <c r="H2">
-        <v>91.7</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>79.10000000000001</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>92.7</v>
+        <v>100</v>
       </c>
       <c r="K2">
-        <v>97.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="L2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2010,43 +2322,43 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>96.5</v>
+        <v>97.7</v>
       </c>
       <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E3">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F3">
+        <v>88.2</v>
+      </c>
+      <c r="G3">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="H3">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="I3">
+        <v>78.7</v>
+      </c>
+      <c r="J3">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="K3">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="L3">
+        <v>99.5</v>
+      </c>
+      <c r="M3">
         <v>99.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E3">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2054,40 +2366,40 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="C4">
-        <v>80.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D4">
-        <v>53.5</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="E4">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4">
-        <v>72</v>
+        <v>69.3</v>
       </c>
       <c r="G4">
-        <v>88.5</v>
+        <v>90</v>
       </c>
       <c r="H4">
-        <v>68</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="I4">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="J4">
-        <v>95.3</v>
+        <v>94.5</v>
       </c>
       <c r="K4">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="L4">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2095,40 +2407,40 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="C5">
-        <v>76.8</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>88.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="E5">
-        <v>95.8</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="F5">
-        <v>92</v>
+        <v>92.5</v>
       </c>
       <c r="G5">
-        <v>97.39999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="H5">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="I5">
+        <v>90.10000000000001</v>
+      </c>
+      <c r="J5">
+        <v>83</v>
+      </c>
+      <c r="K5">
         <v>95.09999999999999</v>
       </c>
-      <c r="I5">
-        <v>90.60000000000001</v>
-      </c>
-      <c r="J5">
-        <v>81.89999999999999</v>
-      </c>
-      <c r="K5">
-        <v>95.19999999999999</v>
-      </c>
       <c r="L5">
-        <v>96.2</v>
+        <v>97.2</v>
       </c>
       <c r="M5">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2136,40 +2448,40 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>75.5</v>
       </c>
       <c r="C6">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="D6">
         <v>98.40000000000001</v>
       </c>
-      <c r="D6">
-        <v>98.8</v>
-      </c>
       <c r="E6">
-        <v>89.3</v>
+        <v>92.7</v>
       </c>
       <c r="F6">
-        <v>93.89999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="G6">
-        <v>95.89999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H6">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="I6">
-        <v>85.5</v>
+        <v>86</v>
       </c>
       <c r="J6">
-        <v>76</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K6">
-        <v>91.90000000000001</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="L6">
-        <v>84.09999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="M6">
-        <v>88.7</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2177,40 +2489,40 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>4.2</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>16.4</v>
+        <v>13.6</v>
       </c>
       <c r="E7">
-        <v>16.2</v>
+        <v>17.2</v>
       </c>
       <c r="F7">
-        <v>40.1</v>
+        <v>41.3</v>
       </c>
       <c r="G7">
-        <v>23.8</v>
+        <v>22.4</v>
       </c>
       <c r="H7">
-        <v>36.6</v>
+        <v>38.1</v>
       </c>
       <c r="I7">
-        <v>53.8</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J7">
-        <v>66.8</v>
+        <v>66.3</v>
       </c>
       <c r="K7">
-        <v>51.3</v>
+        <v>55.8</v>
       </c>
       <c r="L7">
-        <v>46.5</v>
+        <v>49.7</v>
       </c>
       <c r="M7">
-        <v>50.2</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2218,40 +2530,40 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>5.1</v>
       </c>
       <c r="D8">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="E8">
-        <v>17.3</v>
+        <v>21.2</v>
       </c>
       <c r="F8">
-        <v>35.5</v>
+        <v>36.5</v>
       </c>
       <c r="G8">
-        <v>29.5</v>
+        <v>34.9</v>
       </c>
       <c r="H8">
-        <v>22.4</v>
+        <v>21.7</v>
       </c>
       <c r="I8">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="J8">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="K8">
-        <v>23.2</v>
+        <v>21.5</v>
       </c>
       <c r="L8">
-        <v>34.3</v>
+        <v>31.4</v>
       </c>
       <c r="M8">
-        <v>30.5</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2259,122 +2571,122 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>83.5</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="C9">
-        <v>96.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="D9">
-        <v>59.4</v>
+        <v>61.7</v>
       </c>
       <c r="E9">
-        <v>29.3</v>
+        <v>26.8</v>
       </c>
       <c r="F9">
-        <v>17.5</v>
+        <v>14.8</v>
       </c>
       <c r="G9">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="H9">
-        <v>4.3</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="I9">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="J9">
-        <v>33.1</v>
+        <v>31.5</v>
       </c>
       <c r="K9">
-        <v>19.8</v>
+        <v>20.8</v>
       </c>
       <c r="L9">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="M9">
-        <v>26.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>79.90000000000001</v>
+        <v>61.6</v>
       </c>
       <c r="C10">
-        <v>10.8</v>
+        <v>32.2</v>
       </c>
       <c r="D10">
-        <v>3.6</v>
+        <v>77.7</v>
       </c>
       <c r="E10">
-        <v>26.4</v>
+        <v>54.3</v>
       </c>
       <c r="F10">
-        <v>15.4</v>
+        <v>48.7</v>
       </c>
       <c r="G10">
-        <v>41</v>
+        <v>32.8</v>
       </c>
       <c r="H10">
-        <v>25.5</v>
+        <v>59.4</v>
       </c>
       <c r="I10">
-        <v>10.9</v>
+        <v>62.5</v>
       </c>
       <c r="J10">
-        <v>8.4</v>
+        <v>37.1</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>17.6</v>
       </c>
       <c r="L10">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>61.6</v>
+        <v>78</v>
       </c>
       <c r="C11">
-        <v>31.7</v>
+        <v>12.7</v>
       </c>
       <c r="D11">
-        <v>79.2</v>
+        <v>2.9</v>
       </c>
       <c r="E11">
-        <v>54.2</v>
+        <v>22.4</v>
       </c>
       <c r="F11">
-        <v>45.7</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>31.3</v>
+        <v>33.4</v>
       </c>
       <c r="H11">
-        <v>60.6</v>
+        <v>25.7</v>
       </c>
       <c r="I11">
-        <v>62.1</v>
+        <v>9.1</v>
       </c>
       <c r="J11">
-        <v>35.2</v>
+        <v>7.5</v>
       </c>
       <c r="K11">
-        <v>20.1</v>
+        <v>2.7</v>
       </c>
       <c r="L11">
-        <v>6.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -2391,322 +2703,319 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>113.8</v>
+      </c>
+      <c r="E2">
+        <v>0.545</v>
+      </c>
+      <c r="F2">
+        <v>124.9</v>
+      </c>
+      <c r="G2">
+        <v>0.667</v>
+      </c>
+      <c r="H2">
+        <v>16.3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C2">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D2">
-        <v>123.7818181818182</v>
-      </c>
-      <c r="E2">
-        <v>1361.6</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D3">
+        <v>114.28</v>
+      </c>
+      <c r="E3">
+        <v>0.273</v>
+      </c>
+      <c r="F3">
+        <v>119.56</v>
+      </c>
+      <c r="G3">
+        <v>0.606</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>125.41</v>
+      </c>
+      <c r="E4">
+        <v>0.545</v>
+      </c>
+      <c r="F4">
+        <v>113.83</v>
+      </c>
+      <c r="G4">
+        <v>0.394</v>
+      </c>
+      <c r="H4">
+        <v>2.3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>110.51</v>
+      </c>
+      <c r="E5">
+        <v>0.273</v>
+      </c>
+      <c r="F5">
+        <v>116.76</v>
+      </c>
+      <c r="G5">
+        <v>0.545</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>104.62</v>
+      </c>
+      <c r="E6">
+        <v>0.455</v>
+      </c>
+      <c r="F6">
+        <v>119.39</v>
+      </c>
+      <c r="G6">
+        <v>0.636</v>
+      </c>
+      <c r="H6">
+        <v>1.3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>108.88</v>
+      </c>
+      <c r="E7">
+        <v>0.455</v>
+      </c>
+      <c r="F7">
+        <v>110.77</v>
+      </c>
+      <c r="G7">
+        <v>0.364</v>
+      </c>
+      <c r="H7">
+        <v>-1.7</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>117.18</v>
+      </c>
+      <c r="E8">
+        <v>0.364</v>
+      </c>
+      <c r="F8">
+        <v>116.19</v>
+      </c>
+      <c r="G8">
+        <v>0.424</v>
+      </c>
+      <c r="H8">
+        <v>-2.7</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="I2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="D9">
+        <v>115.99</v>
+      </c>
+      <c r="E9">
+        <v>0.636</v>
+      </c>
+      <c r="F9">
+        <v>116.19</v>
+      </c>
+      <c r="G9">
+        <v>0.394</v>
+      </c>
+      <c r="H9">
+        <v>-7.3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>123.78</v>
+      </c>
+      <c r="E10">
+        <v>0.636</v>
+      </c>
+      <c r="F10">
+        <v>111.47</v>
+      </c>
+      <c r="G10">
+        <v>0.545</v>
+      </c>
+      <c r="H10">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="D3">
-        <v>125.5181818181818</v>
-      </c>
-      <c r="E3">
-        <v>1380.7</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D4">
-        <v>115.9927272727273</v>
-      </c>
-      <c r="E4">
-        <v>1275.92</v>
-      </c>
-      <c r="F4">
-        <v>99.8</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="I4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D5">
-        <v>125.4090909090909</v>
-      </c>
-      <c r="E5">
-        <v>1379.5</v>
-      </c>
-      <c r="F5">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D6">
-        <v>113.7981818181818</v>
-      </c>
-      <c r="E6">
-        <v>1251.78</v>
-      </c>
-      <c r="F6">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="D11">
+        <v>125.52</v>
+      </c>
+      <c r="E11">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="F11">
+        <v>110.9</v>
+      </c>
+      <c r="G11">
+        <v>0.424</v>
+      </c>
+      <c r="H11">
+        <v>-13</v>
+      </c>
+      <c r="I11">
         <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D7">
-        <v>108.8781818181818</v>
-      </c>
-      <c r="E7">
-        <v>1197.66</v>
-      </c>
-      <c r="F7">
-        <v>52.3</v>
-      </c>
-      <c r="G7">
-        <v>3.6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D8">
-        <v>117.1763636363636</v>
-      </c>
-      <c r="E8">
-        <v>1288.94</v>
-      </c>
-      <c r="F8">
-        <v>28.2</v>
-      </c>
-      <c r="G8">
-        <v>6.1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D9">
-        <v>104.6218181818182</v>
-      </c>
-      <c r="E9">
-        <v>1150.84</v>
-      </c>
-      <c r="F9">
-        <v>25.6</v>
-      </c>
-      <c r="G9">
-        <v>3.4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D10">
-        <v>114.2818181818182</v>
-      </c>
-      <c r="E10">
-        <v>1257.1</v>
-      </c>
-      <c r="F10">
-        <v>3.8</v>
-      </c>
-      <c r="G10">
-        <v>38.9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D11">
-        <v>110.5054545454545</v>
-      </c>
-      <c r="E11">
-        <v>1215.56</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>48</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2715,6 +3024,338 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D2">
+        <v>123.7818181818182</v>
+      </c>
+      <c r="E2">
+        <v>1361.6</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D3">
+        <v>125.5181818181818</v>
+      </c>
+      <c r="E3">
+        <v>1380.7</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D4">
+        <v>115.9927272727273</v>
+      </c>
+      <c r="E4">
+        <v>1275.92</v>
+      </c>
+      <c r="F4">
+        <v>99.3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D5">
+        <v>125.4090909090909</v>
+      </c>
+      <c r="E5">
+        <v>1379.5</v>
+      </c>
+      <c r="F5">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D6">
+        <v>113.7981818181818</v>
+      </c>
+      <c r="E6">
+        <v>1251.78</v>
+      </c>
+      <c r="F6">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D7">
+        <v>108.8781818181818</v>
+      </c>
+      <c r="E7">
+        <v>1197.66</v>
+      </c>
+      <c r="F7">
+        <v>50.1</v>
+      </c>
+      <c r="G7">
+        <v>3.4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D8">
+        <v>117.1763636363636</v>
+      </c>
+      <c r="E8">
+        <v>1288.94</v>
+      </c>
+      <c r="F8">
+        <v>28.6</v>
+      </c>
+      <c r="G8">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D9">
+        <v>104.6218181818182</v>
+      </c>
+      <c r="E9">
+        <v>1150.84</v>
+      </c>
+      <c r="F9">
+        <v>28.5</v>
+      </c>
+      <c r="G9">
+        <v>2.9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D10">
+        <v>110.5054545454545</v>
+      </c>
+      <c r="E10">
+        <v>1215.56</v>
+      </c>
+      <c r="F10">
+        <v>4.2</v>
+      </c>
+      <c r="G10">
+        <v>48.2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D11">
+        <v>114.2818181818182</v>
+      </c>
+      <c r="E11">
+        <v>1257.1</v>
+      </c>
+      <c r="F11">
+        <v>3.6</v>
+      </c>
+      <c r="G11">
+        <v>38.1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2727,16 +3368,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2747,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>28</v>
@@ -2756,7 +3397,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2767,7 +3408,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>28</v>
@@ -2776,7 +3417,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2787,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -2796,7 +3437,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2807,7 +3448,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -2816,7 +3457,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2827,7 +3468,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>-4</v>
@@ -2836,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2847,7 +3488,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>-5</v>
@@ -2856,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2867,7 +3508,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>-16</v>
@@ -2876,7 +3517,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2887,7 +3528,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>-17</v>
@@ -2896,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2907,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>-17</v>
@@ -2916,7 +3557,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2927,7 +3568,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>-19</v>
@@ -2936,7 +3577,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2944,7 +3585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -2954,40 +3595,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3028,7 +3669,7 @@
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3069,7 +3710,7 @@
         <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3110,7 +3751,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3151,7 +3792,7 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3192,7 +3833,7 @@
         <v>-4</v>
       </c>
       <c r="M6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3233,7 +3874,7 @@
         <v>-5</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3274,7 +3915,7 @@
         <v>-16</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3315,7 +3956,7 @@
         <v>-17</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3356,7 +3997,7 @@
         <v>-17</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3397,303 +4038,7 @@
         <v>-19</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>-19</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>-17</v>
-      </c>
-      <c r="G4">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>-5</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
-      <c r="F9">
-        <v>-14</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>-23</v>
-      </c>
-      <c r="F10">
-        <v>-12</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>-6</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="125">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -172,7 +172,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -259,31 +259,34 @@
     <t>3-8</t>
   </si>
   <si>
-    <t>8.8-5.2</t>
-  </si>
-  <si>
-    <t>10.9-3.1</t>
-  </si>
-  <si>
-    <t>8.5-5.4</t>
-  </si>
-  <si>
-    <t>7.7-6.2</t>
-  </si>
-  <si>
-    <t>7.1-6.8</t>
-  </si>
-  <si>
-    <t>6.4-7.5</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
+    <t>8.8-5.1</t>
+  </si>
+  <si>
+    <t>10.8-3.2</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>5.5-8.4</t>
   </si>
   <si>
     <t>6.1-7.9</t>
   </si>
   <si>
     <t>4.4-9.6</t>
+  </si>
+  <si>
+    <t>4.3-9.6</t>
   </si>
   <si>
     <t>9-5</t>
@@ -1155,25 +1158,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1853,22 +1856,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>25.3</v>
+        <v>24.4</v>
       </c>
       <c r="E2">
-        <v>15.4</v>
+        <v>13.5</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="G2">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1891,16 +1894,16 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>91</v>
+        <v>89.7</v>
       </c>
       <c r="C3">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1932,22 +1935,22 @@
         <v>2.5</v>
       </c>
       <c r="C4">
-        <v>26.2</v>
+        <v>23.7</v>
       </c>
       <c r="D4">
         <v>29.5</v>
       </c>
       <c r="E4">
-        <v>28.5</v>
+        <v>30.7</v>
       </c>
       <c r="F4">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="G4">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1959,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1967,28 +1970,28 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>14.6</v>
+        <v>16.1</v>
       </c>
       <c r="D5">
-        <v>34.2</v>
+        <v>31.9</v>
       </c>
       <c r="E5">
-        <v>30.8</v>
+        <v>28.7</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>14.3</v>
       </c>
       <c r="G5">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="H5">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="I5">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1997,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>97.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2005,37 +2008,37 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D6">
-        <v>8.9</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>16.6</v>
+        <v>18.8</v>
       </c>
       <c r="F6">
-        <v>38</v>
+        <v>34.3</v>
       </c>
       <c r="G6">
-        <v>22.3</v>
+        <v>21.8</v>
       </c>
       <c r="H6">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="I6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>88.09999999999999</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2049,31 +2052,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="G7">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="H7">
-        <v>21.8</v>
+        <v>22.8</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="J7">
         <v>7.7</v>
       </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>50.1</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2087,31 +2090,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E8">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="G8">
-        <v>15.6</v>
+        <v>19.3</v>
       </c>
       <c r="H8">
-        <v>25.3</v>
+        <v>23.7</v>
       </c>
       <c r="I8">
-        <v>22.5</v>
+        <v>21.3</v>
       </c>
       <c r="J8">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="K8">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="L8">
-        <v>28.6</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2128,33 +2131,33 @@
         <v>0.4</v>
       </c>
       <c r="E9">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="F9">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="G9">
-        <v>19.1</v>
+        <v>16.7</v>
       </c>
       <c r="H9">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="I9">
-        <v>28.8</v>
+        <v>29.3</v>
       </c>
       <c r="J9">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="K9">
         <v>2.9</v>
       </c>
       <c r="L9">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2169,30 +2172,30 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G10">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H10">
-        <v>6.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I10">
-        <v>11.6</v>
+        <v>16</v>
       </c>
       <c r="J10">
-        <v>29.6</v>
+        <v>34.9</v>
       </c>
       <c r="K10">
-        <v>48.2</v>
+        <v>36.5</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2207,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H11">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J11">
-        <v>32.9</v>
+        <v>27.2</v>
       </c>
       <c r="K11">
-        <v>38.1</v>
+        <v>50.2</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2281,40 +2284,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>97.09999999999999</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D2">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="E2">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G2">
-        <v>99.7</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>79.5</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2322,43 +2325,43 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C3">
+        <v>99.8</v>
+      </c>
+      <c r="D3">
+        <v>99.2</v>
+      </c>
+      <c r="E3">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G3">
+        <v>99.7</v>
+      </c>
+      <c r="H3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="D3">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="E3">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F3">
-        <v>88.2</v>
-      </c>
-      <c r="G3">
-        <v>81.39999999999999</v>
-      </c>
-      <c r="H3">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="I3">
-        <v>78.7</v>
-      </c>
       <c r="J3">
-        <v>92.80000000000001</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>97.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="L3">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2366,40 +2369,40 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="C4">
-        <v>80.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>56.39999999999999</v>
       </c>
       <c r="E4">
-        <v>71</v>
+        <v>74.8</v>
       </c>
       <c r="F4">
-        <v>69.3</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="G4">
-        <v>90</v>
+        <v>87.8</v>
       </c>
       <c r="H4">
-        <v>69.69999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="I4">
-        <v>85.5</v>
+        <v>86.3</v>
       </c>
       <c r="J4">
-        <v>94.5</v>
+        <v>93.8</v>
       </c>
       <c r="K4">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L4">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
       <c r="M4">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2407,40 +2410,40 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>95.39999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F5">
-        <v>92.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="G5">
-        <v>97.7</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="H5">
-        <v>94.89999999999999</v>
+        <v>95</v>
       </c>
       <c r="I5">
-        <v>90.10000000000001</v>
+        <v>90</v>
       </c>
       <c r="J5">
-        <v>83</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="K5">
         <v>95.09999999999999</v>
       </c>
       <c r="L5">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="M5">
-        <v>97</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2448,40 +2451,40 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>75.5</v>
+        <v>76.7</v>
       </c>
       <c r="C6">
-        <v>97.89999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D6">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="E6">
-        <v>92.7</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="F6">
-        <v>93.7</v>
+        <v>95.3</v>
       </c>
       <c r="G6">
-        <v>97.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="H6">
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="I6">
-        <v>86</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="J6">
-        <v>76.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K6">
-        <v>89.60000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="L6">
-        <v>81.5</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="M6">
-        <v>88.3</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2489,40 +2492,40 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>4.399999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>13.6</v>
+        <v>14.7</v>
       </c>
       <c r="E7">
-        <v>17.2</v>
+        <v>15.4</v>
       </c>
       <c r="F7">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="G7">
-        <v>22.4</v>
+        <v>23.8</v>
       </c>
       <c r="H7">
-        <v>38.1</v>
+        <v>39.4</v>
       </c>
       <c r="I7">
-        <v>55.00000000000001</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="J7">
-        <v>66.3</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="K7">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="L7">
-        <v>49.7</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>48.8</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2530,40 +2533,40 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="C8">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="D8">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="E8">
-        <v>21.2</v>
+        <v>18.6</v>
       </c>
       <c r="F8">
-        <v>36.5</v>
+        <v>35.9</v>
       </c>
       <c r="G8">
-        <v>34.9</v>
+        <v>32.1</v>
       </c>
       <c r="H8">
-        <v>21.7</v>
+        <v>24.3</v>
       </c>
       <c r="I8">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="J8">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="L8">
-        <v>31.4</v>
+        <v>34.3</v>
       </c>
       <c r="M8">
-        <v>31.6</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2571,40 +2574,40 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>83.39999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="C9">
-        <v>96.2</v>
+        <v>96.7</v>
       </c>
       <c r="D9">
-        <v>61.7</v>
+        <v>60.9</v>
       </c>
       <c r="E9">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="F9">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="G9">
-        <v>10.1</v>
+        <v>12.4</v>
       </c>
       <c r="H9">
-        <v>5.600000000000001</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="I9">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="J9">
-        <v>31.5</v>
+        <v>36.7</v>
       </c>
       <c r="K9">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
       <c r="L9">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2612,37 +2615,37 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>61.6</v>
+        <v>59.5</v>
       </c>
       <c r="C10">
-        <v>32.2</v>
+        <v>29.6</v>
       </c>
       <c r="D10">
-        <v>77.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E10">
-        <v>54.3</v>
+        <v>52.6</v>
       </c>
       <c r="F10">
-        <v>48.7</v>
+        <v>47.8</v>
       </c>
       <c r="G10">
-        <v>32.8</v>
+        <v>34.1</v>
       </c>
       <c r="H10">
-        <v>59.4</v>
+        <v>59.9</v>
       </c>
       <c r="I10">
-        <v>62.5</v>
+        <v>63.3</v>
       </c>
       <c r="J10">
-        <v>37.1</v>
+        <v>36.1</v>
       </c>
       <c r="K10">
-        <v>17.6</v>
+        <v>19.9</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="M10">
         <v>3.8</v>
@@ -2653,40 +2656,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="C11">
-        <v>12.7</v>
+        <v>11.7</v>
       </c>
       <c r="D11">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E11">
-        <v>22.4</v>
+        <v>24.8</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>13.7</v>
       </c>
       <c r="G11">
-        <v>33.4</v>
+        <v>36.5</v>
       </c>
       <c r="H11">
-        <v>25.7</v>
+        <v>22.7</v>
       </c>
       <c r="I11">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J11">
-        <v>7.5</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="K11">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="L11">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="M11">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
@@ -2741,8 +2744,8 @@
       <c r="D2">
         <v>113.8</v>
       </c>
-      <c r="E2">
-        <v>0.545</v>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2">
         <v>124.9</v>
@@ -2770,8 +2773,8 @@
       <c r="D3">
         <v>114.28</v>
       </c>
-      <c r="E3">
-        <v>0.273</v>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
       <c r="F3">
         <v>119.56</v>
@@ -2799,8 +2802,8 @@
       <c r="D4">
         <v>125.41</v>
       </c>
-      <c r="E4">
-        <v>0.545</v>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
       <c r="F4">
         <v>113.83</v>
@@ -2828,8 +2831,8 @@
       <c r="D5">
         <v>110.51</v>
       </c>
-      <c r="E5">
-        <v>0.273</v>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
       <c r="F5">
         <v>116.76</v>
@@ -2857,8 +2860,8 @@
       <c r="D6">
         <v>104.62</v>
       </c>
-      <c r="E6">
-        <v>0.455</v>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
       <c r="F6">
         <v>119.39</v>
@@ -2886,8 +2889,8 @@
       <c r="D7">
         <v>108.88</v>
       </c>
-      <c r="E7">
-        <v>0.455</v>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
         <v>110.77</v>
@@ -2915,8 +2918,8 @@
       <c r="D8">
         <v>117.18</v>
       </c>
-      <c r="E8">
-        <v>0.364</v>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
       <c r="F8">
         <v>116.19</v>
@@ -2944,8 +2947,8 @@
       <c r="D9">
         <v>115.99</v>
       </c>
-      <c r="E9">
-        <v>0.636</v>
+      <c r="E9" t="s">
+        <v>10</v>
       </c>
       <c r="F9">
         <v>116.19</v>
@@ -2973,8 +2976,8 @@
       <c r="D10">
         <v>123.78</v>
       </c>
-      <c r="E10">
-        <v>0.636</v>
+      <c r="E10" t="s">
+        <v>10</v>
       </c>
       <c r="F10">
         <v>111.47</v>
@@ -3002,8 +3005,8 @@
       <c r="D11">
         <v>125.52</v>
       </c>
-      <c r="E11">
-        <v>0.8179999999999999</v>
+      <c r="E11" t="s">
+        <v>16</v>
       </c>
       <c r="F11">
         <v>110.9</v>
@@ -3086,7 +3089,7 @@
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3115,7 +3118,7 @@
         <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3135,7 +3138,7 @@
         <v>1275.92</v>
       </c>
       <c r="F4">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3144,7 +3147,7 @@
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3164,7 +3167,7 @@
         <v>1379.5</v>
       </c>
       <c r="F5">
-        <v>97.59999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3173,7 +3176,7 @@
         <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3193,7 +3196,7 @@
         <v>1251.78</v>
       </c>
       <c r="F6">
-        <v>88.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3202,7 +3205,7 @@
         <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3222,16 +3225,16 @@
         <v>1197.66</v>
       </c>
       <c r="F7">
-        <v>50.1</v>
+        <v>49.1</v>
       </c>
       <c r="G7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="s">
         <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3251,16 +3254,16 @@
         <v>1288.94</v>
       </c>
       <c r="F8">
-        <v>28.6</v>
+        <v>31.5</v>
       </c>
       <c r="G8">
-        <v>7.399999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3280,7 +3283,7 @@
         <v>1150.84</v>
       </c>
       <c r="F9">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
       <c r="G9">
         <v>2.9</v>
@@ -3289,12 +3292,12 @@
         <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -3303,27 +3306,27 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="D10">
-        <v>110.5054545454545</v>
+        <v>114.2818181818182</v>
       </c>
       <c r="E10">
-        <v>1215.56</v>
+        <v>1257.1</v>
       </c>
       <c r="F10">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="G10">
-        <v>48.2</v>
+        <v>36.5</v>
       </c>
       <c r="H10" t="s">
         <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -3332,22 +3335,22 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="D11">
-        <v>114.2818181818182</v>
+        <v>110.5054545454545</v>
       </c>
       <c r="E11">
-        <v>1257.1</v>
+        <v>1215.56</v>
       </c>
       <c r="F11">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>38.1</v>
+        <v>50.2</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3368,16 +3371,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3397,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3417,7 +3420,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3437,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3457,7 +3460,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3477,7 +3480,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3497,7 +3500,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3517,7 +3520,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3537,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3557,7 +3560,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3577,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3595,40 +3598,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3669,7 +3672,7 @@
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3710,7 +3713,7 @@
         <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3751,7 +3754,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3792,7 +3795,7 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3833,7 +3836,7 @@
         <v>-4</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3874,7 +3877,7 @@
         <v>-5</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3915,7 +3918,7 @@
         <v>-16</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3956,7 +3959,7 @@
         <v>-17</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3997,7 +4000,7 @@
         <v>-17</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4038,7 +4041,7 @@
         <v>-19</v>
       </c>
       <c r="M11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="126">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -55,28 +55,31 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -166,6 +169,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -190,33 +196,33 @@
     <t>Gianpierre Lopez</t>
   </si>
   <si>
+    <t xml:space="preserve">Mike Zacierka </t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>James Breen</t>
+  </si>
+  <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
     <t>Kate Zacierka</t>
   </si>
   <si>
-    <t xml:space="preserve">Mike Zacierka </t>
+    <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>Ayush Chivate</t>
   </si>
   <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t>jack meehan</t>
-  </si>
-  <si>
-    <t>James Breen</t>
+    <t>Derek Alcavage</t>
   </si>
   <si>
     <t>gianni alessio</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Derek Alcavage</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -241,67 +247,70 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>8.8-5.1</t>
-  </si>
-  <si>
-    <t>10.8-3.2</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>5.5-8.4</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>4.4-9.6</t>
-  </si>
-  <si>
-    <t>4.3-9.6</t>
-  </si>
-  <si>
-    <t>9-5</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>9.3-4.7</t>
+  </si>
+  <si>
+    <t>8.2-5.8</t>
+  </si>
+  <si>
+    <t>11.2-2.8</t>
+  </si>
+  <si>
+    <t>7.9-6.0</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
+    <t>6.9-7.0</t>
+  </si>
+  <si>
+    <t>4.9-9.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>5.6-8.4</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
   </si>
   <si>
     <t>11-3</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>6-8</t>
+    <t>5-9</t>
   </si>
   <si>
     <t>4-10</t>
@@ -316,34 +325,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓2</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -801,10 +804,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -816,16 +819,16 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -848,16 +851,16 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -871,19 +874,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -892,10 +895,10 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -909,28 +912,28 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -950,13 +953,13 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -973,28 +976,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1008,31 +1011,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -1043,13 +1046,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1058,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1070,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1081,28 +1084,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -1113,13 +1116,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1128,19 +1131,19 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1158,25 +1161,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1210,25 +1213,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>-17</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1236,25 +1239,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1262,25 +1265,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>-17</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1288,25 +1291,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1314,25 +1317,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1340,25 +1343,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8">
         <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
       </c>
       <c r="G8">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1366,25 +1369,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1392,22 +1395,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10">
-        <v>-23</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -1418,25 +1421,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>-6</v>
+        <v>-23</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1454,13 +1457,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1471,10 +1474,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1485,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1499,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1510,13 +1513,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1524,13 +1527,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1538,13 +1541,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1552,13 +1555,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1566,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1580,13 +1583,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1597,10 +1600,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1618,16 +1621,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1635,16 +1638,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="D2">
-        <v>-1.9</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1652,16 +1655,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1672,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1689,13 +1692,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="D5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1703,16 +1706,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="D6">
-        <v>-1.4</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1720,13 +1723,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="D7">
-        <v>-0.5999999999999996</v>
+        <v>-1.4</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1740,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="D8">
         <v>1.3</v>
@@ -1757,13 +1760,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="D9">
-        <v>-0.7999999999999998</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1774,13 +1777,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D10">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1791,10 +1794,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1815,40 +1818,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1856,22 +1859,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>74.7</v>
       </c>
       <c r="D2">
-        <v>24.4</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>13.5</v>
+        <v>1.5</v>
       </c>
       <c r="F2">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1891,25 +1894,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>89.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.300000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="D3">
-        <v>1.7</v>
+        <v>56.5</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>19.1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1929,28 +1932,28 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2.5</v>
+        <v>94.2</v>
       </c>
       <c r="C4">
-        <v>23.7</v>
+        <v>5.8</v>
       </c>
       <c r="D4">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>30.7</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1962,36 +1965,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>16.1</v>
+        <v>1.7</v>
       </c>
       <c r="D5">
-        <v>31.9</v>
+        <v>19.4</v>
       </c>
       <c r="E5">
-        <v>28.7</v>
+        <v>44.3</v>
       </c>
       <c r="F5">
-        <v>14.3</v>
+        <v>21.1</v>
       </c>
       <c r="G5">
-        <v>5.3</v>
+        <v>12.8</v>
       </c>
       <c r="H5">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="I5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2000,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>96.90000000000001</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2008,37 +2011,37 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="E6">
-        <v>18.8</v>
+        <v>17.5</v>
       </c>
       <c r="F6">
-        <v>34.3</v>
+        <v>35.9</v>
       </c>
       <c r="G6">
-        <v>21.8</v>
+        <v>28.5</v>
       </c>
       <c r="H6">
-        <v>9.9</v>
+        <v>11.7</v>
       </c>
       <c r="I6">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>88</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2052,31 +2055,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="E7">
+        <v>17.3</v>
+      </c>
+      <c r="F7">
+        <v>30.9</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>12.6</v>
+      </c>
+      <c r="I7">
         <v>3.9</v>
       </c>
-      <c r="F7">
-        <v>17.9</v>
-      </c>
-      <c r="G7">
-        <v>26.5</v>
-      </c>
-      <c r="H7">
-        <v>22.8</v>
-      </c>
-      <c r="I7">
-        <v>16.9</v>
-      </c>
       <c r="J7">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>49.1</v>
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2090,36 +2093,36 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>9.9</v>
+        <v>3.2</v>
       </c>
       <c r="G8">
-        <v>19.3</v>
+        <v>10.6</v>
       </c>
       <c r="H8">
-        <v>23.7</v>
+        <v>17.8</v>
       </c>
       <c r="I8">
-        <v>21.3</v>
+        <v>26.8</v>
       </c>
       <c r="J8">
-        <v>16.6</v>
+        <v>30.3</v>
       </c>
       <c r="K8">
-        <v>6.9</v>
+        <v>11.3</v>
       </c>
       <c r="L8">
-        <v>31.5</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2128,69 +2131,69 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>8.9</v>
+        <v>2.2</v>
       </c>
       <c r="G9">
-        <v>16.7</v>
+        <v>8.5</v>
       </c>
       <c r="H9">
-        <v>26.3</v>
+        <v>24.3</v>
       </c>
       <c r="I9">
-        <v>29.3</v>
+        <v>28</v>
       </c>
       <c r="J9">
-        <v>13.4</v>
+        <v>28.9</v>
       </c>
       <c r="K9">
-        <v>2.9</v>
+        <v>8.1</v>
       </c>
       <c r="L9">
-        <v>28.1</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+      <c r="F10">
+        <v>1.5</v>
+      </c>
+      <c r="G10">
+        <v>5.2</v>
+      </c>
+      <c r="H10">
+        <v>30.9</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>25.2</v>
+      </c>
+      <c r="K10">
+        <v>5.9</v>
+      </c>
+      <c r="L10">
         <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7</v>
-      </c>
-      <c r="G10">
-        <v>3.2</v>
-      </c>
-      <c r="H10">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I10">
-        <v>16</v>
-      </c>
-      <c r="J10">
-        <v>34.9</v>
-      </c>
-      <c r="K10">
-        <v>36.5</v>
-      </c>
-      <c r="L10">
-        <v>3.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2210,25 +2213,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="J11">
-        <v>27.2</v>
+        <v>14.7</v>
       </c>
       <c r="K11">
-        <v>50.2</v>
+        <v>74.7</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2238,256 +2241,274 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C2">
         <v>99.90000000000001</v>
       </c>
       <c r="D2">
-        <v>99.3</v>
+        <v>98.7</v>
       </c>
       <c r="E2">
-        <v>99.3</v>
+        <v>98.5</v>
       </c>
       <c r="F2">
-        <v>88.59999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G2">
-        <v>80.40000000000001</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="H2">
-        <v>89.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="I2">
-        <v>79.5</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="J2">
-        <v>92.60000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="K2">
         <v>98.2</v>
       </c>
       <c r="L2">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.5</v>
+      </c>
+      <c r="C3">
+        <v>76.8</v>
+      </c>
+      <c r="D3">
+        <v>86.8</v>
+      </c>
+      <c r="E3">
+        <v>95</v>
+      </c>
+      <c r="F3">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="G3">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="H3">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="I3">
+        <v>90</v>
+      </c>
+      <c r="J3">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="K3">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="L3">
+        <v>96.3</v>
+      </c>
+      <c r="M3">
+        <v>99.8</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C3">
+      <c r="B4">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F4">
         <v>99.8</v>
       </c>
-      <c r="D3">
-        <v>99.2</v>
-      </c>
-      <c r="E3">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F3">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G3">
-        <v>99.7</v>
-      </c>
-      <c r="H3">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="I3">
+      <c r="G4">
+        <v>99.8</v>
+      </c>
+      <c r="H4">
         <v>100</v>
       </c>
-      <c r="J3">
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="K3">
+      <c r="J4">
         <v>100</v>
       </c>
-      <c r="L3">
+      <c r="K4">
         <v>100</v>
       </c>
-      <c r="M3">
+      <c r="L4">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <v>98.2</v>
+      </c>
+      <c r="C5">
+        <v>82.3</v>
+      </c>
+      <c r="D5">
+        <v>59.2</v>
+      </c>
+      <c r="E5">
+        <v>73.5</v>
+      </c>
+      <c r="F5">
+        <v>69</v>
+      </c>
+      <c r="G5">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="H5">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="I5">
+        <v>86.8</v>
+      </c>
+      <c r="J5">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="K5">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="L5">
         <v>98</v>
       </c>
-      <c r="C4">
-        <v>82</v>
-      </c>
-      <c r="D4">
-        <v>56.39999999999999</v>
-      </c>
-      <c r="E4">
-        <v>74.8</v>
-      </c>
-      <c r="F4">
-        <v>69.69999999999999</v>
-      </c>
-      <c r="G4">
-        <v>87.8</v>
-      </c>
-      <c r="H4">
-        <v>68.8</v>
-      </c>
-      <c r="I4">
-        <v>86.3</v>
-      </c>
-      <c r="J4">
-        <v>93.8</v>
-      </c>
-      <c r="K4">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="L4">
-        <v>98.3</v>
-      </c>
-      <c r="M4">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>77</v>
-      </c>
-      <c r="D5">
-        <v>89</v>
-      </c>
-      <c r="E5">
-        <v>97.3</v>
-      </c>
-      <c r="F5">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="G5">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="H5">
-        <v>95</v>
-      </c>
-      <c r="I5">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>80.60000000000001</v>
-      </c>
-      <c r="K5">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="L5">
-        <v>96.8</v>
-      </c>
       <c r="M5">
-        <v>97.59999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="N5">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>76.7</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C6">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="D6">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="E6">
-        <v>91.10000000000001</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="F6">
-        <v>95.3</v>
+        <v>94</v>
       </c>
       <c r="G6">
-        <v>96.3</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="H6">
-        <v>96</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="I6">
-        <v>85.39999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="J6">
-        <v>74.5</v>
+        <v>74.3</v>
       </c>
       <c r="K6">
-        <v>88.40000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="L6">
-        <v>84.39999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="M6">
-        <v>85.59999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="N6">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2498,198 +2519,213 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.7</v>
+        <v>15.8</v>
       </c>
       <c r="E7">
-        <v>15.4</v>
+        <v>17.3</v>
       </c>
       <c r="F7">
-        <v>41</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="G7">
-        <v>23.8</v>
+        <v>22.8</v>
       </c>
       <c r="H7">
-        <v>39.4</v>
+        <v>38.9</v>
       </c>
       <c r="I7">
-        <v>53.90000000000001</v>
+        <v>52.8</v>
       </c>
       <c r="J7">
-        <v>65.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="K7">
-        <v>54.6</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>50.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="N7">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="D8">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="E8">
-        <v>18.6</v>
+        <v>18.2</v>
       </c>
       <c r="F8">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="G8">
-        <v>32.1</v>
+        <v>34.8</v>
       </c>
       <c r="H8">
-        <v>24.3</v>
+        <v>21.6</v>
       </c>
       <c r="I8">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K8">
-        <v>21.6</v>
+        <v>22.7</v>
       </c>
       <c r="L8">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="M8">
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.2</v>
+      </c>
+      <c r="N8">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>85.3</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="C9">
-        <v>96.7</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D9">
-        <v>60.9</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="E9">
-        <v>26.5</v>
+        <v>27.9</v>
       </c>
       <c r="F9">
-        <v>16.7</v>
+        <v>17.2</v>
       </c>
       <c r="G9">
-        <v>12.4</v>
+        <v>9.9</v>
       </c>
       <c r="H9">
-        <v>4.100000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="I9">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J9">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>21.4</v>
+        <v>19.4</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>32.4</v>
       </c>
       <c r="M9">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.4</v>
+      </c>
+      <c r="N9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>59.5</v>
+        <v>63.2</v>
       </c>
       <c r="C10">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="D10">
-        <v>77.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="E10">
-        <v>52.6</v>
+        <v>53</v>
       </c>
       <c r="F10">
-        <v>47.8</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>34.1</v>
+        <v>30.4</v>
       </c>
       <c r="H10">
-        <v>59.9</v>
+        <v>62.6</v>
       </c>
       <c r="I10">
-        <v>63.3</v>
+        <v>61</v>
       </c>
       <c r="J10">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="K10">
-        <v>19.9</v>
+        <v>19.1</v>
       </c>
       <c r="L10">
-        <v>7.399999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M10">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.2</v>
+      </c>
+      <c r="N10">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C11">
-        <v>11.7</v>
+        <v>12.6</v>
       </c>
       <c r="D11">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="E11">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="F11">
-        <v>13.7</v>
+        <v>14.9</v>
       </c>
       <c r="G11">
         <v>36.5</v>
       </c>
       <c r="H11">
-        <v>22.7</v>
+        <v>25</v>
       </c>
       <c r="I11">
-        <v>9.300000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="J11">
-        <v>8.799999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="K11">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="L11">
-        <v>4.9</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="M11">
-        <v>3.7</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2707,28 +2743,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2739,25 +2775,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>113.8</v>
+        <v>114.02</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>124.9</v>
+        <v>124.76</v>
       </c>
       <c r="G2">
-        <v>0.667</v>
+        <v>0.625</v>
       </c>
       <c r="H2">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2765,28 +2801,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>114.28</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>119.56</v>
+        <v>114.62</v>
       </c>
       <c r="G3">
-        <v>0.606</v>
+        <v>0.417</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2794,28 +2830,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>125.41</v>
+        <v>105.14</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>113.83</v>
+        <v>124.67</v>
       </c>
       <c r="G4">
-        <v>0.394</v>
+        <v>0.75</v>
       </c>
       <c r="H4">
-        <v>2.3</v>
+        <v>10.5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2823,28 +2859,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>110.51</v>
+        <v>115.21</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5">
-        <v>116.76</v>
+        <v>117.94</v>
       </c>
       <c r="G5">
-        <v>0.545</v>
+        <v>0.542</v>
       </c>
       <c r="H5">
+        <v>7.5</v>
+      </c>
+      <c r="I5">
         <v>2</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2852,28 +2888,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>104.62</v>
+        <v>110.88</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>119.39</v>
+        <v>112.22</v>
       </c>
       <c r="G6">
-        <v>0.636</v>
+        <v>0.292</v>
       </c>
       <c r="H6">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2881,28 +2917,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>108.88</v>
+        <v>116.78</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>110.77</v>
+        <v>117.01</v>
       </c>
       <c r="G7">
-        <v>0.364</v>
+        <v>0.708</v>
       </c>
       <c r="H7">
-        <v>-1.7</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2910,28 +2946,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>117.18</v>
+        <v>124.51</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>116.19</v>
+        <v>109.58</v>
       </c>
       <c r="G8">
-        <v>0.424</v>
+        <v>0.458</v>
       </c>
       <c r="H8">
-        <v>-2.7</v>
+        <v>-9.5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2939,28 +2975,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>115.99</v>
+        <v>109.24</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>116.19</v>
+        <v>110.04</v>
       </c>
       <c r="G9">
-        <v>0.394</v>
+        <v>0.542</v>
       </c>
       <c r="H9">
-        <v>-7.3</v>
+        <v>-10.5</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2968,28 +3004,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>123.78</v>
+        <v>124.83</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>111.47</v>
+        <v>110.96</v>
       </c>
       <c r="G10">
-        <v>0.545</v>
+        <v>0.375</v>
       </c>
       <c r="H10">
-        <v>-8.300000000000001</v>
+        <v>-15.5</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2997,28 +3033,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>125.52</v>
+        <v>109.19</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>110.9</v>
+        <v>113.01</v>
       </c>
       <c r="G11">
-        <v>0.424</v>
+        <v>0.292</v>
       </c>
       <c r="H11">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3036,31 +3072,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3068,16 +3104,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>123.7818181818182</v>
+        <v>124.51</v>
       </c>
       <c r="E2">
-        <v>1361.6</v>
+        <v>1494.12</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3086,27 +3122,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>0.8181818181818182</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D3">
-        <v>125.5181818181818</v>
+        <v>125.005</v>
       </c>
       <c r="E3">
-        <v>1380.7</v>
+        <v>1500.06</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3115,68 +3151,68 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>0.6363636363636364</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4">
-        <v>115.9927272727273</v>
+        <v>124.8266666666667</v>
       </c>
       <c r="E4">
-        <v>1275.92</v>
+        <v>1497.92</v>
       </c>
       <c r="F4">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5">
-        <v>125.4090909090909</v>
+        <v>109.185</v>
       </c>
       <c r="E5">
-        <v>1379.5</v>
+        <v>1310.22</v>
       </c>
       <c r="F5">
-        <v>96.89999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3184,28 +3220,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>113.7981818181818</v>
+        <v>114.02</v>
       </c>
       <c r="E6">
-        <v>1251.78</v>
+        <v>1368.24</v>
       </c>
       <c r="F6">
-        <v>88</v>
+        <v>86.3</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3213,28 +3249,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>108.8781818181818</v>
+        <v>110.885</v>
       </c>
       <c r="E7">
-        <v>1197.66</v>
+        <v>1330.62</v>
       </c>
       <c r="F7">
-        <v>49.1</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="G7">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3242,86 +3278,86 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>117.1763636363636</v>
+        <v>115.2133333333333</v>
       </c>
       <c r="E8">
-        <v>1288.94</v>
+        <v>1382.56</v>
       </c>
       <c r="F8">
-        <v>31.5</v>
+        <v>13.8</v>
       </c>
       <c r="G8">
-        <v>6.9</v>
+        <v>11.3</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9">
-        <v>0.4545454545454545</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>104.6218181818182</v>
+        <v>116.7816666666667</v>
       </c>
       <c r="E9">
-        <v>1150.84</v>
+        <v>1401.38</v>
       </c>
       <c r="F9">
-        <v>28.1</v>
+        <v>10.7</v>
       </c>
       <c r="G9">
-        <v>2.9</v>
+        <v>8.1</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10">
-        <v>0.2727272727272727</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D10">
-        <v>114.2818181818182</v>
+        <v>105.1383333333333</v>
       </c>
       <c r="E10">
-        <v>1257.1</v>
+        <v>1261.66</v>
       </c>
       <c r="F10">
-        <v>3.9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G10">
-        <v>36.5</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3329,28 +3365,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>110.5054545454545</v>
+        <v>109.235</v>
       </c>
       <c r="E11">
-        <v>1215.56</v>
+        <v>1310.82</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>50.2</v>
+        <v>74.7</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3368,19 +3404,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3391,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>28</v>
@@ -3400,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3411,16 +3447,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3434,13 +3470,13 @@
         <v>62</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3451,16 +3487,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3471,13 +3507,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>101</v>
@@ -3491,16 +3527,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3508,19 +3544,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3528,19 +3564,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3548,16 +3584,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>-17</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>105</v>
@@ -3568,16 +3604,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>-19</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>106</v>
@@ -3590,13 +3626,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
@@ -3631,10 +3667,13 @@
         <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>118</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3671,11 +3710,14 @@
       <c r="L2">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3712,11 +3754,14 @@
       <c r="L3">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3753,11 +3798,14 @@
       <c r="L4">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3794,11 +3842,14 @@
       <c r="L5">
         <v>7</v>
       </c>
-      <c r="M5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3835,11 +3886,14 @@
       <c r="L6">
         <v>-4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>-5</v>
+      </c>
+      <c r="N6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3876,171 +3930,186 @@
       <c r="L7">
         <v>-5</v>
       </c>
-      <c r="M7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>-8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>-5</v>
+      </c>
+      <c r="C8">
+        <v>-5</v>
+      </c>
+      <c r="D8">
+        <v>-7</v>
+      </c>
+      <c r="E8">
+        <v>-7</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-7</v>
+      </c>
+      <c r="H8">
+        <v>-12</v>
+      </c>
+      <c r="I8">
+        <v>-14</v>
+      </c>
+      <c r="J8">
+        <v>-23</v>
+      </c>
+      <c r="K8">
+        <v>-22</v>
+      </c>
+      <c r="L8">
+        <v>-17</v>
+      </c>
+      <c r="M8">
+        <v>-13</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>-4</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-4</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>-8</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>-16</v>
-      </c>
-      <c r="F8">
-        <v>-13</v>
-      </c>
-      <c r="G8">
-        <v>-17</v>
-      </c>
-      <c r="H8">
-        <v>-25</v>
-      </c>
-      <c r="I8">
-        <v>-19</v>
-      </c>
-      <c r="J8">
-        <v>-11</v>
-      </c>
-      <c r="K8">
-        <v>-12</v>
-      </c>
-      <c r="L8">
-        <v>-16</v>
-      </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>-6</v>
-      </c>
-      <c r="D9">
-        <v>-13</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
       </c>
       <c r="F9">
         <v>-13</v>
       </c>
       <c r="G9">
-        <v>-6</v>
+        <v>-17</v>
       </c>
       <c r="H9">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="I9">
         <v>-19</v>
       </c>
       <c r="J9">
+        <v>-11</v>
+      </c>
+      <c r="K9">
+        <v>-12</v>
+      </c>
+      <c r="L9">
+        <v>-16</v>
+      </c>
+      <c r="M9">
+        <v>-14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>-12</v>
+      </c>
+      <c r="K10">
         <v>-13</v>
       </c>
-      <c r="K9">
+      <c r="L10">
         <v>-19</v>
       </c>
-      <c r="L9">
+      <c r="M10">
         <v>-17</v>
       </c>
-      <c r="M9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11">
+        <v>-13</v>
+      </c>
+      <c r="E11">
         <v>-5</v>
       </c>
-      <c r="C10">
-        <v>-5</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-7</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>-7</v>
-      </c>
-      <c r="H10">
-        <v>-12</v>
-      </c>
-      <c r="I10">
-        <v>-14</v>
-      </c>
-      <c r="J10">
-        <v>-23</v>
-      </c>
-      <c r="K10">
-        <v>-22</v>
-      </c>
-      <c r="L10">
+      <c r="F11">
+        <v>-13</v>
+      </c>
+      <c r="G11">
+        <v>-6</v>
+      </c>
+      <c r="H11">
+        <v>-8</v>
+      </c>
+      <c r="I11">
+        <v>-19</v>
+      </c>
+      <c r="J11">
+        <v>-13</v>
+      </c>
+      <c r="K11">
+        <v>-19</v>
+      </c>
+      <c r="L11">
         <v>-17</v>
       </c>
-      <c r="M10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>-2</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-2</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
-        <v>-12</v>
-      </c>
-      <c r="K11">
-        <v>-13</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
         <v>-19</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>106</v>
       </c>
     </row>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="131">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Inter Miami CF</t>
   </si>
   <si>
-    <t>Bay Harbor Pisser</t>
+    <t>OBJYN</t>
   </si>
   <si>
     <t>Abyss Diamond Eyes</t>
@@ -55,31 +55,34 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -172,6 +175,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -193,36 +199,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>James Breen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Zacierka </t>
+  </si>
+  <si>
     <t>Gianpierre Lopez</t>
   </si>
   <si>
-    <t xml:space="preserve">Mike Zacierka </t>
-  </si>
-  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>James Breen</t>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Ayush Chivate</t>
+  </si>
+  <si>
+    <t>Kate Zacierka</t>
   </si>
   <si>
     <t>jack meehan</t>
   </si>
   <si>
-    <t>Kate Zacierka</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Ayush Chivate</t>
+    <t>gianni alessio</t>
   </si>
   <si>
     <t>Derek Alcavage</t>
   </si>
   <si>
-    <t>gianni alessio</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -247,64 +253,67 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>10-2</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>9.3-4.7</t>
-  </si>
-  <si>
-    <t>8.2-5.8</t>
-  </si>
-  <si>
-    <t>11.2-2.8</t>
-  </si>
-  <si>
-    <t>7.9-6.0</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>6.9-7.0</t>
-  </si>
-  <si>
-    <t>4.9-9.0</t>
-  </si>
-  <si>
-    <t>5.0-9.0</t>
-  </si>
-  <si>
-    <t>5.6-8.4</t>
-  </si>
-  <si>
-    <t>4.0-10.0</t>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>9.6-4.4</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>11.7-2.3</t>
+  </si>
+  <si>
+    <t>5.3-8.7</t>
+  </si>
+  <si>
+    <t>4.5-9.4</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
+  </si>
+  <si>
+    <t>4.5-9.5</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
-    <t>11-3</t>
+    <t>12-2</t>
   </si>
   <si>
     <t>7-7</t>
@@ -325,25 +334,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>0</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -380,6 +392,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -804,31 +819,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -860,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -874,10 +889,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -892,10 +907,10 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -947,13 +962,13 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -965,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -979,31 +994,31 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1011,34 +1026,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1046,34 +1061,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1084,13 +1099,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1102,10 +1117,10 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -1119,13 +1134,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -1137,10 +1152,10 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -1153,7 +1168,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1161,25 +1176,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1239,25 +1254,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1265,25 +1280,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1291,25 +1306,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>7</v>
       </c>
       <c r="F6">
-        <v>28</v>
+        <v>-17</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1317,25 +1332,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1343,25 +1358,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1369,25 +1384,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
         <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
       </c>
       <c r="G9">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1395,51 +1410,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>-23</v>
-      </c>
-      <c r="F11">
-        <v>-12</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1457,13 +1446,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1474,10 +1463,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1488,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1502,10 +1491,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1513,13 +1502,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1527,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1541,13 +1530,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1558,10 +1547,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1569,13 +1558,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1583,13 +1572,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1600,10 +1589,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1621,16 +1610,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1638,16 +1627,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="D2">
-        <v>-0.2000000000000002</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1658,13 +1647,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="D3">
-        <v>-2.3</v>
+        <v>-2.5</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1672,16 +1661,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>0.7000000000000002</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1692,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D5">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1709,13 +1698,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="D6">
-        <v>-0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1723,16 +1712,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D7">
-        <v>-1.4</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1740,16 +1729,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D8">
-        <v>1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1757,16 +1746,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D9">
-        <v>-0.9000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1777,10 +1766,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D10">
-        <v>1.4</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1794,13 +1783,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D11">
-        <v>-0.7000000000000002</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1818,40 +1807,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1859,16 +1848,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>74.7</v>
+        <v>75.7</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>24.3</v>
       </c>
       <c r="E2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1900,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>17.8</v>
+        <v>24.3</v>
       </c>
       <c r="D3">
-        <v>56.5</v>
+        <v>75.7</v>
       </c>
       <c r="E3">
-        <v>19.1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1932,25 +1921,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>94.2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1970,28 +1959,28 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>19.4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>44.3</v>
+        <v>59.8</v>
       </c>
       <c r="F5">
-        <v>21.1</v>
+        <v>31.5</v>
       </c>
       <c r="G5">
-        <v>12.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2003,50 +1992,50 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>99.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>35.9</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>86.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2055,36 +2044,36 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>17.3</v>
+        <v>30.8</v>
       </c>
       <c r="F7">
-        <v>30.9</v>
+        <v>48.1</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>21.1</v>
       </c>
       <c r="H7">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>82.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2099,25 +2088,25 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>17.8</v>
+        <v>43.9</v>
       </c>
       <c r="I8">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="J8">
-        <v>30.3</v>
+        <v>22.8</v>
       </c>
       <c r="K8">
-        <v>11.3</v>
+        <v>6.3</v>
       </c>
       <c r="L8">
-        <v>13.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2137,30 +2126,30 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>24.3</v>
+        <v>29.1</v>
       </c>
       <c r="I9">
-        <v>28</v>
+        <v>25.6</v>
       </c>
       <c r="J9">
-        <v>28.9</v>
+        <v>27.3</v>
       </c>
       <c r="K9">
-        <v>8.1</v>
+        <v>18</v>
       </c>
       <c r="L9">
-        <v>10.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2172,28 +2161,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>30.9</v>
+        <v>17.8</v>
       </c>
       <c r="I10">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J10">
-        <v>25.2</v>
+        <v>34.5</v>
       </c>
       <c r="K10">
-        <v>5.9</v>
+        <v>21.7</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2219,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I11">
-        <v>8.6</v>
+        <v>21.4</v>
       </c>
       <c r="J11">
-        <v>14.7</v>
+        <v>15.4</v>
       </c>
       <c r="K11">
-        <v>74.7</v>
+        <v>54</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2241,89 +2230,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="C2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D2">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E2">
         <v>98.7</v>
       </c>
-      <c r="E2">
-        <v>98.5</v>
-      </c>
       <c r="F2">
-        <v>87.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="G2">
-        <v>81.39999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H2">
-        <v>90</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="I2">
-        <v>80.10000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="J2">
-        <v>93.60000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="K2">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L2">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2331,400 +2323,430 @@
       <c r="N2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="C3">
-        <v>76.8</v>
+        <v>75.8</v>
       </c>
       <c r="D3">
         <v>86.8</v>
       </c>
       <c r="E3">
-        <v>95</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F3">
-        <v>92.80000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G3">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="H3">
-        <v>94.09999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>91.7</v>
       </c>
       <c r="J3">
-        <v>78.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K3">
-        <v>94.39999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="L3">
-        <v>96.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>77.7</v>
+      </c>
+      <c r="C4">
+        <v>97.8</v>
+      </c>
+      <c r="D4">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E4">
+        <v>91.8</v>
+      </c>
+      <c r="F4">
+        <v>93.2</v>
+      </c>
+      <c r="G4">
+        <v>96.5</v>
+      </c>
+      <c r="H4">
+        <v>94.8</v>
+      </c>
+      <c r="I4">
+        <v>84</v>
+      </c>
+      <c r="J4">
+        <v>77.5</v>
+      </c>
+      <c r="K4">
+        <v>90.10000000000001</v>
+      </c>
+      <c r="L4">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="M4">
+        <v>78.60000000000001</v>
+      </c>
+      <c r="N4">
+        <v>83.2</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>15.2</v>
+      </c>
+      <c r="E5">
+        <v>18.4</v>
+      </c>
+      <c r="F5">
+        <v>41.2</v>
+      </c>
+      <c r="G5">
+        <v>23.4</v>
+      </c>
+      <c r="H5">
+        <v>40.7</v>
+      </c>
+      <c r="I5">
+        <v>52.40000000000001</v>
+      </c>
+      <c r="J5">
+        <v>61.9</v>
+      </c>
+      <c r="K5">
+        <v>54.2</v>
+      </c>
+      <c r="L5">
+        <v>46</v>
+      </c>
+      <c r="M5">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="N5">
+        <v>99.8</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="C4">
+      <c r="B6">
+        <v>97.5</v>
+      </c>
+      <c r="C6">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="D4">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E4">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F4">
-        <v>99.8</v>
-      </c>
-      <c r="G4">
-        <v>99.8</v>
-      </c>
-      <c r="H4">
+      <c r="G6">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H6">
         <v>100</v>
       </c>
-      <c r="I4">
+      <c r="I6">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="J4">
+      <c r="K6">
         <v>100</v>
       </c>
-      <c r="K4">
+      <c r="L6">
         <v>100</v>
       </c>
-      <c r="L4">
+      <c r="M6">
         <v>100</v>
       </c>
-      <c r="M4">
+      <c r="N6">
         <v>100</v>
       </c>
-      <c r="N4">
+      <c r="O6">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>98.2</v>
       </c>
-      <c r="C5">
-        <v>82.3</v>
-      </c>
-      <c r="D5">
-        <v>59.2</v>
-      </c>
-      <c r="E5">
-        <v>73.5</v>
-      </c>
-      <c r="F5">
-        <v>69</v>
-      </c>
-      <c r="G5">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="H5">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="I5">
-        <v>86.8</v>
-      </c>
-      <c r="J5">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="K5">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="L5">
-        <v>98</v>
-      </c>
-      <c r="M5">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="N5">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C6">
-        <v>98.3</v>
-      </c>
-      <c r="D6">
-        <v>98.7</v>
-      </c>
-      <c r="E6">
-        <v>92.10000000000001</v>
-      </c>
-      <c r="F6">
-        <v>94</v>
-      </c>
-      <c r="G6">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="H6">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="I6">
-        <v>85.7</v>
-      </c>
-      <c r="J6">
-        <v>74.3</v>
-      </c>
-      <c r="K6">
-        <v>89.3</v>
-      </c>
-      <c r="L6">
-        <v>83.5</v>
-      </c>
-      <c r="M6">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="N6">
-        <v>85.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>3.8</v>
-      </c>
       <c r="C7">
-        <v>0</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D7">
-        <v>15.8</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="E7">
-        <v>17.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F7">
-        <v>41.09999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G7">
-        <v>22.8</v>
+        <v>87.7</v>
       </c>
       <c r="H7">
-        <v>38.9</v>
+        <v>68.8</v>
       </c>
       <c r="I7">
-        <v>52.8</v>
+        <v>87.2</v>
       </c>
       <c r="J7">
-        <v>67</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="K7">
-        <v>55.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="M7">
-        <v>80.40000000000001</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="N7">
-        <v>84.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>99</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="C8">
+        <v>96.3</v>
+      </c>
+      <c r="D8">
+        <v>60.7</v>
+      </c>
+      <c r="E8">
+        <v>27.3</v>
+      </c>
+      <c r="F8">
+        <v>13.4</v>
+      </c>
+      <c r="G8">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H8">
+        <v>5.1</v>
+      </c>
+      <c r="I8">
+        <v>11.1</v>
+      </c>
+      <c r="J8">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="K8">
+        <v>20.9</v>
+      </c>
+      <c r="L8">
+        <v>30.7</v>
+      </c>
+      <c r="M8">
+        <v>15.6</v>
+      </c>
+      <c r="N8">
+        <v>4.8</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>61.2</v>
+      </c>
+      <c r="C9">
+        <v>32.4</v>
+      </c>
+      <c r="D9">
+        <v>79.3</v>
+      </c>
+      <c r="E9">
+        <v>52.3</v>
+      </c>
+      <c r="F9">
+        <v>48.2</v>
+      </c>
+      <c r="G9">
+        <v>32.1</v>
+      </c>
+      <c r="H9">
+        <v>58.5</v>
+      </c>
+      <c r="I9">
+        <v>62.2</v>
+      </c>
+      <c r="J9">
+        <v>38.4</v>
+      </c>
+      <c r="K9">
+        <v>18.9</v>
+      </c>
+      <c r="L9">
+        <v>9.1</v>
+      </c>
+      <c r="M9">
+        <v>14.7</v>
+      </c>
+      <c r="N9">
+        <v>6.2</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1.4</v>
-      </c>
-      <c r="C8">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="D8">
-        <v>2.9</v>
-      </c>
-      <c r="E8">
-        <v>18.2</v>
-      </c>
-      <c r="F8">
-        <v>36.3</v>
-      </c>
-      <c r="G8">
-        <v>34.8</v>
-      </c>
-      <c r="H8">
-        <v>21.6</v>
-      </c>
-      <c r="I8">
-        <v>21.2</v>
-      </c>
-      <c r="J8">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K8">
-        <v>22.7</v>
-      </c>
-      <c r="L8">
-        <v>34.1</v>
-      </c>
-      <c r="M8">
-        <v>13.2</v>
-      </c>
-      <c r="N8">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>80.10000000000001</v>
-      </c>
-      <c r="C9">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="D9">
-        <v>55.40000000000001</v>
-      </c>
-      <c r="E9">
-        <v>27.9</v>
-      </c>
-      <c r="F9">
-        <v>17.2</v>
-      </c>
-      <c r="G9">
-        <v>9.9</v>
-      </c>
-      <c r="H9">
-        <v>3.5</v>
-      </c>
-      <c r="I9">
-        <v>11.7</v>
-      </c>
-      <c r="J9">
-        <v>37</v>
-      </c>
-      <c r="K9">
-        <v>19.4</v>
-      </c>
-      <c r="L9">
-        <v>32.4</v>
-      </c>
-      <c r="M9">
-        <v>16.4</v>
-      </c>
-      <c r="N9">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B10">
-        <v>63.2</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>29.9</v>
+        <v>4.7</v>
       </c>
       <c r="D10">
-        <v>79.3</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
-        <v>53</v>
+        <v>19.8</v>
       </c>
       <c r="F10">
-        <v>47</v>
+        <v>35.9</v>
       </c>
       <c r="G10">
-        <v>30.4</v>
+        <v>32.1</v>
       </c>
       <c r="H10">
-        <v>62.6</v>
+        <v>24.7</v>
       </c>
       <c r="I10">
-        <v>61</v>
+        <v>20.1</v>
       </c>
       <c r="J10">
-        <v>36.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K10">
-        <v>19.1</v>
+        <v>21.4</v>
       </c>
       <c r="L10">
-        <v>8.1</v>
+        <v>33.7</v>
       </c>
       <c r="M10">
-        <v>17.2</v>
+        <v>16.3</v>
       </c>
       <c r="N10">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>5.7</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>81.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C11">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D11">
-        <v>3.6</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="E11">
-        <v>24.9</v>
+        <v>23.1</v>
       </c>
       <c r="F11">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>36.5</v>
+        <v>38.9</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="I11">
-        <v>10.7</v>
+        <v>12</v>
       </c>
       <c r="J11">
-        <v>6.7</v>
+        <v>8.9</v>
       </c>
       <c r="K11">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="L11">
-        <v>4.100000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="M11">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="N11">
+        <v>1.3</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
     </row>
@@ -2743,28 +2765,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2772,28 +2794,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>114.02</v>
+        <v>114.85</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>124.76</v>
+        <v>124.25</v>
       </c>
       <c r="G2">
-        <v>0.625</v>
+        <v>0.615</v>
       </c>
       <c r="H2">
-        <v>20.5</v>
+        <v>35</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2804,25 +2826,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>125</v>
+        <v>124.25</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3">
-        <v>114.62</v>
+        <v>114.85</v>
       </c>
       <c r="G3">
-        <v>0.417</v>
+        <v>0.308</v>
       </c>
       <c r="H3">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2830,28 +2852,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>105.14</v>
+        <v>113.92</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4">
-        <v>124.67</v>
+        <v>122.65</v>
       </c>
       <c r="G4">
-        <v>0.75</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H4">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2859,28 +2881,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>115.21</v>
+        <v>104.46</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5">
-        <v>117.94</v>
+        <v>123.95</v>
       </c>
       <c r="G5">
-        <v>0.542</v>
+        <v>0.846</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2888,28 +2910,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>110.88</v>
+        <v>122.65</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>112.22</v>
+        <v>113.92</v>
       </c>
       <c r="G6">
-        <v>0.292</v>
+        <v>0.462</v>
       </c>
       <c r="H6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2917,28 +2939,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>116.78</v>
+        <v>109.05</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>117.01</v>
+        <v>112.31</v>
       </c>
       <c r="G7">
-        <v>0.708</v>
+        <v>0.538</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2946,28 +2968,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>124.51</v>
+        <v>114.53</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>109.58</v>
+        <v>108.84</v>
       </c>
       <c r="G8">
-        <v>0.458</v>
+        <v>0.538</v>
       </c>
       <c r="H8">
-        <v>-9.5</v>
+        <v>-12</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2975,28 +2997,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>109.24</v>
+        <v>112.31</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>110.04</v>
+        <v>109.05</v>
       </c>
       <c r="G9">
-        <v>0.542</v>
+        <v>0.308</v>
       </c>
       <c r="H9">
-        <v>-10.5</v>
+        <v>-20</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3004,28 +3026,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>124.83</v>
+        <v>108.84</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>110.96</v>
+        <v>114.53</v>
       </c>
       <c r="G10">
-        <v>0.375</v>
+        <v>0.308</v>
       </c>
       <c r="H10">
-        <v>-15.5</v>
+        <v>-20</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3033,28 +3055,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>109.19</v>
+        <v>123.95</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>113.01</v>
+        <v>104.46</v>
       </c>
       <c r="G11">
-        <v>0.292</v>
+        <v>0.385</v>
       </c>
       <c r="H11">
-        <v>-18</v>
+        <v>-23</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3072,31 +3094,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3104,16 +3126,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D2">
-        <v>124.51</v>
+        <v>122.6492307692308</v>
       </c>
       <c r="E2">
-        <v>1494.12</v>
+        <v>1594.44</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3122,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3133,16 +3155,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D3">
-        <v>125.005</v>
+        <v>124.2538461538462</v>
       </c>
       <c r="E3">
-        <v>1500.06</v>
+        <v>1615.3</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3151,27 +3173,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D4">
-        <v>124.8266666666667</v>
+        <v>113.9184615384616</v>
       </c>
       <c r="E4">
-        <v>1497.92</v>
+        <v>1480.94</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3180,88 +3202,88 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C5">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D5">
-        <v>109.185</v>
+        <v>112.3092307692308</v>
       </c>
       <c r="E5">
-        <v>1310.22</v>
+        <v>1460.02</v>
       </c>
       <c r="F5">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D6">
-        <v>114.02</v>
+        <v>123.9507692307692</v>
       </c>
       <c r="E6">
-        <v>1368.24</v>
+        <v>1611.36</v>
       </c>
       <c r="F6">
-        <v>86.3</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D7">
-        <v>110.885</v>
+        <v>108.8384615384615</v>
       </c>
       <c r="E7">
-        <v>1330.62</v>
+        <v>1414.9</v>
       </c>
       <c r="F7">
-        <v>82.89999999999999</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3270,36 +3292,36 @@
         <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D8">
-        <v>115.2133333333333</v>
+        <v>104.4615384615384</v>
       </c>
       <c r="E8">
-        <v>1382.56</v>
+        <v>1358</v>
       </c>
       <c r="F8">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>11.3</v>
+        <v>6.3</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3307,57 +3329,57 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D9">
-        <v>116.7816666666667</v>
+        <v>114.5323076923077</v>
       </c>
       <c r="E9">
-        <v>1401.38</v>
+        <v>1488.92</v>
       </c>
       <c r="F9">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>8.1</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C10">
-        <v>0.4166666666666667</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D10">
-        <v>105.1383333333333</v>
+        <v>114.8538461538461</v>
       </c>
       <c r="E10">
-        <v>1261.66</v>
+        <v>1493.1</v>
       </c>
       <c r="F10">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>5.899999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3365,28 +3387,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D11">
-        <v>109.235</v>
+        <v>109.0538461538461</v>
       </c>
       <c r="E11">
-        <v>1310.82</v>
+        <v>1417.7</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>74.7</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3404,19 +3426,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3427,16 +3449,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3447,16 +3469,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3470,13 +3492,13 @@
         <v>62</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3487,16 +3509,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3507,16 +3529,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3524,16 +3546,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
@@ -3544,19 +3566,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3564,19 +3586,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3584,19 +3606,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3604,19 +3626,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3626,54 +3648,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>123</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3713,11 +3738,14 @@
       <c r="M2">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3757,11 +3785,14 @@
       <c r="M3">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3801,11 +3832,14 @@
       <c r="M4">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3845,11 +3879,14 @@
       <c r="M5">
         <v>8</v>
       </c>
-      <c r="N5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3889,228 +3926,246 @@
       <c r="M6">
         <v>-5</v>
       </c>
-      <c r="N6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>-7</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-7</v>
+      </c>
+      <c r="H7">
+        <v>-12</v>
+      </c>
+      <c r="I7">
+        <v>-14</v>
+      </c>
+      <c r="J7">
+        <v>-23</v>
+      </c>
+      <c r="K7">
+        <v>-22</v>
+      </c>
+      <c r="L7">
+        <v>-17</v>
+      </c>
+      <c r="M7">
+        <v>-13</v>
+      </c>
+      <c r="N7">
+        <v>-6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>-1</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>-2</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>-10</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-5</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>-8</v>
       </c>
-      <c r="N7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
+      <c r="N8">
+        <v>-12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>-12</v>
+      </c>
+      <c r="K9">
+        <v>-13</v>
+      </c>
+      <c r="L9">
+        <v>-19</v>
+      </c>
+      <c r="M9">
+        <v>-17</v>
+      </c>
+      <c r="N9">
+        <v>-20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>-13</v>
+      </c>
+      <c r="E10">
         <v>-5</v>
       </c>
-      <c r="C8">
-        <v>-5</v>
-      </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
-        <v>-7</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>-7</v>
-      </c>
-      <c r="H8">
-        <v>-12</v>
-      </c>
-      <c r="I8">
-        <v>-14</v>
-      </c>
-      <c r="J8">
-        <v>-23</v>
-      </c>
-      <c r="K8">
-        <v>-22</v>
-      </c>
-      <c r="L8">
+      <c r="F10">
+        <v>-13</v>
+      </c>
+      <c r="G10">
+        <v>-6</v>
+      </c>
+      <c r="H10">
+        <v>-8</v>
+      </c>
+      <c r="I10">
+        <v>-19</v>
+      </c>
+      <c r="J10">
+        <v>-13</v>
+      </c>
+      <c r="K10">
+        <v>-19</v>
+      </c>
+      <c r="L10">
         <v>-17</v>
       </c>
-      <c r="M8">
-        <v>-13</v>
-      </c>
-      <c r="N8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
+      <c r="M10">
+        <v>-19</v>
+      </c>
+      <c r="N10">
+        <v>-20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>-4</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>-4</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>-8</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>-16</v>
-      </c>
-      <c r="F9">
-        <v>-13</v>
-      </c>
-      <c r="G9">
-        <v>-17</v>
-      </c>
-      <c r="H9">
-        <v>-25</v>
-      </c>
-      <c r="I9">
-        <v>-19</v>
-      </c>
-      <c r="J9">
-        <v>-11</v>
-      </c>
-      <c r="K9">
-        <v>-12</v>
-      </c>
-      <c r="L9">
-        <v>-16</v>
-      </c>
-      <c r="M9">
-        <v>-14</v>
-      </c>
-      <c r="N9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>-2</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-      <c r="J10">
-        <v>-12</v>
-      </c>
-      <c r="K10">
-        <v>-13</v>
-      </c>
-      <c r="L10">
-        <v>-19</v>
-      </c>
-      <c r="M10">
-        <v>-17</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-2</v>
-      </c>
-      <c r="C11">
-        <v>-6</v>
-      </c>
-      <c r="D11">
-        <v>-13</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
       </c>
       <c r="F11">
         <v>-13</v>
       </c>
       <c r="G11">
-        <v>-6</v>
+        <v>-17</v>
       </c>
       <c r="H11">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="I11">
         <v>-19</v>
       </c>
       <c r="J11">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="K11">
-        <v>-19</v>
+        <v>-12</v>
       </c>
       <c r="L11">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="M11">
-        <v>-19</v>
-      </c>
-      <c r="N11" t="s">
-        <v>106</v>
+        <v>-14</v>
+      </c>
+      <c r="N11">
+        <v>-23</v>
+      </c>
+      <c r="O11" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="122">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -55,34 +55,34 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -178,6 +178,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -199,36 +202,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Zacierka </t>
+  </si>
+  <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
+    <t>gianni alessio</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Kate Zacierka</t>
+  </si>
+  <si>
     <t>James Breen</t>
   </si>
   <si>
-    <t xml:space="preserve">Mike Zacierka </t>
-  </si>
-  <si>
-    <t>Gianpierre Lopez</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
     <t>Ayush Chivate</t>
   </si>
   <si>
-    <t>Kate Zacierka</t>
-  </si>
-  <si>
-    <t>jack meehan</t>
-  </si>
-  <si>
-    <t>gianni alessio</t>
-  </si>
-  <si>
-    <t>Derek Alcavage</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -253,78 +256,42 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>11-2</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>9.6-4.4</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>11.7-2.3</t>
-  </si>
-  <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
-    <t>4.5-9.4</t>
-  </si>
-  <si>
-    <t>4.4-9.6</t>
-  </si>
-  <si>
-    <t>4.5-9.5</t>
-  </si>
-  <si>
-    <t>10-4</t>
-  </si>
-  <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>12-2</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
     <t>4-10</t>
   </si>
   <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>12.0-2.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -334,28 +301,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -395,6 +365,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -819,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -854,19 +827,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -875,10 +848,10 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -886,34 +859,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -921,34 +894,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -956,34 +929,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -991,34 +964,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1026,34 +999,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1061,34 +1034,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1099,31 +1072,31 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1131,34 +1104,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1176,25 +1149,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1463,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1477,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1488,13 +1461,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1502,13 +1475,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1516,13 +1489,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1530,13 +1503,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1544,13 +1517,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1558,13 +1531,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1572,13 +1545,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1589,10 +1562,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1627,16 +1600,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D2">
-        <v>0.5999999999999996</v>
+        <v>-2.800000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1644,16 +1617,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D3">
-        <v>-2.5</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1661,16 +1634,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D4">
-        <v>-0.9000000000000004</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1678,16 +1651,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="D5">
-        <v>2.8</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1695,16 +1668,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="D6">
-        <v>0.4000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1715,13 +1688,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="D7">
-        <v>-0.9000000000000004</v>
+        <v>-1.7</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1732,13 +1705,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="D8">
-        <v>-1.1</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1749,13 +1722,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="D9">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1772,7 +1745,7 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1783,13 +1756,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D11">
-        <v>-0.5999999999999996</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1851,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>75.7</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1889,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>75.7</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1933,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>20.4</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1971,13 +1944,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>59.8</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2047,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>48.1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>21.1</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2094,16 +2067,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>43.9</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>22.8</v>
+        <v>100</v>
       </c>
       <c r="K8">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2132,16 +2105,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>29.1</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>27.3</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2170,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2208,16 +2181,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2230,13 +2203,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2279,43 +2252,46 @@
       <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>99.2</v>
+      </c>
+      <c r="E2">
+        <v>99</v>
+      </c>
+      <c r="F2">
+        <v>87.5</v>
+      </c>
+      <c r="G2">
+        <v>82.89999999999999</v>
+      </c>
+      <c r="H2">
+        <v>90.2</v>
+      </c>
+      <c r="I2">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="J2">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="K2">
         <v>97.7</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="E2">
-        <v>98.7</v>
-      </c>
-      <c r="F2">
-        <v>88.8</v>
-      </c>
-      <c r="G2">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="H2">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="I2">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="J2">
-        <v>93.2</v>
-      </c>
-      <c r="K2">
-        <v>98.40000000000001</v>
-      </c>
       <c r="L2">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2326,46 +2302,49 @@
       <c r="O2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>75.8</v>
+        <v>76.7</v>
       </c>
       <c r="D3">
-        <v>86.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E3">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="F3">
-        <v>91.90000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="H3">
-        <v>94.19999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="I3">
-        <v>91.7</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="J3">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="K3">
-        <v>94.19999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="L3">
-        <v>97.09999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2373,93 +2352,99 @@
       <c r="O3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>77.7</v>
+        <v>75.5</v>
       </c>
       <c r="C4">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="D4">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="E4">
-        <v>91.8</v>
+        <v>91.3</v>
       </c>
       <c r="F4">
-        <v>93.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G4">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="H4">
-        <v>94.8</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="I4">
-        <v>84</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="J4">
+        <v>74.8</v>
+      </c>
+      <c r="K4">
+        <v>89.5</v>
+      </c>
+      <c r="L4">
+        <v>82.39999999999999</v>
+      </c>
+      <c r="M4">
         <v>77.5</v>
       </c>
-      <c r="K4">
-        <v>90.10000000000001</v>
-      </c>
-      <c r="L4">
-        <v>80.80000000000001</v>
-      </c>
-      <c r="M4">
-        <v>78.60000000000001</v>
-      </c>
       <c r="N4">
-        <v>83.2</v>
+        <v>82</v>
       </c>
       <c r="O4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E5">
-        <v>18.4</v>
+        <v>17.2</v>
       </c>
       <c r="F5">
-        <v>41.2</v>
+        <v>44.3</v>
       </c>
       <c r="G5">
-        <v>23.4</v>
+        <v>18.9</v>
       </c>
       <c r="H5">
-        <v>40.7</v>
+        <v>42.2</v>
       </c>
       <c r="I5">
-        <v>52.40000000000001</v>
+        <v>55.3</v>
       </c>
       <c r="J5">
-        <v>61.9</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="K5">
-        <v>54.2</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>44.6</v>
       </c>
       <c r="M5">
-        <v>80.40000000000001</v>
+        <v>81</v>
       </c>
       <c r="N5">
         <v>99.8</v>
@@ -2467,25 +2452,28 @@
       <c r="O5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>97.5</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="C6">
         <v>99.90000000000001</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="E6">
+        <v>99.7</v>
+      </c>
+      <c r="F6">
         <v>99.90000000000001</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
       </c>
       <c r="G6">
         <v>99.90000000000001</v>
@@ -2514,8 +2502,11 @@
       <c r="O6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2523,37 +2514,37 @@
         <v>98.2</v>
       </c>
       <c r="C7">
-        <v>80.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="D7">
-        <v>55.60000000000001</v>
+        <v>54.2</v>
       </c>
       <c r="E7">
         <v>72.59999999999999</v>
       </c>
       <c r="F7">
-        <v>73.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="G7">
-        <v>87.7</v>
+        <v>89</v>
       </c>
       <c r="H7">
-        <v>68.8</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="I7">
-        <v>87.2</v>
+        <v>86.2</v>
       </c>
       <c r="J7">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="K7">
+        <v>99.7</v>
+      </c>
+      <c r="L7">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="M7">
         <v>94.89999999999999</v>
-      </c>
-      <c r="K7">
-        <v>99.5</v>
-      </c>
-      <c r="L7">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="M7">
-        <v>93.89999999999999</v>
       </c>
       <c r="N7">
         <v>99</v>
@@ -2561,140 +2552,149 @@
       <c r="O7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>81.69999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="C8">
-        <v>96.3</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>60.7</v>
+        <v>62.5</v>
       </c>
       <c r="E8">
-        <v>27.3</v>
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="G8">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H8">
-        <v>5.1</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="I8">
-        <v>11.1</v>
+        <v>14.2</v>
       </c>
       <c r="J8">
-        <v>35.09999999999999</v>
+        <v>33.7</v>
       </c>
       <c r="K8">
-        <v>20.9</v>
+        <v>19.1</v>
       </c>
       <c r="L8">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="M8">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="N8">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61.2</v>
+        <v>64.3</v>
       </c>
       <c r="C9">
-        <v>32.4</v>
+        <v>28.8</v>
       </c>
       <c r="D9">
-        <v>79.3</v>
+        <v>77.5</v>
       </c>
       <c r="E9">
-        <v>52.3</v>
+        <v>53.1</v>
       </c>
       <c r="F9">
         <v>48.2</v>
       </c>
       <c r="G9">
-        <v>32.1</v>
+        <v>34.7</v>
       </c>
       <c r="H9">
-        <v>58.5</v>
+        <v>60.6</v>
       </c>
       <c r="I9">
-        <v>62.2</v>
+        <v>60.8</v>
       </c>
       <c r="J9">
-        <v>38.4</v>
+        <v>37.4</v>
       </c>
       <c r="K9">
-        <v>18.9</v>
+        <v>20.2</v>
       </c>
       <c r="L9">
-        <v>9.1</v>
+        <v>7.3</v>
       </c>
       <c r="M9">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="N9">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>4.7</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="E10">
-        <v>19.8</v>
+        <v>17.2</v>
       </c>
       <c r="F10">
-        <v>35.9</v>
+        <v>31.9</v>
       </c>
       <c r="G10">
-        <v>32.1</v>
+        <v>33.8</v>
       </c>
       <c r="H10">
-        <v>24.7</v>
+        <v>20.6</v>
       </c>
       <c r="I10">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="J10">
-        <v>8.300000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="K10">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="L10">
-        <v>33.7</v>
+        <v>35.7</v>
       </c>
       <c r="M10">
-        <v>16.3</v>
+        <v>14.1</v>
       </c>
       <c r="N10">
         <v>5.7</v>
@@ -2702,51 +2702,57 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>77.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C11">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
       <c r="D11">
-        <v>4.100000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="E11">
+        <v>28.1</v>
+      </c>
+      <c r="F11">
+        <v>13.9</v>
+      </c>
+      <c r="G11">
+        <v>35.7</v>
+      </c>
+      <c r="H11">
         <v>23.1</v>
       </c>
-      <c r="F11">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>38.9</v>
-      </c>
-      <c r="H11">
-        <v>23.3</v>
-      </c>
       <c r="I11">
-        <v>12</v>
+        <v>11.3</v>
       </c>
       <c r="J11">
-        <v>8.9</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="M11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
@@ -2768,25 +2774,25 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2794,28 +2800,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>114.85</v>
+        <v>123.33</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>124.25</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2826,25 +2832,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>124.25</v>
+        <v>121.37</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>114.85</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2855,25 +2861,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>113.92</v>
+        <v>116.26</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>122.65</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2881,28 +2887,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>104.46</v>
+        <v>109.22</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>123.95</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.846</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2910,28 +2916,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>122.65</v>
+        <v>124.17</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>113.92</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2939,28 +2945,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>109.05</v>
+        <v>107.84</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>112.31</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2968,28 +2974,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>114.53</v>
+        <v>103.85</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>108.84</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2997,28 +3003,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>112.31</v>
+        <v>116.02</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>109.05</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3026,28 +3032,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10">
-        <v>108.84</v>
+        <v>115.56</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>114.53</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3055,28 +3061,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>123.95</v>
+        <v>105.63</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>104.46</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3097,28 +3103,28 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3126,16 +3132,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>0.6923076923076923</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D2">
-        <v>122.6492307692308</v>
+        <v>123.3342857142857</v>
       </c>
       <c r="E2">
-        <v>1594.44</v>
+        <v>1726.68</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3147,7 +3153,7 @@
         <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3155,16 +3161,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3">
-        <v>0.6153846153846154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D3">
-        <v>124.2538461538462</v>
+        <v>121.3685714285714</v>
       </c>
       <c r="E3">
-        <v>1615.3</v>
+        <v>1699.16</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3176,7 +3182,7 @@
         <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3184,16 +3190,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>113.9184615384616</v>
+        <v>116.2628571428572</v>
       </c>
       <c r="E4">
-        <v>1480.94</v>
+        <v>1627.68</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3205,7 +3211,7 @@
         <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3213,16 +3219,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D5">
-        <v>112.3092307692308</v>
+        <v>109.2157142857143</v>
       </c>
       <c r="E5">
-        <v>1460.02</v>
+        <v>1529.02</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3231,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3245,13 +3251,13 @@
         <v>80</v>
       </c>
       <c r="C6">
-        <v>0.8461538461538461</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D6">
-        <v>123.9507692307692</v>
+        <v>124.1728571428571</v>
       </c>
       <c r="E6">
-        <v>1611.36</v>
+        <v>1738.42</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -3260,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3274,13 +3280,13 @@
         <v>79</v>
       </c>
       <c r="C7">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>108.8384615384615</v>
+        <v>107.8428571428572</v>
       </c>
       <c r="E7">
-        <v>1414.9</v>
+        <v>1509.8</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -3289,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3303,25 +3309,25 @@
         <v>81</v>
       </c>
       <c r="C8">
-        <v>0.3846153846153846</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D8">
-        <v>104.4615384615384</v>
+        <v>103.8542857142857</v>
       </c>
       <c r="E8">
-        <v>1358</v>
+        <v>1453.96</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3329,28 +3335,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9">
-        <v>0.3076923076923077</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D9">
-        <v>114.5323076923077</v>
+        <v>116.0228571428571</v>
       </c>
       <c r="E9">
-        <v>1488.92</v>
+        <v>1624.32</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3358,28 +3364,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10">
-        <v>0.3076923076923077</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D10">
-        <v>114.8538461538461</v>
+        <v>115.5614285714286</v>
       </c>
       <c r="E10">
-        <v>1493.1</v>
+        <v>1617.86</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3390,25 +3396,25 @@
         <v>82</v>
       </c>
       <c r="C11">
-        <v>0.3076923076923077</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11">
-        <v>109.0538461538461</v>
+        <v>105.6285714285714</v>
       </c>
       <c r="E11">
-        <v>1417.7</v>
+        <v>1478.8</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3429,16 +3435,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3449,16 +3455,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3469,16 +3475,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3489,16 +3495,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3509,16 +3515,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3529,16 +3535,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3546,19 +3552,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3566,19 +3572,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3589,16 +3595,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3606,19 +3612,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3626,19 +3632,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>-23</v>
+        <v>-31</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3648,57 +3654,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3741,11 +3750,14 @@
       <c r="N2">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3788,11 +3800,14 @@
       <c r="N3">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3835,11 +3850,14 @@
       <c r="N4">
         <v>7</v>
       </c>
-      <c r="O4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3882,11 +3900,14 @@
       <c r="N5">
         <v>7</v>
       </c>
-      <c r="O5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3929,105 +3950,114 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-2</v>
+      </c>
+      <c r="H7">
+        <v>-10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>-5</v>
+      </c>
+      <c r="M7">
+        <v>-8</v>
+      </c>
+      <c r="N7">
+        <v>-12</v>
+      </c>
+      <c r="O7">
+        <v>-11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>-5</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-5</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-7</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-7</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>-7</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>-12</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>-14</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>-23</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-22</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-17</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>-13</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>-6</v>
       </c>
-      <c r="O7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8">
-        <v>-2</v>
-      </c>
-      <c r="H8">
-        <v>-10</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>-5</v>
-      </c>
-      <c r="M8">
-        <v>-8</v>
-      </c>
-      <c r="N8">
-        <v>-12</v>
-      </c>
-      <c r="O8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>-14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4070,102 +4100,111 @@
       <c r="N9">
         <v>-20</v>
       </c>
-      <c r="O9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>-17</v>
+      </c>
+      <c r="P9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D10">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="E10">
-        <v>-5</v>
+        <v>-16</v>
       </c>
       <c r="F10">
         <v>-13</v>
       </c>
       <c r="G10">
-        <v>-6</v>
+        <v>-17</v>
       </c>
       <c r="H10">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="I10">
         <v>-19</v>
       </c>
       <c r="J10">
+        <v>-11</v>
+      </c>
+      <c r="K10">
+        <v>-12</v>
+      </c>
+      <c r="L10">
+        <v>-16</v>
+      </c>
+      <c r="M10">
+        <v>-14</v>
+      </c>
+      <c r="N10">
+        <v>-23</v>
+      </c>
+      <c r="O10">
+        <v>-23</v>
+      </c>
+      <c r="P10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11">
         <v>-13</v>
       </c>
-      <c r="K10">
-        <v>-19</v>
-      </c>
-      <c r="L10">
-        <v>-17</v>
-      </c>
-      <c r="M10">
-        <v>-19</v>
-      </c>
-      <c r="N10">
-        <v>-20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>-4</v>
-      </c>
-      <c r="C11">
-        <v>-4</v>
-      </c>
-      <c r="D11">
-        <v>-8</v>
-      </c>
       <c r="E11">
-        <v>-16</v>
+        <v>-5</v>
       </c>
       <c r="F11">
         <v>-13</v>
       </c>
       <c r="G11">
-        <v>-17</v>
+        <v>-6</v>
       </c>
       <c r="H11">
-        <v>-25</v>
+        <v>-8</v>
       </c>
       <c r="I11">
         <v>-19</v>
       </c>
       <c r="J11">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="K11">
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="L11">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="M11">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="N11">
-        <v>-23</v>
-      </c>
-      <c r="O11" t="s">
-        <v>110</v>
+        <v>-20</v>
+      </c>
+      <c r="O11">
+        <v>-31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="131">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -55,183 +55,207 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
+    <t>9-5-1</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>12-2-1</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Zacierka </t>
+  </si>
+  <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
+    <t>gianni alessio</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Kate Zacierka</t>
+  </si>
+  <si>
+    <t>James Breen</t>
+  </si>
+  <si>
+    <t>Ayush Chivate</t>
+  </si>
+  <si>
     <t>9-5-0</t>
   </si>
   <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
     <t>5-9-0</t>
   </si>
   <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
     <t>4-10-0</t>
   </si>
   <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike Zacierka </t>
-  </si>
-  <si>
-    <t>Gianpierre Lopez</t>
-  </si>
-  <si>
-    <t>jack meehan</t>
-  </si>
-  <si>
-    <t>Derek Alcavage</t>
-  </si>
-  <si>
-    <t>gianni alessio</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t>Kate Zacierka</t>
-  </si>
-  <si>
-    <t>James Breen</t>
-  </si>
-  <si>
-    <t>Ayush Chivate</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -301,30 +325,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑11</t>
   </si>
   <si>
     <t>↑7</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
     <t>↑1</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↓8</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>↓11</t>
   </si>
   <si>
@@ -368,6 +392,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -792,31 +819,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -824,34 +851,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -859,34 +886,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -894,34 +921,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -929,34 +956,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -964,34 +991,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -999,34 +1026,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1034,34 +1061,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
       <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
         <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1069,34 +1096,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1104,34 +1131,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1149,25 +1176,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1331,25 +1358,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1357,25 +1384,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1383,25 +1410,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>-5</v>
+      </c>
+      <c r="F10">
         <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
       </c>
       <c r="G10">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1419,13 +1446,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1436,10 +1463,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1450,10 +1477,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1464,10 +1491,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1475,13 +1502,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1489,13 +1516,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1503,13 +1530,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1520,10 +1547,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1531,13 +1558,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1548,10 +1575,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1562,10 +1589,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1583,16 +1610,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1603,13 +1630,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D2">
-        <v>-2.800000000000001</v>
+        <v>-2.300000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1620,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D3">
-        <v>-0.1999999999999993</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1637,13 +1664,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D4">
-        <v>0.8000000000000007</v>
+        <v>1.4</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1654,13 +1681,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D5">
-        <v>0.4000000000000004</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1671,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6">
-        <v>2.4</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1685,16 +1712,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D7">
-        <v>-1.7</v>
+        <v>-1.4</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1702,16 +1729,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D8">
-        <v>-0.7999999999999998</v>
+        <v>-1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1722,13 +1749,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="D9">
-        <v>1.2</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1739,13 +1766,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D10">
-        <v>0.9000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1762,7 +1789,7 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1780,40 +1807,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2211,49 +2238,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2261,37 +2288,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>97</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="F2">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="G2">
+        <v>82.69999999999999</v>
+      </c>
+      <c r="H2">
         <v>87.5</v>
       </c>
-      <c r="G2">
-        <v>82.89999999999999</v>
-      </c>
-      <c r="H2">
-        <v>90.2</v>
-      </c>
       <c r="I2">
-        <v>76.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="J2">
-        <v>93.30000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="K2">
         <v>97.7</v>
       </c>
       <c r="L2">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2311,40 +2338,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="C3">
-        <v>76.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D3">
-        <v>87.09999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="E3">
-        <v>95.8</v>
+        <v>95.3</v>
       </c>
       <c r="F3">
-        <v>93.40000000000001</v>
+        <v>91</v>
       </c>
       <c r="G3">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="H3">
-        <v>95.7</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="I3">
-        <v>89.60000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="J3">
-        <v>81</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K3">
-        <v>94.8</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="L3">
-        <v>96.89999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="M3">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2361,43 +2388,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>75.5</v>
+        <v>78.2</v>
       </c>
       <c r="C4">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="D4">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E4">
-        <v>91.3</v>
+        <v>91</v>
       </c>
       <c r="F4">
-        <v>94.09999999999999</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="G4">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="H4">
-        <v>94.89999999999999</v>
+        <v>96</v>
       </c>
       <c r="I4">
-        <v>85.90000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="J4">
-        <v>74.8</v>
+        <v>75.8</v>
       </c>
       <c r="K4">
-        <v>89.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="L4">
-        <v>82.39999999999999</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="M4">
-        <v>77.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="N4">
-        <v>82</v>
+        <v>81.2</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2411,43 +2438,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>15.7</v>
+        <v>16.4</v>
       </c>
       <c r="E5">
-        <v>17.2</v>
+        <v>18.8</v>
       </c>
       <c r="F5">
-        <v>44.3</v>
+        <v>41.8</v>
       </c>
       <c r="G5">
-        <v>18.9</v>
+        <v>22.2</v>
       </c>
       <c r="H5">
-        <v>42.2</v>
+        <v>38.7</v>
       </c>
       <c r="I5">
-        <v>55.3</v>
+        <v>52.1</v>
       </c>
       <c r="J5">
-        <v>66.90000000000001</v>
+        <v>62.9</v>
       </c>
       <c r="K5">
-        <v>54.50000000000001</v>
+        <v>54.2</v>
       </c>
       <c r="L5">
-        <v>44.6</v>
+        <v>48.8</v>
       </c>
       <c r="M5">
-        <v>81</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="N5">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2461,13 +2488,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>97.39999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C6">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
       <c r="E6">
         <v>99.7</v>
@@ -2476,13 +2503,13 @@
         <v>99.90000000000001</v>
       </c>
       <c r="G6">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -2511,43 +2538,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C7">
-        <v>83.5</v>
+        <v>80.5</v>
       </c>
       <c r="D7">
-        <v>54.2</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="E7">
-        <v>72.59999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F7">
-        <v>70.3</v>
+        <v>68.2</v>
       </c>
       <c r="G7">
-        <v>89</v>
+        <v>89.7</v>
       </c>
       <c r="H7">
-        <v>68.60000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="I7">
-        <v>86.2</v>
+        <v>86.8</v>
       </c>
       <c r="J7">
-        <v>95.89999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="K7">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L7">
-        <v>97.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="M7">
-        <v>94.89999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="N7">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2561,43 +2588,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>82.8</v>
+        <v>81.2</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="D8">
-        <v>62.5</v>
+        <v>59.4</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F8">
-        <v>16.5</v>
+        <v>18.3</v>
       </c>
       <c r="G8">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="H8">
-        <v>4.100000000000001</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>14.2</v>
+        <v>11.8</v>
       </c>
       <c r="J8">
-        <v>33.7</v>
+        <v>36.2</v>
       </c>
       <c r="K8">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="L8">
-        <v>30.9</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="N8">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2611,43 +2638,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64.3</v>
+        <v>62.4</v>
       </c>
       <c r="C9">
-        <v>28.8</v>
+        <v>31.8</v>
       </c>
       <c r="D9">
-        <v>77.5</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="E9">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="F9">
-        <v>48.2</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="G9">
-        <v>34.7</v>
+        <v>30.9</v>
       </c>
       <c r="H9">
-        <v>60.6</v>
+        <v>60.8</v>
       </c>
       <c r="I9">
-        <v>60.8</v>
+        <v>61.5</v>
       </c>
       <c r="J9">
-        <v>37.4</v>
+        <v>36.1</v>
       </c>
       <c r="K9">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="L9">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9">
-        <v>15.2</v>
+        <v>16.4</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2661,43 +2688,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="C10">
-        <v>5.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="D10">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="E10">
         <v>17.2</v>
       </c>
       <c r="F10">
-        <v>31.9</v>
+        <v>36.4</v>
       </c>
       <c r="G10">
-        <v>33.8</v>
+        <v>32.8</v>
       </c>
       <c r="H10">
-        <v>20.6</v>
+        <v>23.4</v>
       </c>
       <c r="I10">
-        <v>19.9</v>
+        <v>22.8</v>
       </c>
       <c r="J10">
-        <v>10.2</v>
+        <v>9.4</v>
       </c>
       <c r="K10">
         <v>21.5</v>
       </c>
       <c r="L10">
-        <v>35.7</v>
+        <v>34.1</v>
       </c>
       <c r="M10">
-        <v>14.1</v>
+        <v>15.6</v>
       </c>
       <c r="N10">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2711,43 +2738,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="C11">
-        <v>11.1</v>
+        <v>12.7</v>
       </c>
       <c r="D11">
         <v>3.7</v>
       </c>
       <c r="E11">
-        <v>28.1</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>13.9</v>
+        <v>14.5</v>
       </c>
       <c r="G11">
-        <v>35.7</v>
+        <v>37.1</v>
       </c>
       <c r="H11">
-        <v>23.1</v>
+        <v>26.2</v>
       </c>
       <c r="I11">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="J11">
-        <v>6.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2771,28 +2798,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2803,13 +2830,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>123.33</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2832,13 +2859,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>121.37</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2861,13 +2888,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>116.26</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2890,13 +2917,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>109.22</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2919,13 +2946,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>124.17</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2948,13 +2975,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>107.84</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2977,13 +3004,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>103.85</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3006,13 +3033,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>116.02</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3035,13 +3062,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>115.56</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3064,13 +3091,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>105.63</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3100,31 +3127,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3132,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>0.6428571428571429</v>
@@ -3150,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3161,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>0.5714285714285714</v>
@@ -3179,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3190,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -3208,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3219,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -3237,10 +3264,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3248,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>0.8571428571428571</v>
@@ -3266,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3277,7 +3304,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -3295,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3306,7 +3333,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>0.3571428571428572</v>
@@ -3324,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3335,7 +3362,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>0.3571428571428572</v>
@@ -3353,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3364,7 +3391,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>0.3571428571428572</v>
@@ -3382,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3393,7 +3420,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -3411,10 +3438,10 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3432,19 +3459,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3455,16 +3482,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3475,16 +3502,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3495,16 +3522,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3512,19 +3539,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3532,19 +3559,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3555,16 +3582,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3575,16 +3602,16 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3595,16 +3622,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>-17</v>
+        <v>-25</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3612,19 +3639,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>-23</v>
+        <v>-30</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3632,19 +3659,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>-31</v>
+        <v>-34</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3654,60 +3681,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3753,11 +3783,14 @@
       <c r="O2">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3803,11 +3836,14 @@
       <c r="O3">
         <v>31</v>
       </c>
-      <c r="P3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3853,111 +3889,120 @@
       <c r="O4">
         <v>14</v>
       </c>
-      <c r="P4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>-2</v>
+      </c>
+      <c r="J5">
+        <v>-5</v>
+      </c>
+      <c r="K5">
+        <v>-8</v>
+      </c>
+      <c r="L5">
         <v>-4</v>
       </c>
-      <c r="E5">
+      <c r="M5">
         <v>-5</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-6</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>7</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
       <c r="N5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>10</v>
       </c>
-      <c r="P5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>-4</v>
+      </c>
+      <c r="E6">
+        <v>-5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-6</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>-2</v>
-      </c>
-      <c r="J6">
-        <v>-5</v>
-      </c>
-      <c r="K6">
-        <v>-8</v>
-      </c>
-      <c r="L6">
-        <v>-4</v>
-      </c>
-      <c r="M6">
-        <v>-5</v>
-      </c>
       <c r="N6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O6">
         <v>10</v>
       </c>
-      <c r="P6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4003,11 +4048,14 @@
       <c r="O7">
         <v>-11</v>
       </c>
-      <c r="P7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>-14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4053,11 +4101,14 @@
       <c r="O8">
         <v>-14</v>
       </c>
-      <c r="P8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4103,108 +4154,117 @@
       <c r="O9">
         <v>-17</v>
       </c>
-      <c r="P9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-25</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="C10">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="E10">
-        <v>-16</v>
+        <v>-5</v>
       </c>
       <c r="F10">
         <v>-13</v>
       </c>
       <c r="G10">
-        <v>-17</v>
+        <v>-6</v>
       </c>
       <c r="H10">
-        <v>-25</v>
+        <v>-8</v>
       </c>
       <c r="I10">
         <v>-19</v>
       </c>
       <c r="J10">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="K10">
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="L10">
+        <v>-17</v>
+      </c>
+      <c r="M10">
+        <v>-19</v>
+      </c>
+      <c r="N10">
+        <v>-20</v>
+      </c>
+      <c r="O10">
+        <v>-31</v>
+      </c>
+      <c r="P10">
+        <v>-30</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>-4</v>
+      </c>
+      <c r="C11">
+        <v>-4</v>
+      </c>
+      <c r="D11">
+        <v>-8</v>
+      </c>
+      <c r="E11">
         <v>-16</v>
-      </c>
-      <c r="M10">
-        <v>-14</v>
-      </c>
-      <c r="N10">
-        <v>-23</v>
-      </c>
-      <c r="O10">
-        <v>-23</v>
-      </c>
-      <c r="P10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-2</v>
-      </c>
-      <c r="C11">
-        <v>-6</v>
-      </c>
-      <c r="D11">
-        <v>-13</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
       </c>
       <c r="F11">
         <v>-13</v>
       </c>
       <c r="G11">
-        <v>-6</v>
+        <v>-17</v>
       </c>
       <c r="H11">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="I11">
         <v>-19</v>
       </c>
       <c r="J11">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="K11">
-        <v>-19</v>
+        <v>-12</v>
       </c>
       <c r="L11">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="M11">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="N11">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="O11">
-        <v>-31</v>
-      </c>
-      <c r="P11" t="s">
-        <v>100</v>
+        <v>-23</v>
+      </c>
+      <c r="P11">
+        <v>-34</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="130">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -55,40 +55,40 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>9-5-1</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>12-2-1</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
+    <t>9-6-1</t>
+  </si>
+  <si>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>13-2-1</t>
+  </si>
+  <si>
+    <t>13-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -325,31 +325,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑8</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓11</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -395,6 +389,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -819,31 +816,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -854,31 +851,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -886,34 +883,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -921,19 +918,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -942,10 +939,10 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -956,31 +953,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -994,7 +991,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1003,16 +1000,16 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1026,34 +1023,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1070,10 +1067,10 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -1085,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -1099,7 +1096,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1108,22 +1105,22 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1134,16 +1131,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1155,10 +1152,10 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1176,25 +1173,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1403,32 +1400,6 @@
       </c>
       <c r="H9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1463,10 +1434,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1477,10 +1448,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1491,10 +1462,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1505,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1516,13 +1487,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1530,13 +1501,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1544,10 +1515,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1561,10 +1532,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1575,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1589,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1630,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>9.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="D2">
-        <v>-2.300000000000001</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -1647,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="D3">
-        <v>0.6999999999999993</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1664,13 +1635,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9.4</v>
+        <v>10.3</v>
       </c>
       <c r="D4">
-        <v>1.4</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1681,13 +1652,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>8.300000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D5">
         <v>0.3000000000000007</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1698,13 +1669,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D6">
-        <v>2.199999999999999</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1712,16 +1683,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D7">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1729,16 +1700,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D8">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1749,10 +1720,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D9">
-        <v>0.4000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1763,16 +1734,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="D10">
-        <v>1.3</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1780,16 +1751,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="D11">
-        <v>-0.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2288,34 +2259,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>97.39999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F2">
-        <v>88.90000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="G2">
-        <v>82.69999999999999</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="H2">
-        <v>87.5</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="I2">
-        <v>78.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="J2">
-        <v>93.40000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="K2">
-        <v>97.7</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="L2">
         <v>99.7</v>
@@ -2338,40 +2309,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="C3">
-        <v>75.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D3">
-        <v>84.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="E3">
+        <v>96.8</v>
+      </c>
+      <c r="F3">
+        <v>93</v>
+      </c>
+      <c r="G3">
+        <v>96.8</v>
+      </c>
+      <c r="H3">
         <v>95.3</v>
       </c>
-      <c r="F3">
-        <v>91</v>
-      </c>
-      <c r="G3">
-        <v>98.7</v>
-      </c>
-      <c r="H3">
-        <v>94.89999999999999</v>
-      </c>
       <c r="I3">
-        <v>90.8</v>
+        <v>90.3</v>
       </c>
       <c r="J3">
-        <v>83.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>94.89999999999999</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="L3">
-        <v>95.89999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="M3">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2388,43 +2359,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78.2</v>
+        <v>76.3</v>
       </c>
       <c r="C4">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D4">
         <v>99.09999999999999</v>
       </c>
       <c r="E4">
-        <v>91</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="F4">
-        <v>93.89999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="G4">
         <v>96.5</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4">
-        <v>84.3</v>
+        <v>84.7</v>
       </c>
       <c r="J4">
-        <v>75.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="K4">
-        <v>90.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="L4">
-        <v>81.69999999999999</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="M4">
-        <v>76.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="N4">
-        <v>81.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2438,43 +2409,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
-        <v>16.4</v>
+        <v>14.7</v>
       </c>
       <c r="E5">
-        <v>18.8</v>
+        <v>17.1</v>
       </c>
       <c r="F5">
-        <v>41.8</v>
+        <v>40.8</v>
       </c>
       <c r="G5">
-        <v>22.2</v>
+        <v>24.5</v>
       </c>
       <c r="H5">
-        <v>38.7</v>
+        <v>35.6</v>
       </c>
       <c r="I5">
-        <v>52.1</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="J5">
-        <v>62.9</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="K5">
-        <v>54.2</v>
+        <v>55.1</v>
       </c>
       <c r="L5">
-        <v>48.8</v>
+        <v>46</v>
       </c>
       <c r="M5">
-        <v>79.90000000000001</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2488,19 +2459,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>95.59999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D6">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="E6">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="F6">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -2538,43 +2509,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="C7">
-        <v>80.5</v>
+        <v>81.8</v>
       </c>
       <c r="D7">
-        <v>57.99999999999999</v>
+        <v>57.2</v>
       </c>
       <c r="E7">
-        <v>74.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="F7">
-        <v>68.2</v>
+        <v>72.7</v>
       </c>
       <c r="G7">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="H7">
-        <v>67.5</v>
+        <v>69.5</v>
       </c>
       <c r="I7">
-        <v>86.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="J7">
         <v>94.8</v>
       </c>
       <c r="K7">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="L7">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>95.19999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="N7">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2588,43 +2559,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>81.2</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="C8">
-        <v>95.5</v>
+        <v>97.2</v>
       </c>
       <c r="D8">
-        <v>59.4</v>
+        <v>61.1</v>
       </c>
       <c r="E8">
-        <v>26.1</v>
+        <v>27.5</v>
       </c>
       <c r="F8">
-        <v>18.3</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>9.4</v>
+        <v>10.3</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="I8">
         <v>11.8</v>
       </c>
       <c r="J8">
-        <v>36.2</v>
+        <v>33.1</v>
       </c>
       <c r="K8">
-        <v>19.3</v>
+        <v>18.2</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>29.7</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="N8">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2638,43 +2609,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62.4</v>
+        <v>64.7</v>
       </c>
       <c r="C9">
-        <v>31.8</v>
+        <v>27.5</v>
       </c>
       <c r="D9">
-        <v>79.10000000000001</v>
+        <v>77</v>
       </c>
       <c r="E9">
-        <v>53.2</v>
+        <v>50.9</v>
       </c>
       <c r="F9">
-        <v>47.09999999999999</v>
+        <v>48.1</v>
       </c>
       <c r="G9">
-        <v>30.9</v>
+        <v>33.2</v>
       </c>
       <c r="H9">
-        <v>60.8</v>
+        <v>60.4</v>
       </c>
       <c r="I9">
-        <v>61.5</v>
+        <v>61.6</v>
       </c>
       <c r="J9">
-        <v>36.1</v>
+        <v>37.1</v>
       </c>
       <c r="K9">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="L9">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="M9">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="N9">
-        <v>6.5</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2688,43 +2659,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="D10">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="E10">
-        <v>17.2</v>
+        <v>19.9</v>
       </c>
       <c r="F10">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="G10">
-        <v>32.8</v>
+        <v>31.6</v>
       </c>
       <c r="H10">
-        <v>23.4</v>
+        <v>22</v>
       </c>
       <c r="I10">
-        <v>22.8</v>
+        <v>20.4</v>
       </c>
       <c r="J10">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="K10">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="L10">
-        <v>34.1</v>
+        <v>33.4</v>
       </c>
       <c r="M10">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N10">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2738,43 +2709,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78.3</v>
+        <v>76.2</v>
       </c>
       <c r="C11">
-        <v>12.7</v>
+        <v>13.9</v>
       </c>
       <c r="D11">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="F11">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>37.1</v>
+        <v>35.6</v>
       </c>
       <c r="H11">
-        <v>26.2</v>
+        <v>27.8</v>
       </c>
       <c r="I11">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="J11">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="M11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="N11">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3485,10 +3456,10 @@
         <v>62</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>100</v>
@@ -3505,10 +3476,10 @@
         <v>69</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>101</v>
@@ -3525,7 +3496,7 @@
         <v>61</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -3545,10 +3516,10 @@
         <v>63</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>103</v>
@@ -3565,13 +3536,13 @@
         <v>65</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3585,13 +3556,13 @@
         <v>66</v>
       </c>
       <c r="D7">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3608,10 +3579,10 @@
         <v>-20</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3619,19 +3590,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3639,16 +3610,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>104</v>
@@ -3665,13 +3636,13 @@
         <v>67</v>
       </c>
       <c r="D11">
-        <v>-34</v>
+        <v>-31</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3681,63 +3652,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3786,11 +3760,14 @@
       <c r="P2">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3839,11 +3816,14 @@
       <c r="P3">
         <v>35</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3892,11 +3872,14 @@
       <c r="P4">
         <v>25</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3945,11 +3928,14 @@
       <c r="P5">
         <v>17</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3998,11 +3984,14 @@
       <c r="P6">
         <v>11</v>
       </c>
-      <c r="Q6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4051,11 +4040,14 @@
       <c r="P7">
         <v>-14</v>
       </c>
-      <c r="Q7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7">
+        <v>-20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4104,117 +4096,126 @@
       <c r="P8">
         <v>-20</v>
       </c>
-      <c r="Q8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>-20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="E9">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>-13</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="J9">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="K9">
-        <v>-13</v>
+        <v>-19</v>
       </c>
       <c r="L9">
+        <v>-17</v>
+      </c>
+      <c r="M9">
         <v>-19</v>
-      </c>
-      <c r="M9">
-        <v>-17</v>
       </c>
       <c r="N9">
         <v>-20</v>
       </c>
       <c r="O9">
+        <v>-31</v>
+      </c>
+      <c r="P9">
+        <v>-30</v>
+      </c>
+      <c r="Q9">
+        <v>-30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>-12</v>
+      </c>
+      <c r="K10">
+        <v>-13</v>
+      </c>
+      <c r="L10">
+        <v>-19</v>
+      </c>
+      <c r="M10">
         <v>-17</v>
-      </c>
-      <c r="P9">
-        <v>-25</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-2</v>
-      </c>
-      <c r="C10">
-        <v>-6</v>
-      </c>
-      <c r="D10">
-        <v>-13</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-13</v>
-      </c>
-      <c r="G10">
-        <v>-6</v>
-      </c>
-      <c r="H10">
-        <v>-8</v>
-      </c>
-      <c r="I10">
-        <v>-19</v>
-      </c>
-      <c r="J10">
-        <v>-13</v>
-      </c>
-      <c r="K10">
-        <v>-19</v>
-      </c>
-      <c r="L10">
-        <v>-17</v>
-      </c>
-      <c r="M10">
-        <v>-19</v>
       </c>
       <c r="N10">
         <v>-20</v>
       </c>
       <c r="O10">
+        <v>-17</v>
+      </c>
+      <c r="P10">
+        <v>-25</v>
+      </c>
+      <c r="Q10">
         <v>-31</v>
       </c>
-      <c r="P10">
-        <v>-30</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4263,8 +4264,11 @@
       <c r="P11">
         <v>-34</v>
       </c>
-      <c r="Q11" t="s">
-        <v>108</v>
+      <c r="Q11">
+        <v>-31</v>
+      </c>
+      <c r="R11" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -2259,37 +2259,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>97.2</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E2">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F2">
-        <v>85.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="G2">
-        <v>81.69999999999999</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="H2">
-        <v>90.10000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="I2">
-        <v>79.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="J2">
-        <v>94.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="K2">
-        <v>97.89999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="L2">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2309,40 +2309,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="C3">
-        <v>76.3</v>
+        <v>77.3</v>
       </c>
       <c r="D3">
-        <v>86.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="E3">
-        <v>96.8</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="F3">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="G3">
-        <v>96.8</v>
+        <v>98</v>
       </c>
       <c r="H3">
-        <v>95.3</v>
+        <v>94</v>
       </c>
       <c r="I3">
-        <v>90.3</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="K3">
-        <v>94.69999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="L3">
-        <v>96.89999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M3">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2359,43 +2359,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C4">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="E4">
-        <v>91.10000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="F4">
-        <v>94.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G4">
-        <v>96.5</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="H4">
-        <v>95</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="I4">
-        <v>84.7</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="J4">
-        <v>73.90000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="K4">
-        <v>91.2</v>
+        <v>89.3</v>
       </c>
       <c r="L4">
-        <v>82.89999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="M4">
-        <v>77.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="N4">
-        <v>81.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2412,37 +2412,37 @@
         <v>3.9</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E5">
-        <v>17.1</v>
+        <v>16.5</v>
       </c>
       <c r="F5">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="G5">
-        <v>24.5</v>
+        <v>21.5</v>
       </c>
       <c r="H5">
-        <v>35.6</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="I5">
-        <v>54.50000000000001</v>
+        <v>53.8</v>
       </c>
       <c r="J5">
-        <v>65.60000000000001</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="K5">
-        <v>55.1</v>
+        <v>59.4</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="M5">
-        <v>80.80000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="N5">
         <v>99.8</v>
@@ -2459,22 +2459,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>96.39999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="C6">
         <v>99.90000000000001</v>
       </c>
       <c r="D6">
-        <v>99.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E6">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F6">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -2509,43 +2509,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>99</v>
+        <v>98.2</v>
       </c>
       <c r="C7">
-        <v>81.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D7">
-        <v>57.2</v>
+        <v>55.2</v>
       </c>
       <c r="E7">
-        <v>73.5</v>
+        <v>72.7</v>
       </c>
       <c r="F7">
-        <v>72.7</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="G7">
-        <v>89.8</v>
+        <v>87.2</v>
       </c>
       <c r="H7">
-        <v>69.5</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="I7">
-        <v>85.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="J7">
-        <v>94.8</v>
+        <v>96.2</v>
       </c>
       <c r="K7">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="M7">
-        <v>94.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="N7">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2559,43 +2559,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>81.69999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="C8">
         <v>97.2</v>
       </c>
       <c r="D8">
-        <v>61.1</v>
+        <v>61.3</v>
       </c>
       <c r="E8">
-        <v>27.5</v>
+        <v>29.4</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="G8">
-        <v>10.3</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="I8">
-        <v>11.8</v>
+        <v>10.4</v>
       </c>
       <c r="J8">
-        <v>33.1</v>
+        <v>34.2</v>
       </c>
       <c r="K8">
-        <v>18.2</v>
+        <v>19.8</v>
       </c>
       <c r="L8">
-        <v>29.7</v>
+        <v>30.7</v>
       </c>
       <c r="M8">
-        <v>14.5</v>
+        <v>16.8</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2609,43 +2609,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64.7</v>
+        <v>64.5</v>
       </c>
       <c r="C9">
         <v>27.5</v>
       </c>
       <c r="D9">
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="E9">
-        <v>50.9</v>
+        <v>52.8</v>
       </c>
       <c r="F9">
-        <v>48.1</v>
+        <v>48.8</v>
       </c>
       <c r="G9">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="H9">
-        <v>60.4</v>
+        <v>59.7</v>
       </c>
       <c r="I9">
-        <v>61.6</v>
+        <v>61.3</v>
       </c>
       <c r="J9">
-        <v>37.1</v>
+        <v>37.8</v>
       </c>
       <c r="K9">
-        <v>20.3</v>
+        <v>18.3</v>
       </c>
       <c r="L9">
-        <v>7.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>16.8</v>
       </c>
       <c r="N9">
-        <v>7.000000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2659,40 +2659,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C10">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="D10">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="E10">
+        <v>18.4</v>
+      </c>
+      <c r="F10">
+        <v>35.3</v>
+      </c>
+      <c r="G10">
+        <v>33.5</v>
+      </c>
+      <c r="H10">
+        <v>24.3</v>
+      </c>
+      <c r="I10">
         <v>19.9</v>
       </c>
-      <c r="F10">
-        <v>36.5</v>
-      </c>
-      <c r="G10">
-        <v>31.6</v>
-      </c>
-      <c r="H10">
-        <v>22</v>
-      </c>
-      <c r="I10">
-        <v>20.4</v>
-      </c>
       <c r="J10">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="K10">
-        <v>21.7</v>
+        <v>20.1</v>
       </c>
       <c r="L10">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="M10">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N10">
         <v>5.5</v>
@@ -2709,43 +2709,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76.2</v>
+        <v>77.2</v>
       </c>
       <c r="C11">
-        <v>13.9</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="G11">
-        <v>35.6</v>
+        <v>38.3</v>
       </c>
       <c r="H11">
-        <v>27.8</v>
+        <v>25</v>
       </c>
       <c r="I11">
-        <v>10.9</v>
+        <v>9.9</v>
       </c>
       <c r="J11">
-        <v>6.9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="K11">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>4.6</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="M11">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="N11">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O11">
         <v>0</v>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="130">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -55,40 +55,43 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>9-6-1</t>
-  </si>
-  <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>13-2-1</t>
-  </si>
-  <si>
-    <t>13-3-0</t>
+    <t>10-6-1</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>14-2-1</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -316,82 +319,79 @@
     <t>4.0-10.0</t>
   </si>
   <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Week 15</t>
-  </si>
-  <si>
-    <t>Week 16</t>
+    <t>↓1</t>
   </si>
   <si>
     <t>Week</t>
@@ -819,28 +819,28 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -851,31 +851,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -889,28 +889,28 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -927,10 +927,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -939,13 +939,13 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -956,31 +956,31 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -991,31 +991,31 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1026,31 +1026,31 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1058,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1067,22 +1067,22 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -1096,31 +1096,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1128,34 +1128,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1199,22 +1199,22 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>31</v>
+        <v>-26</v>
       </c>
       <c r="F2">
-        <v>-19</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -1225,25 +1225,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>-17</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>-24</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1251,25 +1251,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>-6</v>
+        <v>-19</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1277,25 +1277,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>-17</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1303,25 +1303,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>-17</v>
+        <v>-6</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1329,25 +1329,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1355,25 +1355,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1381,25 +1381,51 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>18</v>
-      </c>
-      <c r="G9">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>36</v>
+      </c>
+      <c r="F10">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
-        <v>5</v>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1417,13 +1443,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1434,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1445,13 +1471,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1459,13 +1485,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1473,13 +1499,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1487,13 +1513,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1504,10 +1530,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1515,13 +1541,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1532,10 +1558,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1546,10 +1572,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1560,10 +1586,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1581,16 +1607,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1598,16 +1624,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10.3</v>
+        <v>11.3</v>
       </c>
       <c r="D2">
-        <v>-2.699999999999999</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1615,16 +1641,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
       <c r="D3">
-        <v>1.300000000000001</v>
+        <v>-2.800000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1635,13 +1661,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="D4">
-        <v>1.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1652,13 +1678,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D5">
-        <v>0.3000000000000007</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1669,10 +1695,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D6">
-        <v>1.699999999999999</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1686,13 +1712,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D7">
-        <v>-1.3</v>
+        <v>-1.9</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1709,7 +1735,7 @@
         <v>-1.4</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1720,13 +1746,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1737,13 +1763,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="D10">
-        <v>-0.4000000000000004</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1754,13 +1780,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="D11">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1778,40 +1804,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2209,49 +2235,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2259,37 +2285,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>97.2</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="E2">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="F2">
-        <v>87.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="G2">
-        <v>83.09999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="H2">
-        <v>89.7</v>
+        <v>89.3</v>
       </c>
       <c r="I2">
-        <v>78.7</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="J2">
         <v>92.2</v>
       </c>
       <c r="K2">
-        <v>97.3</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="L2">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2309,40 +2335,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="C3">
-        <v>77.3</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>85.7</v>
+        <v>86.5</v>
       </c>
       <c r="E3">
-        <v>95.19999999999999</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="F3">
-        <v>92.7</v>
+        <v>94</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="H3">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I3">
-        <v>90.60000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="J3">
-        <v>81.10000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K3">
-        <v>94.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="L3">
-        <v>97.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="M3">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2359,43 +2385,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>77.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="D4">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E4">
-        <v>91.3</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="F4">
-        <v>94.09999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G4">
-        <v>96.39999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H4">
-        <v>94.89999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I4">
-        <v>87.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="J4">
-        <v>73.8</v>
+        <v>75.3</v>
       </c>
       <c r="K4">
-        <v>89.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="L4">
-        <v>82.8</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="M4">
-        <v>75.5</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="N4">
-        <v>82.5</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2409,40 +2435,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="E5">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>41.4</v>
+        <v>38.5</v>
       </c>
       <c r="G5">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="H5">
-        <v>39.90000000000001</v>
+        <v>38</v>
       </c>
       <c r="I5">
-        <v>53.8</v>
+        <v>53.2</v>
       </c>
       <c r="J5">
-        <v>68.60000000000001</v>
+        <v>68.30000000000001</v>
       </c>
       <c r="K5">
-        <v>59.4</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="L5">
-        <v>46.2</v>
+        <v>48.7</v>
       </c>
       <c r="M5">
-        <v>81.59999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="N5">
         <v>99.8</v>
@@ -2459,13 +2485,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>96.7</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>99.90000000000001</v>
       </c>
       <c r="D6">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E6">
         <v>99.59999999999999</v>
@@ -2474,7 +2500,7 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -2509,40 +2535,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="C7">
-        <v>84.59999999999999</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="D7">
-        <v>55.2</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="E7">
-        <v>72.7</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="F7">
-        <v>71.39999999999999</v>
+        <v>72</v>
       </c>
       <c r="G7">
-        <v>87.2</v>
+        <v>89.5</v>
       </c>
       <c r="H7">
-        <v>68.60000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="I7">
-        <v>88.3</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="J7">
-        <v>96.2</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="K7">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="L7">
         <v>98.59999999999999</v>
       </c>
       <c r="M7">
-        <v>92.90000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="N7">
         <v>99.09999999999999</v>
@@ -2559,40 +2585,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>82.19999999999999</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="C8">
-        <v>97.2</v>
+        <v>96.3</v>
       </c>
       <c r="D8">
-        <v>61.3</v>
+        <v>59.8</v>
       </c>
       <c r="E8">
-        <v>29.4</v>
+        <v>28.4</v>
       </c>
       <c r="F8">
-        <v>15.6</v>
+        <v>16.9</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I8">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="J8">
-        <v>34.2</v>
+        <v>32.2</v>
       </c>
       <c r="K8">
-        <v>19.8</v>
+        <v>18.8</v>
       </c>
       <c r="L8">
-        <v>30.7</v>
+        <v>27.6</v>
       </c>
       <c r="M8">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="N8">
         <v>6.1</v>
@@ -2609,43 +2635,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64.5</v>
+        <v>60.9</v>
       </c>
       <c r="C9">
-        <v>27.5</v>
+        <v>29.7</v>
       </c>
       <c r="D9">
-        <v>77.5</v>
+        <v>77.8</v>
       </c>
       <c r="E9">
-        <v>52.8</v>
+        <v>51.8</v>
       </c>
       <c r="F9">
-        <v>48.8</v>
+        <v>46.8</v>
       </c>
       <c r="G9">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="H9">
-        <v>59.7</v>
+        <v>60.7</v>
       </c>
       <c r="I9">
-        <v>61.3</v>
+        <v>63.1</v>
       </c>
       <c r="J9">
-        <v>37.8</v>
+        <v>36.4</v>
       </c>
       <c r="K9">
-        <v>18.3</v>
+        <v>20.3</v>
       </c>
       <c r="L9">
-        <v>7.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M9">
-        <v>16.8</v>
+        <v>14.8</v>
       </c>
       <c r="N9">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2662,40 +2688,40 @@
         <v>1.1</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E10">
-        <v>18.4</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>35.3</v>
+        <v>37</v>
       </c>
       <c r="G10">
-        <v>33.5</v>
+        <v>31.3</v>
       </c>
       <c r="H10">
-        <v>24.3</v>
+        <v>23.7</v>
       </c>
       <c r="I10">
-        <v>19.9</v>
+        <v>20.6</v>
       </c>
       <c r="J10">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="K10">
-        <v>20.1</v>
+        <v>23.2</v>
       </c>
       <c r="L10">
-        <v>33.7</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>15.4</v>
+        <v>14</v>
       </c>
       <c r="N10">
-        <v>5.5</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2709,43 +2735,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>77.2</v>
+        <v>79.2</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13.1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="E11">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="F11">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="G11">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>26.6</v>
       </c>
       <c r="I11">
-        <v>9.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J11">
-        <v>7.000000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K11">
+        <v>1.6</v>
+      </c>
+      <c r="L11">
+        <v>4.8</v>
+      </c>
+      <c r="M11">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="N11">
         <v>2.1</v>
-      </c>
-      <c r="L11">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="M11">
-        <v>1.2</v>
-      </c>
-      <c r="N11">
-        <v>1.7</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2769,28 +2795,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2801,13 +2827,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>123.33</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2830,13 +2856,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>121.37</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2859,13 +2885,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>116.26</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2888,13 +2914,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>109.22</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2917,13 +2943,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>124.17</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2946,13 +2972,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>107.84</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2975,13 +3001,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>103.85</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3004,13 +3030,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>116.02</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3033,13 +3059,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>115.56</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3062,13 +3088,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>105.63</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3098,31 +3124,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3130,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>0.6428571428571429</v>
@@ -3148,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3159,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>0.5714285714285714</v>
@@ -3177,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3188,7 +3214,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -3206,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3217,7 +3243,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -3235,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3246,7 +3272,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>0.8571428571428571</v>
@@ -3264,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3275,7 +3301,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -3293,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3304,7 +3330,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>0.3571428571428572</v>
@@ -3322,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3333,7 +3359,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>0.3571428571428572</v>
@@ -3351,10 +3377,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3362,7 +3388,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>0.3571428571428572</v>
@@ -3380,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3391,7 +3417,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -3409,10 +3435,10 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3421,236 +3447,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7">
-        <v>-20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8">
-        <v>-20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9">
-        <v>-30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10">
-        <v>-31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11">
-        <v>-31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -3660,90 +3456,90 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K2">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>28</v>
@@ -3752,54 +3548,54 @@
         <v>28</v>
       </c>
       <c r="N2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O2">
         <v>31</v>
       </c>
       <c r="P2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q2">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="R2">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J3">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>28</v>
@@ -3808,19 +3604,19 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3">
         <v>31</v>
       </c>
       <c r="P3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>101</v>
+        <v>38</v>
+      </c>
+      <c r="R3">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3875,8 +3671,8 @@
       <c r="Q4">
         <v>31</v>
       </c>
-      <c r="R4" t="s">
-        <v>102</v>
+      <c r="R4">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3931,8 +3727,8 @@
       <c r="Q5">
         <v>25</v>
       </c>
-      <c r="R5" t="s">
-        <v>103</v>
+      <c r="R5">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3987,8 +3783,8 @@
       <c r="Q6">
         <v>7</v>
       </c>
-      <c r="R6" t="s">
-        <v>101</v>
+      <c r="R6">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4043,8 +3839,8 @@
       <c r="Q7">
         <v>-20</v>
       </c>
-      <c r="R7" t="s">
-        <v>104</v>
+      <c r="R7">
+        <v>-22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4099,176 +3895,835 @@
       <c r="Q8">
         <v>-20</v>
       </c>
-      <c r="R8" t="s">
-        <v>105</v>
+      <c r="R8">
+        <v>-24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D9">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="E9">
-        <v>-5</v>
+        <v>-16</v>
       </c>
       <c r="F9">
         <v>-13</v>
       </c>
       <c r="G9">
-        <v>-6</v>
+        <v>-17</v>
       </c>
       <c r="H9">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="I9">
         <v>-19</v>
       </c>
       <c r="J9">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="K9">
-        <v>-19</v>
+        <v>-12</v>
       </c>
       <c r="L9">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="M9">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="N9">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="O9">
+        <v>-23</v>
+      </c>
+      <c r="P9">
+        <v>-34</v>
+      </c>
+      <c r="Q9">
         <v>-31</v>
       </c>
-      <c r="P9">
-        <v>-30</v>
-      </c>
-      <c r="Q9">
-        <v>-30</v>
-      </c>
-      <c r="R9" t="s">
-        <v>105</v>
+      <c r="R9">
+        <v>-26</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C10">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="E10">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>-13</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="J10">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="K10">
-        <v>-13</v>
+        <v>-19</v>
       </c>
       <c r="L10">
+        <v>-17</v>
+      </c>
+      <c r="M10">
         <v>-19</v>
-      </c>
-      <c r="M10">
-        <v>-17</v>
       </c>
       <c r="N10">
         <v>-20</v>
       </c>
       <c r="O10">
-        <v>-17</v>
+        <v>-31</v>
       </c>
       <c r="P10">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="Q10">
+        <v>-30</v>
+      </c>
+      <c r="R10">
         <v>-31</v>
-      </c>
-      <c r="R10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D11">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>-12</v>
+      </c>
+      <c r="K11">
         <v>-13</v>
       </c>
-      <c r="G11">
+      <c r="L11">
+        <v>-19</v>
+      </c>
+      <c r="M11">
         <v>-17</v>
       </c>
-      <c r="H11">
+      <c r="N11">
+        <v>-20</v>
+      </c>
+      <c r="O11">
+        <v>-17</v>
+      </c>
+      <c r="P11">
         <v>-25</v>
-      </c>
-      <c r="I11">
-        <v>-19</v>
-      </c>
-      <c r="J11">
-        <v>-11</v>
-      </c>
-      <c r="K11">
-        <v>-12</v>
-      </c>
-      <c r="L11">
-        <v>-16</v>
-      </c>
-      <c r="M11">
-        <v>-14</v>
-      </c>
-      <c r="N11">
-        <v>-23</v>
-      </c>
-      <c r="O11">
-        <v>-23</v>
-      </c>
-      <c r="P11">
-        <v>-34</v>
       </c>
       <c r="Q11">
         <v>-31</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11">
+        <v>-35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>-6</v>
+      </c>
+      <c r="C2">
+        <v>-4</v>
+      </c>
+      <c r="D2">
+        <v>-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>-2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>28</v>
+      </c>
+      <c r="M2">
+        <v>28</v>
+      </c>
+      <c r="N2">
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <v>31</v>
+      </c>
+      <c r="P2">
+        <v>35</v>
+      </c>
+      <c r="Q2">
+        <v>31</v>
+      </c>
+      <c r="R2">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>35</v>
+      </c>
+      <c r="L3">
+        <v>28</v>
+      </c>
+      <c r="M3">
+        <v>28</v>
+      </c>
+      <c r="N3">
+        <v>35</v>
+      </c>
+      <c r="O3">
+        <v>31</v>
+      </c>
+      <c r="P3">
+        <v>36</v>
+      </c>
+      <c r="Q3">
+        <v>38</v>
+      </c>
+      <c r="R3">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>25</v>
+      </c>
+      <c r="Q4">
+        <v>31</v>
+      </c>
+      <c r="R4">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>-2</v>
+      </c>
+      <c r="J5">
+        <v>-5</v>
+      </c>
+      <c r="K5">
+        <v>-8</v>
+      </c>
+      <c r="L5">
+        <v>-4</v>
+      </c>
+      <c r="M5">
+        <v>-5</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>17</v>
+      </c>
+      <c r="Q5">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>28</v>
+      </c>
+      <c r="S5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>-4</v>
+      </c>
+      <c r="E6">
+        <v>-5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-6</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>12</v>
+      </c>
+      <c r="S6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-2</v>
+      </c>
+      <c r="H7">
+        <v>-10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>-5</v>
+      </c>
+      <c r="M7">
+        <v>-8</v>
+      </c>
+      <c r="N7">
+        <v>-12</v>
+      </c>
+      <c r="O7">
+        <v>-11</v>
+      </c>
+      <c r="P7">
+        <v>-14</v>
+      </c>
+      <c r="Q7">
+        <v>-20</v>
+      </c>
+      <c r="R7">
+        <v>-22</v>
+      </c>
+      <c r="S7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>-5</v>
+      </c>
+      <c r="C8">
+        <v>-5</v>
+      </c>
+      <c r="D8">
+        <v>-7</v>
+      </c>
+      <c r="E8">
+        <v>-7</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-7</v>
+      </c>
+      <c r="H8">
+        <v>-12</v>
+      </c>
+      <c r="I8">
+        <v>-14</v>
+      </c>
+      <c r="J8">
+        <v>-23</v>
+      </c>
+      <c r="K8">
+        <v>-22</v>
+      </c>
+      <c r="L8">
+        <v>-17</v>
+      </c>
+      <c r="M8">
+        <v>-13</v>
+      </c>
+      <c r="N8">
+        <v>-6</v>
+      </c>
+      <c r="O8">
+        <v>-14</v>
+      </c>
+      <c r="P8">
+        <v>-20</v>
+      </c>
+      <c r="Q8">
+        <v>-20</v>
+      </c>
+      <c r="R8">
+        <v>-24</v>
+      </c>
+      <c r="S8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>-8</v>
+      </c>
+      <c r="E9">
+        <v>-16</v>
+      </c>
+      <c r="F9">
+        <v>-13</v>
+      </c>
+      <c r="G9">
+        <v>-17</v>
+      </c>
+      <c r="H9">
+        <v>-25</v>
+      </c>
+      <c r="I9">
+        <v>-19</v>
+      </c>
+      <c r="J9">
+        <v>-11</v>
+      </c>
+      <c r="K9">
+        <v>-12</v>
+      </c>
+      <c r="L9">
+        <v>-16</v>
+      </c>
+      <c r="M9">
+        <v>-14</v>
+      </c>
+      <c r="N9">
+        <v>-23</v>
+      </c>
+      <c r="O9">
+        <v>-23</v>
+      </c>
+      <c r="P9">
+        <v>-34</v>
+      </c>
+      <c r="Q9">
+        <v>-31</v>
+      </c>
+      <c r="R9">
+        <v>-26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>-13</v>
+      </c>
+      <c r="E10">
+        <v>-5</v>
+      </c>
+      <c r="F10">
+        <v>-13</v>
+      </c>
+      <c r="G10">
+        <v>-6</v>
+      </c>
+      <c r="H10">
+        <v>-8</v>
+      </c>
+      <c r="I10">
+        <v>-19</v>
+      </c>
+      <c r="J10">
+        <v>-13</v>
+      </c>
+      <c r="K10">
+        <v>-19</v>
+      </c>
+      <c r="L10">
+        <v>-17</v>
+      </c>
+      <c r="M10">
+        <v>-19</v>
+      </c>
+      <c r="N10">
+        <v>-20</v>
+      </c>
+      <c r="O10">
+        <v>-31</v>
+      </c>
+      <c r="P10">
+        <v>-30</v>
+      </c>
+      <c r="Q10">
+        <v>-30</v>
+      </c>
+      <c r="R10">
+        <v>-31</v>
+      </c>
+      <c r="S10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>-12</v>
+      </c>
+      <c r="K11">
+        <v>-13</v>
+      </c>
+      <c r="L11">
+        <v>-19</v>
+      </c>
+      <c r="M11">
+        <v>-17</v>
+      </c>
+      <c r="N11">
+        <v>-20</v>
+      </c>
+      <c r="O11">
+        <v>-17</v>
+      </c>
+      <c r="P11">
+        <v>-25</v>
+      </c>
+      <c r="Q11">
+        <v>-31</v>
+      </c>
+      <c r="R11">
+        <v>-35</v>
+      </c>
+      <c r="S11" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/EBC League 2025.xlsx
+++ b/leagues/EBC League 2025.xlsx
@@ -10,16 +10,20 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
-    <sheet name="LPI By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Biggest Upsets" sheetId="6" r:id="rId6"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="132">
   <si>
     <t>Werewolves of London</t>
   </si>
@@ -108,6 +112,213 @@
     <t>Difference</t>
   </si>
   <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Zacierka </t>
+  </si>
+  <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
+    <t>gianni alessio</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Kate Zacierka</t>
+  </si>
+  <si>
+    <t>James Breen</t>
+  </si>
+  <si>
+    <t>Ayush Chivate</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>12.0-2.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -115,36 +326,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>James Breen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike Zacierka </t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Gianpierre Lopez</t>
-  </si>
-  <si>
-    <t>Derek Alcavage</t>
-  </si>
-  <si>
-    <t>gianni alessio</t>
-  </si>
-  <si>
-    <t>jack meehan</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t>Ayush Chivate</t>
-  </si>
-  <si>
-    <t>Kate Zacierka</t>
   </si>
   <si>
     <t>↑3</t>
@@ -988,6 +1169,276 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>-26</v>
+      </c>
+      <c r="F2">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>-24</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>-19</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>-17</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>-17</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1351,6 +1802,1658 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>97.3</v>
+      </c>
+      <c r="C2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>99.2</v>
+      </c>
+      <c r="E2">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F2">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="G2">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="H2">
+        <v>90.3</v>
+      </c>
+      <c r="I2">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="J2">
+        <v>93.2</v>
+      </c>
+      <c r="K2">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="L2">
+        <v>99.8</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.9</v>
+      </c>
+      <c r="C3">
+        <v>78.10000000000001</v>
+      </c>
+      <c r="D3">
+        <v>88.3</v>
+      </c>
+      <c r="E3">
+        <v>95.8</v>
+      </c>
+      <c r="F3">
+        <v>92.2</v>
+      </c>
+      <c r="G3">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="H3">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="I3">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="J3">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="K3">
+        <v>94</v>
+      </c>
+      <c r="L3">
+        <v>96.8</v>
+      </c>
+      <c r="M3">
+        <v>99.8</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="C4">
+        <v>98.3</v>
+      </c>
+      <c r="D4">
+        <v>98.5</v>
+      </c>
+      <c r="E4">
+        <v>91.3</v>
+      </c>
+      <c r="F4">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="G4">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="H4">
+        <v>96</v>
+      </c>
+      <c r="I4">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="J4">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="K4">
+        <v>90.5</v>
+      </c>
+      <c r="L4">
+        <v>81.10000000000001</v>
+      </c>
+      <c r="M4">
+        <v>77.3</v>
+      </c>
+      <c r="N4">
+        <v>83.8</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>14.7</v>
+      </c>
+      <c r="E5">
+        <v>15.4</v>
+      </c>
+      <c r="F5">
+        <v>42.2</v>
+      </c>
+      <c r="G5">
+        <v>23.8</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>53.2</v>
+      </c>
+      <c r="J5">
+        <v>69.39999999999999</v>
+      </c>
+      <c r="K5">
+        <v>57.59999999999999</v>
+      </c>
+      <c r="L5">
+        <v>50.5</v>
+      </c>
+      <c r="M5">
+        <v>79</v>
+      </c>
+      <c r="N5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>98.7</v>
+      </c>
+      <c r="E6">
+        <v>99.5</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="H6">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>98.5</v>
+      </c>
+      <c r="C7">
+        <v>81.8</v>
+      </c>
+      <c r="D7">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="E7">
+        <v>73.5</v>
+      </c>
+      <c r="F7">
+        <v>71.39999999999999</v>
+      </c>
+      <c r="G7">
+        <v>88.7</v>
+      </c>
+      <c r="H7">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="I7">
+        <v>86.8</v>
+      </c>
+      <c r="J7">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="K7">
+        <v>99</v>
+      </c>
+      <c r="L7">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="M7">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="N7">
+        <v>99</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>82.5</v>
+      </c>
+      <c r="C8">
+        <v>96.7</v>
+      </c>
+      <c r="D8">
+        <v>58.3</v>
+      </c>
+      <c r="E8">
+        <v>26.4</v>
+      </c>
+      <c r="F8">
+        <v>13.8</v>
+      </c>
+      <c r="G8">
+        <v>10.1</v>
+      </c>
+      <c r="H8">
+        <v>4.3</v>
+      </c>
+      <c r="I8">
+        <v>12.7</v>
+      </c>
+      <c r="J8">
+        <v>34.1</v>
+      </c>
+      <c r="K8">
+        <v>20.6</v>
+      </c>
+      <c r="L8">
+        <v>27.3</v>
+      </c>
+      <c r="M8">
+        <v>15.5</v>
+      </c>
+      <c r="N8">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>63.3</v>
+      </c>
+      <c r="C9">
+        <v>28.8</v>
+      </c>
+      <c r="D9">
+        <v>78.7</v>
+      </c>
+      <c r="E9">
+        <v>54.6</v>
+      </c>
+      <c r="F9">
+        <v>49.1</v>
+      </c>
+      <c r="G9">
+        <v>31.1</v>
+      </c>
+      <c r="H9">
+        <v>59.3</v>
+      </c>
+      <c r="I9">
+        <v>61.5</v>
+      </c>
+      <c r="J9">
+        <v>33.7</v>
+      </c>
+      <c r="K9">
+        <v>18.2</v>
+      </c>
+      <c r="L9">
+        <v>7.8</v>
+      </c>
+      <c r="M9">
+        <v>15.9</v>
+      </c>
+      <c r="N9">
+        <v>5.4</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.1</v>
+      </c>
+      <c r="C10">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>19.9</v>
+      </c>
+      <c r="F10">
+        <v>36.4</v>
+      </c>
+      <c r="G10">
+        <v>32.9</v>
+      </c>
+      <c r="H10">
+        <v>24.6</v>
+      </c>
+      <c r="I10">
+        <v>21.7</v>
+      </c>
+      <c r="J10">
+        <v>9.9</v>
+      </c>
+      <c r="K10">
+        <v>20.9</v>
+      </c>
+      <c r="L10">
+        <v>36.3</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>5.4</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>77.8</v>
+      </c>
+      <c r="C11">
+        <v>10.8</v>
+      </c>
+      <c r="D11">
+        <v>2.5</v>
+      </c>
+      <c r="E11">
+        <v>24.5</v>
+      </c>
+      <c r="F11">
+        <v>13.6</v>
+      </c>
+      <c r="G11">
+        <v>36.7</v>
+      </c>
+      <c r="H11">
+        <v>24.8</v>
+      </c>
+      <c r="I11">
+        <v>8.9</v>
+      </c>
+      <c r="J11">
+        <v>7.3</v>
+      </c>
+      <c r="K11">
+        <v>1.8</v>
+      </c>
+      <c r="L11">
+        <v>3.5</v>
+      </c>
+      <c r="M11">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="N11">
+        <v>2.1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2">
+        <v>123.33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>121.37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>116.26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>109.22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>124.17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>107.84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>103.85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>116.02</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>115.56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>105.63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D2">
+        <v>123.3342857142857</v>
+      </c>
+      <c r="E2">
+        <v>1726.68</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D3">
+        <v>121.3685714285714</v>
+      </c>
+      <c r="E3">
+        <v>1699.16</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>116.2628571428572</v>
+      </c>
+      <c r="E4">
+        <v>1627.68</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D5">
+        <v>109.2157142857143</v>
+      </c>
+      <c r="E5">
+        <v>1529.02</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D6">
+        <v>124.1728571428571</v>
+      </c>
+      <c r="E6">
+        <v>1738.42</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>107.8428571428572</v>
+      </c>
+      <c r="E7">
+        <v>1509.8</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D8">
+        <v>103.8542857142857</v>
+      </c>
+      <c r="E8">
+        <v>1453.96</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D9">
+        <v>116.0228571428571</v>
+      </c>
+      <c r="E9">
+        <v>1624.32</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D10">
+        <v>115.5614285714286</v>
+      </c>
+      <c r="E10">
+        <v>1617.86</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D11">
+        <v>105.6285714285714</v>
+      </c>
+      <c r="E11">
+        <v>1478.8</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1362,16 +3465,16 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1382,7 +3485,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -1391,7 +3494,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1402,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -1411,7 +3514,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1422,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1431,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1442,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>28</v>
@@ -1451,7 +3554,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1462,7 +3565,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -1471,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1482,7 +3585,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>-22</v>
@@ -1491,7 +3594,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1502,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>-24</v>
@@ -1511,7 +3614,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1522,7 +3625,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>-26</v>
@@ -1531,7 +3634,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1542,7 +3645,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>-31</v>
@@ -1551,7 +3654,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1562,7 +3665,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>-35</v>
@@ -1571,7 +3674,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +3682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -1589,58 +3692,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1699,7 +3802,7 @@
         <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1758,7 +3861,7 @@
         <v>32</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1817,7 +3920,7 @@
         <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1876,7 +3979,7 @@
         <v>28</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1935,7 +4038,7 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1994,7 +4097,7 @@
         <v>-22</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2053,7 +4156,7 @@
         <v>-24</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2112,7 +4215,7 @@
         <v>-26</v>
       </c>
       <c r="S9" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2171,7 +4274,7 @@
         <v>-31</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2230,277 +4333,7 @@
         <v>-35</v>
       </c>
       <c r="S11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>-26</v>
-      </c>
-      <c r="F2">
-        <v>34</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>-24</v>
-      </c>
-      <c r="G3">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>-19</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>-17</v>
-      </c>
-      <c r="F5">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>-6</v>
-      </c>
-      <c r="G6">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>31</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>-17</v>
-      </c>
-      <c r="G8">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>36</v>
-      </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
